--- a/frontend/public/template.xlsx
+++ b/frontend/public/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicente Rojas\Desktop\Vicente\uni_stuff\ing_software_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0B24A-5E01-460A-85C5-E9A363E0D483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860AB589-C6A6-47FC-B355-1FBEADBD051E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,16 @@
   <definedNames>
     <definedName name="Z_A890834B_38EF_458D_8A0D_C59B51E836C4_.wvu.FilterData" localSheetId="0">Sheet1!$A$6:$M$24</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -75,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>Año</t>
   </si>
@@ -403,17 +411,37 @@
   <si>
     <t>28/11/2019</t>
   </si>
+  <si>
+    <t>CC5510: Diseño de Sistemas Interactivos</t>
+  </si>
+  <si>
+    <t>Francisco Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6° Sem. </t>
+  </si>
+  <si>
+    <t>CC6666: Test</t>
+  </si>
+  <si>
+    <t>Jorge Perez</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\/mm\/yy"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="172" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -441,6 +469,17 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -665,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +840,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,23 +1253,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P961"/>
+  <dimension ref="A1:Q961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="56.08984375" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="17" max="17" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1279,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1288,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1297,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1306,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1396,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1352,18 +1423,20 @@
       <c r="J7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17">
+        <v>43742</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="M7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1474,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1512,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1552,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>51</v>
       </c>
@@ -1516,8 +1589,9 @@
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="71"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>51</v>
       </c>
@@ -1559,7 +1633,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>51</v>
       </c>
@@ -1591,7 +1665,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1703,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>73</v>
       </c>
@@ -1665,7 +1739,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="37"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>73</v>
       </c>
@@ -1705,7 +1779,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="37"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>73</v>
       </c>
@@ -1724,8 +1798,8 @@
       <c r="F17" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>31</v>
+      <c r="G17" s="64">
+        <v>44159</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="35" t="s">
@@ -1740,12 +1814,12 @@
       <c r="L17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="37"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="37"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>73</v>
       </c>
@@ -1764,8 +1838,8 @@
       <c r="F18" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>31</v>
+      <c r="G18" s="63">
+        <v>43793</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="35" t="s">
@@ -1785,7 +1859,7 @@
       <c r="O18" s="34"/>
       <c r="P18" s="37"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>73</v>
       </c>
@@ -1825,7 +1899,7 @@
       <c r="O19" s="34"/>
       <c r="P19" s="37"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>88</v>
       </c>
@@ -1863,7 +1937,7 @@
       <c r="O20" s="44"/>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>88</v>
       </c>
@@ -1901,7 +1975,7 @@
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>88</v>
       </c>
@@ -1933,7 +2007,7 @@
       <c r="O22" s="44"/>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>97</v>
       </c>
@@ -1973,7 +2047,7 @@
       </c>
       <c r="P23" s="48"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>104</v>
       </c>
@@ -2005,11 +2079,28 @@
       <c r="O24" s="54"/>
       <c r="P24" s="57"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="58">
+        <v>1</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="62">
+        <v>43762</v>
+      </c>
+      <c r="F25" s="67">
+        <v>43565</v>
+      </c>
+      <c r="G25" s="68">
+        <v>43797</v>
+      </c>
       <c r="H25" s="58"/>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
@@ -2020,11 +2111,28 @@
       <c r="O25" s="58"/>
       <c r="P25" s="58"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="58">
+        <v>1</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="65">
+        <v>43808</v>
+      </c>
+      <c r="F26" s="66">
+        <v>43684</v>
+      </c>
+      <c r="G26" s="69">
+        <v>43724</v>
+      </c>
       <c r="H26" s="58"/>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -2035,7 +2143,7 @@
       <c r="O26" s="58"/>
       <c r="P26" s="58"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C27" s="58"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -2050,7 +2158,7 @@
       <c r="O27" s="58"/>
       <c r="P27" s="58"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C28" s="58"/>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
@@ -2065,7 +2173,7 @@
       <c r="O28" s="58"/>
       <c r="P28" s="58"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C29" s="58"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
@@ -2080,7 +2188,7 @@
       <c r="O29" s="58"/>
       <c r="P29" s="58"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C30" s="58"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
@@ -2095,7 +2203,7 @@
       <c r="O30" s="58"/>
       <c r="P30" s="58"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
@@ -2110,7 +2218,7 @@
       <c r="O31" s="58"/>
       <c r="P31" s="58"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="58"/>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
@@ -2125,7 +2233,7 @@
       <c r="O32" s="58"/>
       <c r="P32" s="58"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
@@ -2140,7 +2248,7 @@
       <c r="O33" s="58"/>
       <c r="P33" s="58"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
@@ -2155,7 +2263,7 @@
       <c r="O34" s="58"/>
       <c r="P34" s="58"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
@@ -2170,7 +2278,7 @@
       <c r="O35" s="58"/>
       <c r="P35" s="58"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
@@ -2185,7 +2293,7 @@
       <c r="O36" s="58"/>
       <c r="P36" s="58"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C37" s="58"/>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
@@ -2200,7 +2308,7 @@
       <c r="O37" s="58"/>
       <c r="P37" s="58"/>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C38" s="58"/>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
@@ -2215,7 +2323,7 @@
       <c r="O38" s="58"/>
       <c r="P38" s="58"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C39" s="58"/>
       <c r="E39" s="58"/>
       <c r="F39" s="58"/>
@@ -2230,7 +2338,7 @@
       <c r="O39" s="58"/>
       <c r="P39" s="58"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C40" s="58"/>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
@@ -2245,7 +2353,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="58"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
@@ -2260,7 +2368,7 @@
       <c r="O41" s="58"/>
       <c r="P41" s="58"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
@@ -2275,7 +2383,7 @@
       <c r="O42" s="58"/>
       <c r="P42" s="58"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C43" s="58"/>
       <c r="E43" s="58"/>
       <c r="F43" s="58"/>
@@ -2290,7 +2398,7 @@
       <c r="O43" s="58"/>
       <c r="P43" s="58"/>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C44" s="58"/>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
@@ -2305,7 +2413,7 @@
       <c r="O44" s="58"/>
       <c r="P44" s="58"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C45" s="58"/>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
@@ -2320,7 +2428,7 @@
       <c r="O45" s="58"/>
       <c r="P45" s="58"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
@@ -2335,7 +2443,7 @@
       <c r="O46" s="58"/>
       <c r="P46" s="58"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C47" s="58"/>
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
@@ -2350,7 +2458,7 @@
       <c r="O47" s="58"/>
       <c r="P47" s="58"/>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C48" s="58"/>
       <c r="E48" s="58"/>
       <c r="F48" s="58"/>
@@ -2365,7 +2473,7 @@
       <c r="O48" s="58"/>
       <c r="P48" s="58"/>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="58"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
@@ -2380,7 +2488,7 @@
       <c r="O49" s="58"/>
       <c r="P49" s="58"/>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="58"/>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
@@ -2395,7 +2503,7 @@
       <c r="O50" s="58"/>
       <c r="P50" s="58"/>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58"/>
@@ -2410,7 +2518,7 @@
       <c r="O51" s="58"/>
       <c r="P51" s="58"/>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="58"/>
       <c r="E52" s="58"/>
       <c r="F52" s="58"/>
@@ -2425,7 +2533,7 @@
       <c r="O52" s="58"/>
       <c r="P52" s="58"/>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="58"/>
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
@@ -2440,7 +2548,7 @@
       <c r="O53" s="58"/>
       <c r="P53" s="58"/>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="58"/>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
@@ -2455,7 +2563,7 @@
       <c r="O54" s="58"/>
       <c r="P54" s="58"/>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="58"/>
       <c r="E55" s="58"/>
       <c r="F55" s="58"/>
@@ -2470,7 +2578,7 @@
       <c r="O55" s="58"/>
       <c r="P55" s="58"/>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58"/>
@@ -2485,7 +2593,7 @@
       <c r="O56" s="58"/>
       <c r="P56" s="58"/>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="58"/>
       <c r="E57" s="58"/>
       <c r="F57" s="58"/>
@@ -2500,7 +2608,7 @@
       <c r="O57" s="58"/>
       <c r="P57" s="58"/>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="58"/>
       <c r="E58" s="58"/>
       <c r="F58" s="58"/>
@@ -2515,7 +2623,7 @@
       <c r="O58" s="58"/>
       <c r="P58" s="58"/>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="58"/>
       <c r="E59" s="58"/>
       <c r="F59" s="58"/>
@@ -2530,7 +2638,7 @@
       <c r="O59" s="58"/>
       <c r="P59" s="58"/>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="58"/>
       <c r="E60" s="58"/>
       <c r="F60" s="58"/>
@@ -2545,7 +2653,7 @@
       <c r="O60" s="58"/>
       <c r="P60" s="58"/>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58"/>
@@ -2560,7 +2668,7 @@
       <c r="O61" s="58"/>
       <c r="P61" s="58"/>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="58"/>
       <c r="E62" s="58"/>
       <c r="F62" s="58"/>
@@ -2575,7 +2683,7 @@
       <c r="O62" s="58"/>
       <c r="P62" s="58"/>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="58"/>
       <c r="E63" s="58"/>
       <c r="F63" s="58"/>
@@ -2590,7 +2698,7 @@
       <c r="O63" s="58"/>
       <c r="P63" s="58"/>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="58"/>
       <c r="E64" s="58"/>
       <c r="F64" s="58"/>
@@ -2605,7 +2713,7 @@
       <c r="O64" s="58"/>
       <c r="P64" s="58"/>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C65" s="58"/>
       <c r="E65" s="58"/>
       <c r="F65" s="58"/>
@@ -2620,7 +2728,7 @@
       <c r="O65" s="58"/>
       <c r="P65" s="58"/>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C66" s="58"/>
       <c r="E66" s="58"/>
       <c r="F66" s="58"/>
@@ -2635,7 +2743,7 @@
       <c r="O66" s="58"/>
       <c r="P66" s="58"/>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C67" s="58"/>
       <c r="E67" s="58"/>
       <c r="F67" s="58"/>
@@ -2650,7 +2758,7 @@
       <c r="O67" s="58"/>
       <c r="P67" s="58"/>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C68" s="58"/>
       <c r="E68" s="58"/>
       <c r="F68" s="58"/>
@@ -2665,7 +2773,7 @@
       <c r="O68" s="58"/>
       <c r="P68" s="58"/>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C69" s="58"/>
       <c r="E69" s="58"/>
       <c r="F69" s="58"/>
@@ -2680,7 +2788,7 @@
       <c r="O69" s="58"/>
       <c r="P69" s="58"/>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C70" s="58"/>
       <c r="E70" s="58"/>
       <c r="F70" s="58"/>
@@ -2695,7 +2803,7 @@
       <c r="O70" s="58"/>
       <c r="P70" s="58"/>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C71" s="58"/>
       <c r="E71" s="58"/>
       <c r="F71" s="58"/>
@@ -2710,7 +2818,7 @@
       <c r="O71" s="58"/>
       <c r="P71" s="58"/>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C72" s="58"/>
       <c r="E72" s="58"/>
       <c r="F72" s="58"/>
@@ -2725,7 +2833,7 @@
       <c r="O72" s="58"/>
       <c r="P72" s="58"/>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C73" s="58"/>
       <c r="E73" s="58"/>
       <c r="F73" s="58"/>
@@ -2740,7 +2848,7 @@
       <c r="O73" s="58"/>
       <c r="P73" s="58"/>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C74" s="58"/>
       <c r="E74" s="58"/>
       <c r="F74" s="58"/>
@@ -2755,7 +2863,7 @@
       <c r="O74" s="58"/>
       <c r="P74" s="58"/>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C75" s="58"/>
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
@@ -2770,7 +2878,7 @@
       <c r="O75" s="58"/>
       <c r="P75" s="58"/>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C76" s="58"/>
       <c r="E76" s="58"/>
       <c r="F76" s="58"/>
@@ -2785,7 +2893,7 @@
       <c r="O76" s="58"/>
       <c r="P76" s="58"/>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C77" s="58"/>
       <c r="E77" s="58"/>
       <c r="F77" s="58"/>
@@ -2800,7 +2908,7 @@
       <c r="O77" s="58"/>
       <c r="P77" s="58"/>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C78" s="58"/>
       <c r="E78" s="58"/>
       <c r="F78" s="58"/>
@@ -2815,7 +2923,7 @@
       <c r="O78" s="58"/>
       <c r="P78" s="58"/>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C79" s="58"/>
       <c r="E79" s="58"/>
       <c r="F79" s="58"/>
@@ -2830,7 +2938,7 @@
       <c r="O79" s="58"/>
       <c r="P79" s="58"/>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C80" s="58"/>
       <c r="E80" s="58"/>
       <c r="F80" s="58"/>
@@ -2845,7 +2953,7 @@
       <c r="O80" s="58"/>
       <c r="P80" s="58"/>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="58"/>
       <c r="E81" s="58"/>
       <c r="F81" s="58"/>
@@ -2860,7 +2968,7 @@
       <c r="O81" s="58"/>
       <c r="P81" s="58"/>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="58"/>
       <c r="E82" s="58"/>
       <c r="F82" s="58"/>
@@ -2875,7 +2983,7 @@
       <c r="O82" s="58"/>
       <c r="P82" s="58"/>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="58"/>
       <c r="E83" s="58"/>
       <c r="F83" s="58"/>
@@ -2890,7 +2998,7 @@
       <c r="O83" s="58"/>
       <c r="P83" s="58"/>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="58"/>
       <c r="E84" s="58"/>
       <c r="F84" s="58"/>
@@ -2905,7 +3013,7 @@
       <c r="O84" s="58"/>
       <c r="P84" s="58"/>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="58"/>
       <c r="E85" s="58"/>
       <c r="F85" s="58"/>
@@ -2920,7 +3028,7 @@
       <c r="O85" s="58"/>
       <c r="P85" s="58"/>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="58"/>
       <c r="E86" s="58"/>
       <c r="F86" s="58"/>
@@ -2935,7 +3043,7 @@
       <c r="O86" s="58"/>
       <c r="P86" s="58"/>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="58"/>
       <c r="E87" s="58"/>
       <c r="F87" s="58"/>
@@ -2950,7 +3058,7 @@
       <c r="O87" s="58"/>
       <c r="P87" s="58"/>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="58"/>
       <c r="E88" s="58"/>
       <c r="F88" s="58"/>
@@ -2965,7 +3073,7 @@
       <c r="O88" s="58"/>
       <c r="P88" s="58"/>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="58"/>
       <c r="E89" s="58"/>
       <c r="F89" s="58"/>
@@ -2980,7 +3088,7 @@
       <c r="O89" s="58"/>
       <c r="P89" s="58"/>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="58"/>
       <c r="E90" s="58"/>
       <c r="F90" s="58"/>
@@ -2995,7 +3103,7 @@
       <c r="O90" s="58"/>
       <c r="P90" s="58"/>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="58"/>
       <c r="E91" s="58"/>
       <c r="F91" s="58"/>
@@ -3010,7 +3118,7 @@
       <c r="O91" s="58"/>
       <c r="P91" s="58"/>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="58"/>
       <c r="E92" s="58"/>
       <c r="F92" s="58"/>
@@ -3025,7 +3133,7 @@
       <c r="O92" s="58"/>
       <c r="P92" s="58"/>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="58"/>
       <c r="E93" s="58"/>
       <c r="F93" s="58"/>
@@ -3040,7 +3148,7 @@
       <c r="O93" s="58"/>
       <c r="P93" s="58"/>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="58"/>
       <c r="E94" s="58"/>
       <c r="F94" s="58"/>
@@ -3055,7 +3163,7 @@
       <c r="O94" s="58"/>
       <c r="P94" s="58"/>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="58"/>
       <c r="E95" s="58"/>
       <c r="F95" s="58"/>
@@ -3070,7 +3178,7 @@
       <c r="O95" s="58"/>
       <c r="P95" s="58"/>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="58"/>
       <c r="E96" s="58"/>
       <c r="F96" s="58"/>
@@ -3085,7 +3193,7 @@
       <c r="O96" s="58"/>
       <c r="P96" s="58"/>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="58"/>
       <c r="E97" s="58"/>
       <c r="F97" s="58"/>
@@ -3100,7 +3208,7 @@
       <c r="O97" s="58"/>
       <c r="P97" s="58"/>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="58"/>
       <c r="E98" s="58"/>
       <c r="F98" s="58"/>
@@ -3115,7 +3223,7 @@
       <c r="O98" s="58"/>
       <c r="P98" s="58"/>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="58"/>
       <c r="E99" s="58"/>
       <c r="F99" s="58"/>
@@ -3130,7 +3238,7 @@
       <c r="O99" s="58"/>
       <c r="P99" s="58"/>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="58"/>
       <c r="E100" s="58"/>
       <c r="F100" s="58"/>
@@ -3145,7 +3253,7 @@
       <c r="O100" s="58"/>
       <c r="P100" s="58"/>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="58"/>
       <c r="E101" s="58"/>
       <c r="F101" s="58"/>
@@ -3160,7 +3268,7 @@
       <c r="O101" s="58"/>
       <c r="P101" s="58"/>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="58"/>
       <c r="E102" s="58"/>
       <c r="F102" s="58"/>
@@ -3175,7 +3283,7 @@
       <c r="O102" s="58"/>
       <c r="P102" s="58"/>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C103" s="58"/>
       <c r="E103" s="58"/>
       <c r="F103" s="58"/>
@@ -3190,7 +3298,7 @@
       <c r="O103" s="58"/>
       <c r="P103" s="58"/>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C104" s="58"/>
       <c r="E104" s="58"/>
       <c r="F104" s="58"/>
@@ -3205,7 +3313,7 @@
       <c r="O104" s="58"/>
       <c r="P104" s="58"/>
     </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C105" s="58"/>
       <c r="E105" s="58"/>
       <c r="F105" s="58"/>
@@ -3220,7 +3328,7 @@
       <c r="O105" s="58"/>
       <c r="P105" s="58"/>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C106" s="58"/>
       <c r="E106" s="58"/>
       <c r="F106" s="58"/>
@@ -3235,7 +3343,7 @@
       <c r="O106" s="58"/>
       <c r="P106" s="58"/>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C107" s="58"/>
       <c r="E107" s="58"/>
       <c r="F107" s="58"/>
@@ -3250,7 +3358,7 @@
       <c r="O107" s="58"/>
       <c r="P107" s="58"/>
     </row>
-    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C108" s="58"/>
       <c r="E108" s="58"/>
       <c r="F108" s="58"/>
@@ -3265,7 +3373,7 @@
       <c r="O108" s="58"/>
       <c r="P108" s="58"/>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C109" s="58"/>
       <c r="E109" s="58"/>
       <c r="F109" s="58"/>
@@ -3280,7 +3388,7 @@
       <c r="O109" s="58"/>
       <c r="P109" s="58"/>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C110" s="58"/>
       <c r="E110" s="58"/>
       <c r="F110" s="58"/>
@@ -3295,7 +3403,7 @@
       <c r="O110" s="58"/>
       <c r="P110" s="58"/>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C111" s="58"/>
       <c r="E111" s="58"/>
       <c r="F111" s="58"/>
@@ -3310,7 +3418,7 @@
       <c r="O111" s="58"/>
       <c r="P111" s="58"/>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C112" s="58"/>
       <c r="E112" s="58"/>
       <c r="F112" s="58"/>
@@ -3325,7 +3433,7 @@
       <c r="O112" s="58"/>
       <c r="P112" s="58"/>
     </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C113" s="58"/>
       <c r="E113" s="58"/>
       <c r="F113" s="58"/>
@@ -3340,7 +3448,7 @@
       <c r="O113" s="58"/>
       <c r="P113" s="58"/>
     </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C114" s="58"/>
       <c r="E114" s="58"/>
       <c r="F114" s="58"/>
@@ -3355,7 +3463,7 @@
       <c r="O114" s="58"/>
       <c r="P114" s="58"/>
     </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C115" s="58"/>
       <c r="E115" s="58"/>
       <c r="F115" s="58"/>
@@ -3370,7 +3478,7 @@
       <c r="O115" s="58"/>
       <c r="P115" s="58"/>
     </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C116" s="58"/>
       <c r="E116" s="58"/>
       <c r="F116" s="58"/>
@@ -3385,7 +3493,7 @@
       <c r="O116" s="58"/>
       <c r="P116" s="58"/>
     </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C117" s="58"/>
       <c r="E117" s="58"/>
       <c r="F117" s="58"/>
@@ -3400,7 +3508,7 @@
       <c r="O117" s="58"/>
       <c r="P117" s="58"/>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C118" s="58"/>
       <c r="E118" s="58"/>
       <c r="F118" s="58"/>
@@ -3415,7 +3523,7 @@
       <c r="O118" s="58"/>
       <c r="P118" s="58"/>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C119" s="58"/>
       <c r="E119" s="58"/>
       <c r="F119" s="58"/>
@@ -3430,7 +3538,7 @@
       <c r="O119" s="58"/>
       <c r="P119" s="58"/>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C120" s="58"/>
       <c r="E120" s="58"/>
       <c r="F120" s="58"/>
@@ -3445,7 +3553,7 @@
       <c r="O120" s="58"/>
       <c r="P120" s="58"/>
     </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C121" s="58"/>
       <c r="E121" s="58"/>
       <c r="F121" s="58"/>
@@ -3460,7 +3568,7 @@
       <c r="O121" s="58"/>
       <c r="P121" s="58"/>
     </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C122" s="58"/>
       <c r="E122" s="58"/>
       <c r="F122" s="58"/>
@@ -3475,7 +3583,7 @@
       <c r="O122" s="58"/>
       <c r="P122" s="58"/>
     </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C123" s="58"/>
       <c r="E123" s="58"/>
       <c r="F123" s="58"/>
@@ -3490,7 +3598,7 @@
       <c r="O123" s="58"/>
       <c r="P123" s="58"/>
     </row>
-    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C124" s="58"/>
       <c r="E124" s="58"/>
       <c r="F124" s="58"/>
@@ -3505,7 +3613,7 @@
       <c r="O124" s="58"/>
       <c r="P124" s="58"/>
     </row>
-    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C125" s="58"/>
       <c r="E125" s="58"/>
       <c r="F125" s="58"/>
@@ -3520,7 +3628,7 @@
       <c r="O125" s="58"/>
       <c r="P125" s="58"/>
     </row>
-    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C126" s="58"/>
       <c r="E126" s="58"/>
       <c r="F126" s="58"/>
@@ -3535,7 +3643,7 @@
       <c r="O126" s="58"/>
       <c r="P126" s="58"/>
     </row>
-    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C127" s="58"/>
       <c r="E127" s="58"/>
       <c r="F127" s="58"/>
@@ -3550,7 +3658,7 @@
       <c r="O127" s="58"/>
       <c r="P127" s="58"/>
     </row>
-    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C128" s="58"/>
       <c r="E128" s="58"/>
       <c r="F128" s="58"/>
@@ -3565,7 +3673,7 @@
       <c r="O128" s="58"/>
       <c r="P128" s="58"/>
     </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C129" s="58"/>
       <c r="E129" s="58"/>
       <c r="F129" s="58"/>
@@ -3580,7 +3688,7 @@
       <c r="O129" s="58"/>
       <c r="P129" s="58"/>
     </row>
-    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C130" s="58"/>
       <c r="E130" s="58"/>
       <c r="F130" s="58"/>
@@ -3595,7 +3703,7 @@
       <c r="O130" s="58"/>
       <c r="P130" s="58"/>
     </row>
-    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C131" s="58"/>
       <c r="E131" s="58"/>
       <c r="F131" s="58"/>
@@ -3610,7 +3718,7 @@
       <c r="O131" s="58"/>
       <c r="P131" s="58"/>
     </row>
-    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C132" s="58"/>
       <c r="E132" s="58"/>
       <c r="F132" s="58"/>
@@ -3625,7 +3733,7 @@
       <c r="O132" s="58"/>
       <c r="P132" s="58"/>
     </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C133" s="58"/>
       <c r="E133" s="58"/>
       <c r="F133" s="58"/>
@@ -3640,7 +3748,7 @@
       <c r="O133" s="58"/>
       <c r="P133" s="58"/>
     </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C134" s="58"/>
       <c r="E134" s="58"/>
       <c r="F134" s="58"/>
@@ -3655,7 +3763,7 @@
       <c r="O134" s="58"/>
       <c r="P134" s="58"/>
     </row>
-    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C135" s="58"/>
       <c r="E135" s="58"/>
       <c r="F135" s="58"/>
@@ -3670,7 +3778,7 @@
       <c r="O135" s="58"/>
       <c r="P135" s="58"/>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C136" s="58"/>
       <c r="E136" s="58"/>
       <c r="F136" s="58"/>
@@ -3685,7 +3793,7 @@
       <c r="O136" s="58"/>
       <c r="P136" s="58"/>
     </row>
-    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C137" s="58"/>
       <c r="E137" s="58"/>
       <c r="F137" s="58"/>
@@ -3700,7 +3808,7 @@
       <c r="O137" s="58"/>
       <c r="P137" s="58"/>
     </row>
-    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C138" s="58"/>
       <c r="E138" s="58"/>
       <c r="F138" s="58"/>
@@ -3715,7 +3823,7 @@
       <c r="O138" s="58"/>
       <c r="P138" s="58"/>
     </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C139" s="58"/>
       <c r="E139" s="58"/>
       <c r="F139" s="58"/>
@@ -3730,7 +3838,7 @@
       <c r="O139" s="58"/>
       <c r="P139" s="58"/>
     </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C140" s="58"/>
       <c r="E140" s="58"/>
       <c r="F140" s="58"/>
@@ -3745,7 +3853,7 @@
       <c r="O140" s="58"/>
       <c r="P140" s="58"/>
     </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C141" s="58"/>
       <c r="E141" s="58"/>
       <c r="F141" s="58"/>
@@ -3760,7 +3868,7 @@
       <c r="O141" s="58"/>
       <c r="P141" s="58"/>
     </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C142" s="58"/>
       <c r="E142" s="58"/>
       <c r="F142" s="58"/>
@@ -3775,7 +3883,7 @@
       <c r="O142" s="58"/>
       <c r="P142" s="58"/>
     </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C143" s="58"/>
       <c r="E143" s="58"/>
       <c r="F143" s="58"/>
@@ -3790,7 +3898,7 @@
       <c r="O143" s="58"/>
       <c r="P143" s="58"/>
     </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C144" s="58"/>
       <c r="E144" s="58"/>
       <c r="F144" s="58"/>
@@ -3805,7 +3913,7 @@
       <c r="O144" s="58"/>
       <c r="P144" s="58"/>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C145" s="58"/>
       <c r="E145" s="58"/>
       <c r="F145" s="58"/>
@@ -3820,7 +3928,7 @@
       <c r="O145" s="58"/>
       <c r="P145" s="58"/>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C146" s="58"/>
       <c r="E146" s="58"/>
       <c r="F146" s="58"/>
@@ -3835,7 +3943,7 @@
       <c r="O146" s="58"/>
       <c r="P146" s="58"/>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C147" s="58"/>
       <c r="E147" s="58"/>
       <c r="F147" s="58"/>
@@ -3850,7 +3958,7 @@
       <c r="O147" s="58"/>
       <c r="P147" s="58"/>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C148" s="58"/>
       <c r="E148" s="58"/>
       <c r="F148" s="58"/>
@@ -3865,7 +3973,7 @@
       <c r="O148" s="58"/>
       <c r="P148" s="58"/>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C149" s="58"/>
       <c r="E149" s="58"/>
       <c r="F149" s="58"/>
@@ -3880,7 +3988,7 @@
       <c r="O149" s="58"/>
       <c r="P149" s="58"/>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C150" s="58"/>
       <c r="E150" s="58"/>
       <c r="F150" s="58"/>
@@ -3895,7 +4003,7 @@
       <c r="O150" s="58"/>
       <c r="P150" s="58"/>
     </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C151" s="58"/>
       <c r="E151" s="58"/>
       <c r="F151" s="58"/>
@@ -3910,7 +4018,7 @@
       <c r="O151" s="58"/>
       <c r="P151" s="58"/>
     </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C152" s="58"/>
       <c r="E152" s="58"/>
       <c r="F152" s="58"/>
@@ -3925,7 +4033,7 @@
       <c r="O152" s="58"/>
       <c r="P152" s="58"/>
     </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C153" s="58"/>
       <c r="E153" s="58"/>
       <c r="F153" s="58"/>
@@ -3940,7 +4048,7 @@
       <c r="O153" s="58"/>
       <c r="P153" s="58"/>
     </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C154" s="58"/>
       <c r="E154" s="58"/>
       <c r="F154" s="58"/>
@@ -3955,7 +4063,7 @@
       <c r="O154" s="58"/>
       <c r="P154" s="58"/>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C155" s="58"/>
       <c r="E155" s="58"/>
       <c r="F155" s="58"/>
@@ -3970,7 +4078,7 @@
       <c r="O155" s="58"/>
       <c r="P155" s="58"/>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C156" s="58"/>
       <c r="E156" s="58"/>
       <c r="F156" s="58"/>
@@ -3985,7 +4093,7 @@
       <c r="O156" s="58"/>
       <c r="P156" s="58"/>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C157" s="58"/>
       <c r="E157" s="58"/>
       <c r="F157" s="58"/>
@@ -4000,7 +4108,7 @@
       <c r="O157" s="58"/>
       <c r="P157" s="58"/>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C158" s="58"/>
       <c r="E158" s="58"/>
       <c r="F158" s="58"/>
@@ -4015,7 +4123,7 @@
       <c r="O158" s="58"/>
       <c r="P158" s="58"/>
     </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C159" s="58"/>
       <c r="E159" s="58"/>
       <c r="F159" s="58"/>
@@ -4030,7 +4138,7 @@
       <c r="O159" s="58"/>
       <c r="P159" s="58"/>
     </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C160" s="58"/>
       <c r="E160" s="58"/>
       <c r="F160" s="58"/>
@@ -4045,7 +4153,7 @@
       <c r="O160" s="58"/>
       <c r="P160" s="58"/>
     </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C161" s="58"/>
       <c r="E161" s="58"/>
       <c r="F161" s="58"/>
@@ -4060,7 +4168,7 @@
       <c r="O161" s="58"/>
       <c r="P161" s="58"/>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C162" s="58"/>
       <c r="E162" s="58"/>
       <c r="F162" s="58"/>
@@ -4075,7 +4183,7 @@
       <c r="O162" s="58"/>
       <c r="P162" s="58"/>
     </row>
-    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C163" s="58"/>
       <c r="E163" s="58"/>
       <c r="F163" s="58"/>
@@ -4090,7 +4198,7 @@
       <c r="O163" s="58"/>
       <c r="P163" s="58"/>
     </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C164" s="58"/>
       <c r="E164" s="58"/>
       <c r="F164" s="58"/>
@@ -4105,7 +4213,7 @@
       <c r="O164" s="58"/>
       <c r="P164" s="58"/>
     </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C165" s="58"/>
       <c r="E165" s="58"/>
       <c r="F165" s="58"/>
@@ -4120,7 +4228,7 @@
       <c r="O165" s="58"/>
       <c r="P165" s="58"/>
     </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C166" s="58"/>
       <c r="E166" s="58"/>
       <c r="F166" s="58"/>
@@ -4135,7 +4243,7 @@
       <c r="O166" s="58"/>
       <c r="P166" s="58"/>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C167" s="58"/>
       <c r="E167" s="58"/>
       <c r="F167" s="58"/>
@@ -4150,7 +4258,7 @@
       <c r="O167" s="58"/>
       <c r="P167" s="58"/>
     </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C168" s="58"/>
       <c r="E168" s="58"/>
       <c r="F168" s="58"/>
@@ -4165,7 +4273,7 @@
       <c r="O168" s="58"/>
       <c r="P168" s="58"/>
     </row>
-    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C169" s="58"/>
       <c r="E169" s="58"/>
       <c r="F169" s="58"/>
@@ -4180,7 +4288,7 @@
       <c r="O169" s="58"/>
       <c r="P169" s="58"/>
     </row>
-    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C170" s="58"/>
       <c r="E170" s="58"/>
       <c r="F170" s="58"/>
@@ -4195,7 +4303,7 @@
       <c r="O170" s="58"/>
       <c r="P170" s="58"/>
     </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C171" s="58"/>
       <c r="E171" s="58"/>
       <c r="F171" s="58"/>
@@ -4210,7 +4318,7 @@
       <c r="O171" s="58"/>
       <c r="P171" s="58"/>
     </row>
-    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C172" s="58"/>
       <c r="E172" s="58"/>
       <c r="F172" s="58"/>
@@ -4225,7 +4333,7 @@
       <c r="O172" s="58"/>
       <c r="P172" s="58"/>
     </row>
-    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C173" s="58"/>
       <c r="E173" s="58"/>
       <c r="F173" s="58"/>
@@ -4240,7 +4348,7 @@
       <c r="O173" s="58"/>
       <c r="P173" s="58"/>
     </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C174" s="58"/>
       <c r="E174" s="58"/>
       <c r="F174" s="58"/>
@@ -4255,7 +4363,7 @@
       <c r="O174" s="58"/>
       <c r="P174" s="58"/>
     </row>
-    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C175" s="58"/>
       <c r="E175" s="58"/>
       <c r="F175" s="58"/>
@@ -4270,7 +4378,7 @@
       <c r="O175" s="58"/>
       <c r="P175" s="58"/>
     </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C176" s="58"/>
       <c r="E176" s="58"/>
       <c r="F176" s="58"/>
@@ -4285,7 +4393,7 @@
       <c r="O176" s="58"/>
       <c r="P176" s="58"/>
     </row>
-    <row r="177" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C177" s="58"/>
       <c r="E177" s="58"/>
       <c r="F177" s="58"/>
@@ -4300,7 +4408,7 @@
       <c r="O177" s="58"/>
       <c r="P177" s="58"/>
     </row>
-    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C178" s="58"/>
       <c r="E178" s="58"/>
       <c r="F178" s="58"/>
@@ -4315,7 +4423,7 @@
       <c r="O178" s="58"/>
       <c r="P178" s="58"/>
     </row>
-    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C179" s="58"/>
       <c r="E179" s="58"/>
       <c r="F179" s="58"/>
@@ -4330,7 +4438,7 @@
       <c r="O179" s="58"/>
       <c r="P179" s="58"/>
     </row>
-    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C180" s="58"/>
       <c r="E180" s="58"/>
       <c r="F180" s="58"/>
@@ -4345,7 +4453,7 @@
       <c r="O180" s="58"/>
       <c r="P180" s="58"/>
     </row>
-    <row r="181" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C181" s="58"/>
       <c r="E181" s="58"/>
       <c r="F181" s="58"/>
@@ -4360,7 +4468,7 @@
       <c r="O181" s="58"/>
       <c r="P181" s="58"/>
     </row>
-    <row r="182" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C182" s="58"/>
       <c r="E182" s="58"/>
       <c r="F182" s="58"/>
@@ -4375,7 +4483,7 @@
       <c r="O182" s="58"/>
       <c r="P182" s="58"/>
     </row>
-    <row r="183" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C183" s="58"/>
       <c r="E183" s="58"/>
       <c r="F183" s="58"/>
@@ -4390,7 +4498,7 @@
       <c r="O183" s="58"/>
       <c r="P183" s="58"/>
     </row>
-    <row r="184" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C184" s="58"/>
       <c r="E184" s="58"/>
       <c r="F184" s="58"/>
@@ -4405,7 +4513,7 @@
       <c r="O184" s="58"/>
       <c r="P184" s="58"/>
     </row>
-    <row r="185" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C185" s="58"/>
       <c r="E185" s="58"/>
       <c r="F185" s="58"/>
@@ -4420,7 +4528,7 @@
       <c r="O185" s="58"/>
       <c r="P185" s="58"/>
     </row>
-    <row r="186" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C186" s="58"/>
       <c r="E186" s="58"/>
       <c r="F186" s="58"/>
@@ -4435,7 +4543,7 @@
       <c r="O186" s="58"/>
       <c r="P186" s="58"/>
     </row>
-    <row r="187" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C187" s="58"/>
       <c r="E187" s="58"/>
       <c r="F187" s="58"/>
@@ -4450,7 +4558,7 @@
       <c r="O187" s="58"/>
       <c r="P187" s="58"/>
     </row>
-    <row r="188" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C188" s="58"/>
       <c r="E188" s="58"/>
       <c r="F188" s="58"/>
@@ -4465,7 +4573,7 @@
       <c r="O188" s="58"/>
       <c r="P188" s="58"/>
     </row>
-    <row r="189" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C189" s="58"/>
       <c r="E189" s="58"/>
       <c r="F189" s="58"/>
@@ -4480,7 +4588,7 @@
       <c r="O189" s="58"/>
       <c r="P189" s="58"/>
     </row>
-    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C190" s="58"/>
       <c r="E190" s="58"/>
       <c r="F190" s="58"/>
@@ -4495,7 +4603,7 @@
       <c r="O190" s="58"/>
       <c r="P190" s="58"/>
     </row>
-    <row r="191" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C191" s="58"/>
       <c r="E191" s="58"/>
       <c r="F191" s="58"/>
@@ -4510,7 +4618,7 @@
       <c r="O191" s="58"/>
       <c r="P191" s="58"/>
     </row>
-    <row r="192" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C192" s="58"/>
       <c r="E192" s="58"/>
       <c r="F192" s="58"/>
@@ -4525,7 +4633,7 @@
       <c r="O192" s="58"/>
       <c r="P192" s="58"/>
     </row>
-    <row r="193" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C193" s="58"/>
       <c r="E193" s="58"/>
       <c r="F193" s="58"/>
@@ -4540,7 +4648,7 @@
       <c r="O193" s="58"/>
       <c r="P193" s="58"/>
     </row>
-    <row r="194" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C194" s="58"/>
       <c r="E194" s="58"/>
       <c r="F194" s="58"/>
@@ -4555,7 +4663,7 @@
       <c r="O194" s="58"/>
       <c r="P194" s="58"/>
     </row>
-    <row r="195" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C195" s="58"/>
       <c r="E195" s="58"/>
       <c r="F195" s="58"/>
@@ -4570,7 +4678,7 @@
       <c r="O195" s="58"/>
       <c r="P195" s="58"/>
     </row>
-    <row r="196" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C196" s="58"/>
       <c r="E196" s="58"/>
       <c r="F196" s="58"/>
@@ -4585,7 +4693,7 @@
       <c r="O196" s="58"/>
       <c r="P196" s="58"/>
     </row>
-    <row r="197" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C197" s="58"/>
       <c r="E197" s="58"/>
       <c r="F197" s="58"/>
@@ -4600,7 +4708,7 @@
       <c r="O197" s="58"/>
       <c r="P197" s="58"/>
     </row>
-    <row r="198" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C198" s="58"/>
       <c r="E198" s="58"/>
       <c r="F198" s="58"/>
@@ -4615,7 +4723,7 @@
       <c r="O198" s="58"/>
       <c r="P198" s="58"/>
     </row>
-    <row r="199" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C199" s="58"/>
       <c r="E199" s="58"/>
       <c r="F199" s="58"/>
@@ -4630,7 +4738,7 @@
       <c r="O199" s="58"/>
       <c r="P199" s="58"/>
     </row>
-    <row r="200" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C200" s="58"/>
       <c r="E200" s="58"/>
       <c r="F200" s="58"/>
@@ -4645,7 +4753,7 @@
       <c r="O200" s="58"/>
       <c r="P200" s="58"/>
     </row>
-    <row r="201" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C201" s="58"/>
       <c r="E201" s="58"/>
       <c r="F201" s="58"/>
@@ -4660,7 +4768,7 @@
       <c r="O201" s="58"/>
       <c r="P201" s="58"/>
     </row>
-    <row r="202" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C202" s="58"/>
       <c r="E202" s="58"/>
       <c r="F202" s="58"/>
@@ -4675,7 +4783,7 @@
       <c r="O202" s="58"/>
       <c r="P202" s="58"/>
     </row>
-    <row r="203" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C203" s="58"/>
       <c r="E203" s="58"/>
       <c r="F203" s="58"/>
@@ -4690,7 +4798,7 @@
       <c r="O203" s="58"/>
       <c r="P203" s="58"/>
     </row>
-    <row r="204" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C204" s="58"/>
       <c r="E204" s="58"/>
       <c r="F204" s="58"/>
@@ -4705,7 +4813,7 @@
       <c r="O204" s="58"/>
       <c r="P204" s="58"/>
     </row>
-    <row r="205" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C205" s="58"/>
       <c r="E205" s="58"/>
       <c r="F205" s="58"/>
@@ -4720,7 +4828,7 @@
       <c r="O205" s="58"/>
       <c r="P205" s="58"/>
     </row>
-    <row r="206" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C206" s="58"/>
       <c r="E206" s="58"/>
       <c r="F206" s="58"/>
@@ -4735,7 +4843,7 @@
       <c r="O206" s="58"/>
       <c r="P206" s="58"/>
     </row>
-    <row r="207" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C207" s="58"/>
       <c r="E207" s="58"/>
       <c r="F207" s="58"/>
@@ -4750,7 +4858,7 @@
       <c r="O207" s="58"/>
       <c r="P207" s="58"/>
     </row>
-    <row r="208" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C208" s="58"/>
       <c r="E208" s="58"/>
       <c r="F208" s="58"/>
@@ -4765,7 +4873,7 @@
       <c r="O208" s="58"/>
       <c r="P208" s="58"/>
     </row>
-    <row r="209" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C209" s="58"/>
       <c r="E209" s="58"/>
       <c r="F209" s="58"/>
@@ -4780,7 +4888,7 @@
       <c r="O209" s="58"/>
       <c r="P209" s="58"/>
     </row>
-    <row r="210" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C210" s="58"/>
       <c r="E210" s="58"/>
       <c r="F210" s="58"/>
@@ -4795,7 +4903,7 @@
       <c r="O210" s="58"/>
       <c r="P210" s="58"/>
     </row>
-    <row r="211" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C211" s="58"/>
       <c r="E211" s="58"/>
       <c r="F211" s="58"/>
@@ -4810,7 +4918,7 @@
       <c r="O211" s="58"/>
       <c r="P211" s="58"/>
     </row>
-    <row r="212" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C212" s="58"/>
       <c r="E212" s="58"/>
       <c r="F212" s="58"/>
@@ -4825,7 +4933,7 @@
       <c r="O212" s="58"/>
       <c r="P212" s="58"/>
     </row>
-    <row r="213" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C213" s="58"/>
       <c r="E213" s="58"/>
       <c r="F213" s="58"/>
@@ -4840,7 +4948,7 @@
       <c r="O213" s="58"/>
       <c r="P213" s="58"/>
     </row>
-    <row r="214" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C214" s="58"/>
       <c r="E214" s="58"/>
       <c r="F214" s="58"/>
@@ -4855,7 +4963,7 @@
       <c r="O214" s="58"/>
       <c r="P214" s="58"/>
     </row>
-    <row r="215" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C215" s="58"/>
       <c r="E215" s="58"/>
       <c r="F215" s="58"/>
@@ -4870,7 +4978,7 @@
       <c r="O215" s="58"/>
       <c r="P215" s="58"/>
     </row>
-    <row r="216" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C216" s="58"/>
       <c r="E216" s="58"/>
       <c r="F216" s="58"/>
@@ -4885,7 +4993,7 @@
       <c r="O216" s="58"/>
       <c r="P216" s="58"/>
     </row>
-    <row r="217" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C217" s="58"/>
       <c r="E217" s="58"/>
       <c r="F217" s="58"/>
@@ -4900,7 +5008,7 @@
       <c r="O217" s="58"/>
       <c r="P217" s="58"/>
     </row>
-    <row r="218" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C218" s="58"/>
       <c r="E218" s="58"/>
       <c r="F218" s="58"/>
@@ -4915,7 +5023,7 @@
       <c r="O218" s="58"/>
       <c r="P218" s="58"/>
     </row>
-    <row r="219" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C219" s="58"/>
       <c r="E219" s="58"/>
       <c r="F219" s="58"/>
@@ -4930,7 +5038,7 @@
       <c r="O219" s="58"/>
       <c r="P219" s="58"/>
     </row>
-    <row r="220" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C220" s="58"/>
       <c r="E220" s="58"/>
       <c r="F220" s="58"/>
@@ -4945,7 +5053,7 @@
       <c r="O220" s="58"/>
       <c r="P220" s="58"/>
     </row>
-    <row r="221" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C221" s="58"/>
       <c r="E221" s="58"/>
       <c r="F221" s="58"/>
@@ -4960,7 +5068,7 @@
       <c r="O221" s="58"/>
       <c r="P221" s="58"/>
     </row>
-    <row r="222" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C222" s="58"/>
       <c r="E222" s="58"/>
       <c r="F222" s="58"/>
@@ -4975,7 +5083,7 @@
       <c r="O222" s="58"/>
       <c r="P222" s="58"/>
     </row>
-    <row r="223" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C223" s="58"/>
       <c r="E223" s="58"/>
       <c r="F223" s="58"/>
@@ -4990,7 +5098,7 @@
       <c r="O223" s="58"/>
       <c r="P223" s="58"/>
     </row>
-    <row r="224" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C224" s="58"/>
       <c r="E224" s="58"/>
       <c r="F224" s="58"/>
@@ -5005,7 +5113,7 @@
       <c r="O224" s="58"/>
       <c r="P224" s="58"/>
     </row>
-    <row r="225" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C225" s="58"/>
       <c r="E225" s="58"/>
       <c r="F225" s="58"/>
@@ -5020,7 +5128,7 @@
       <c r="O225" s="58"/>
       <c r="P225" s="58"/>
     </row>
-    <row r="226" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C226" s="58"/>
       <c r="E226" s="58"/>
       <c r="F226" s="58"/>
@@ -5035,7 +5143,7 @@
       <c r="O226" s="58"/>
       <c r="P226" s="58"/>
     </row>
-    <row r="227" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C227" s="58"/>
       <c r="E227" s="58"/>
       <c r="F227" s="58"/>
@@ -5050,7 +5158,7 @@
       <c r="O227" s="58"/>
       <c r="P227" s="58"/>
     </row>
-    <row r="228" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C228" s="58"/>
       <c r="E228" s="58"/>
       <c r="F228" s="58"/>
@@ -5065,7 +5173,7 @@
       <c r="O228" s="58"/>
       <c r="P228" s="58"/>
     </row>
-    <row r="229" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C229" s="58"/>
       <c r="E229" s="58"/>
       <c r="F229" s="58"/>
@@ -5080,7 +5188,7 @@
       <c r="O229" s="58"/>
       <c r="P229" s="58"/>
     </row>
-    <row r="230" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C230" s="58"/>
       <c r="E230" s="58"/>
       <c r="F230" s="58"/>
@@ -5095,7 +5203,7 @@
       <c r="O230" s="58"/>
       <c r="P230" s="58"/>
     </row>
-    <row r="231" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C231" s="58"/>
       <c r="E231" s="58"/>
       <c r="F231" s="58"/>
@@ -5110,7 +5218,7 @@
       <c r="O231" s="58"/>
       <c r="P231" s="58"/>
     </row>
-    <row r="232" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C232" s="58"/>
       <c r="E232" s="58"/>
       <c r="F232" s="58"/>
@@ -5125,7 +5233,7 @@
       <c r="O232" s="58"/>
       <c r="P232" s="58"/>
     </row>
-    <row r="233" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C233" s="58"/>
       <c r="E233" s="58"/>
       <c r="F233" s="58"/>
@@ -5140,7 +5248,7 @@
       <c r="O233" s="58"/>
       <c r="P233" s="58"/>
     </row>
-    <row r="234" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C234" s="58"/>
       <c r="E234" s="58"/>
       <c r="F234" s="58"/>
@@ -5155,7 +5263,7 @@
       <c r="O234" s="58"/>
       <c r="P234" s="58"/>
     </row>
-    <row r="235" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C235" s="58"/>
       <c r="E235" s="58"/>
       <c r="F235" s="58"/>
@@ -5170,7 +5278,7 @@
       <c r="O235" s="58"/>
       <c r="P235" s="58"/>
     </row>
-    <row r="236" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C236" s="58"/>
       <c r="E236" s="58"/>
       <c r="F236" s="58"/>
@@ -5185,7 +5293,7 @@
       <c r="O236" s="58"/>
       <c r="P236" s="58"/>
     </row>
-    <row r="237" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C237" s="58"/>
       <c r="E237" s="58"/>
       <c r="F237" s="58"/>
@@ -5200,7 +5308,7 @@
       <c r="O237" s="58"/>
       <c r="P237" s="58"/>
     </row>
-    <row r="238" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C238" s="58"/>
       <c r="E238" s="58"/>
       <c r="F238" s="58"/>
@@ -5215,7 +5323,7 @@
       <c r="O238" s="58"/>
       <c r="P238" s="58"/>
     </row>
-    <row r="239" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C239" s="58"/>
       <c r="E239" s="58"/>
       <c r="F239" s="58"/>
@@ -5230,7 +5338,7 @@
       <c r="O239" s="58"/>
       <c r="P239" s="58"/>
     </row>
-    <row r="240" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C240" s="58"/>
       <c r="E240" s="58"/>
       <c r="F240" s="58"/>
@@ -5245,7 +5353,7 @@
       <c r="O240" s="58"/>
       <c r="P240" s="58"/>
     </row>
-    <row r="241" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C241" s="58"/>
       <c r="E241" s="58"/>
       <c r="F241" s="58"/>
@@ -5260,7 +5368,7 @@
       <c r="O241" s="58"/>
       <c r="P241" s="58"/>
     </row>
-    <row r="242" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C242" s="58"/>
       <c r="E242" s="58"/>
       <c r="F242" s="58"/>
@@ -5275,7 +5383,7 @@
       <c r="O242" s="58"/>
       <c r="P242" s="58"/>
     </row>
-    <row r="243" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C243" s="58"/>
       <c r="E243" s="58"/>
       <c r="F243" s="58"/>
@@ -5290,7 +5398,7 @@
       <c r="O243" s="58"/>
       <c r="P243" s="58"/>
     </row>
-    <row r="244" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C244" s="58"/>
       <c r="E244" s="58"/>
       <c r="F244" s="58"/>
@@ -5305,7 +5413,7 @@
       <c r="O244" s="58"/>
       <c r="P244" s="58"/>
     </row>
-    <row r="245" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C245" s="58"/>
       <c r="E245" s="58"/>
       <c r="F245" s="58"/>
@@ -5320,7 +5428,7 @@
       <c r="O245" s="58"/>
       <c r="P245" s="58"/>
     </row>
-    <row r="246" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C246" s="58"/>
       <c r="E246" s="58"/>
       <c r="F246" s="58"/>
@@ -5335,7 +5443,7 @@
       <c r="O246" s="58"/>
       <c r="P246" s="58"/>
     </row>
-    <row r="247" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C247" s="58"/>
       <c r="E247" s="58"/>
       <c r="F247" s="58"/>
@@ -5350,7 +5458,7 @@
       <c r="O247" s="58"/>
       <c r="P247" s="58"/>
     </row>
-    <row r="248" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C248" s="58"/>
       <c r="E248" s="58"/>
       <c r="F248" s="58"/>
@@ -5365,7 +5473,7 @@
       <c r="O248" s="58"/>
       <c r="P248" s="58"/>
     </row>
-    <row r="249" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C249" s="58"/>
       <c r="E249" s="58"/>
       <c r="F249" s="58"/>
@@ -5380,7 +5488,7 @@
       <c r="O249" s="58"/>
       <c r="P249" s="58"/>
     </row>
-    <row r="250" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C250" s="58"/>
       <c r="E250" s="58"/>
       <c r="F250" s="58"/>
@@ -5395,7 +5503,7 @@
       <c r="O250" s="58"/>
       <c r="P250" s="58"/>
     </row>
-    <row r="251" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C251" s="58"/>
       <c r="E251" s="58"/>
       <c r="F251" s="58"/>
@@ -5410,7 +5518,7 @@
       <c r="O251" s="58"/>
       <c r="P251" s="58"/>
     </row>
-    <row r="252" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C252" s="58"/>
       <c r="E252" s="58"/>
       <c r="F252" s="58"/>
@@ -5425,7 +5533,7 @@
       <c r="O252" s="58"/>
       <c r="P252" s="58"/>
     </row>
-    <row r="253" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C253" s="58"/>
       <c r="E253" s="58"/>
       <c r="F253" s="58"/>
@@ -5440,7 +5548,7 @@
       <c r="O253" s="58"/>
       <c r="P253" s="58"/>
     </row>
-    <row r="254" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C254" s="58"/>
       <c r="E254" s="58"/>
       <c r="F254" s="58"/>
@@ -5455,7 +5563,7 @@
       <c r="O254" s="58"/>
       <c r="P254" s="58"/>
     </row>
-    <row r="255" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C255" s="58"/>
       <c r="E255" s="58"/>
       <c r="F255" s="58"/>
@@ -5470,7 +5578,7 @@
       <c r="O255" s="58"/>
       <c r="P255" s="58"/>
     </row>
-    <row r="256" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C256" s="58"/>
       <c r="E256" s="58"/>
       <c r="F256" s="58"/>
@@ -5485,7 +5593,7 @@
       <c r="O256" s="58"/>
       <c r="P256" s="58"/>
     </row>
-    <row r="257" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C257" s="58"/>
       <c r="E257" s="58"/>
       <c r="F257" s="58"/>
@@ -5500,7 +5608,7 @@
       <c r="O257" s="58"/>
       <c r="P257" s="58"/>
     </row>
-    <row r="258" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C258" s="58"/>
       <c r="E258" s="58"/>
       <c r="F258" s="58"/>
@@ -5515,7 +5623,7 @@
       <c r="O258" s="58"/>
       <c r="P258" s="58"/>
     </row>
-    <row r="259" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C259" s="58"/>
       <c r="E259" s="58"/>
       <c r="F259" s="58"/>
@@ -5530,7 +5638,7 @@
       <c r="O259" s="58"/>
       <c r="P259" s="58"/>
     </row>
-    <row r="260" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C260" s="58"/>
       <c r="E260" s="58"/>
       <c r="F260" s="58"/>
@@ -5545,7 +5653,7 @@
       <c r="O260" s="58"/>
       <c r="P260" s="58"/>
     </row>
-    <row r="261" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C261" s="58"/>
       <c r="E261" s="58"/>
       <c r="F261" s="58"/>
@@ -5560,7 +5668,7 @@
       <c r="O261" s="58"/>
       <c r="P261" s="58"/>
     </row>
-    <row r="262" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C262" s="58"/>
       <c r="E262" s="58"/>
       <c r="F262" s="58"/>
@@ -5575,7 +5683,7 @@
       <c r="O262" s="58"/>
       <c r="P262" s="58"/>
     </row>
-    <row r="263" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C263" s="58"/>
       <c r="E263" s="58"/>
       <c r="F263" s="58"/>
@@ -5590,7 +5698,7 @@
       <c r="O263" s="58"/>
       <c r="P263" s="58"/>
     </row>
-    <row r="264" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C264" s="58"/>
       <c r="E264" s="58"/>
       <c r="F264" s="58"/>
@@ -5605,7 +5713,7 @@
       <c r="O264" s="58"/>
       <c r="P264" s="58"/>
     </row>
-    <row r="265" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C265" s="58"/>
       <c r="E265" s="58"/>
       <c r="F265" s="58"/>
@@ -5620,7 +5728,7 @@
       <c r="O265" s="58"/>
       <c r="P265" s="58"/>
     </row>
-    <row r="266" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C266" s="58"/>
       <c r="E266" s="58"/>
       <c r="F266" s="58"/>
@@ -5635,7 +5743,7 @@
       <c r="O266" s="58"/>
       <c r="P266" s="58"/>
     </row>
-    <row r="267" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C267" s="58"/>
       <c r="E267" s="58"/>
       <c r="F267" s="58"/>
@@ -5650,7 +5758,7 @@
       <c r="O267" s="58"/>
       <c r="P267" s="58"/>
     </row>
-    <row r="268" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C268" s="58"/>
       <c r="E268" s="58"/>
       <c r="F268" s="58"/>
@@ -5665,7 +5773,7 @@
       <c r="O268" s="58"/>
       <c r="P268" s="58"/>
     </row>
-    <row r="269" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C269" s="58"/>
       <c r="E269" s="58"/>
       <c r="F269" s="58"/>
@@ -5680,7 +5788,7 @@
       <c r="O269" s="58"/>
       <c r="P269" s="58"/>
     </row>
-    <row r="270" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C270" s="58"/>
       <c r="E270" s="58"/>
       <c r="F270" s="58"/>
@@ -5695,7 +5803,7 @@
       <c r="O270" s="58"/>
       <c r="P270" s="58"/>
     </row>
-    <row r="271" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C271" s="58"/>
       <c r="E271" s="58"/>
       <c r="F271" s="58"/>
@@ -5710,7 +5818,7 @@
       <c r="O271" s="58"/>
       <c r="P271" s="58"/>
     </row>
-    <row r="272" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C272" s="58"/>
       <c r="E272" s="58"/>
       <c r="F272" s="58"/>
@@ -5725,7 +5833,7 @@
       <c r="O272" s="58"/>
       <c r="P272" s="58"/>
     </row>
-    <row r="273" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C273" s="58"/>
       <c r="E273" s="58"/>
       <c r="F273" s="58"/>
@@ -5740,7 +5848,7 @@
       <c r="O273" s="58"/>
       <c r="P273" s="58"/>
     </row>
-    <row r="274" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C274" s="58"/>
       <c r="E274" s="58"/>
       <c r="F274" s="58"/>
@@ -5755,7 +5863,7 @@
       <c r="O274" s="58"/>
       <c r="P274" s="58"/>
     </row>
-    <row r="275" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C275" s="58"/>
       <c r="E275" s="58"/>
       <c r="F275" s="58"/>
@@ -5770,7 +5878,7 @@
       <c r="O275" s="58"/>
       <c r="P275" s="58"/>
     </row>
-    <row r="276" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C276" s="58"/>
       <c r="E276" s="58"/>
       <c r="F276" s="58"/>
@@ -5785,7 +5893,7 @@
       <c r="O276" s="58"/>
       <c r="P276" s="58"/>
     </row>
-    <row r="277" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C277" s="58"/>
       <c r="E277" s="58"/>
       <c r="F277" s="58"/>
@@ -5800,7 +5908,7 @@
       <c r="O277" s="58"/>
       <c r="P277" s="58"/>
     </row>
-    <row r="278" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C278" s="58"/>
       <c r="E278" s="58"/>
       <c r="F278" s="58"/>
@@ -5815,7 +5923,7 @@
       <c r="O278" s="58"/>
       <c r="P278" s="58"/>
     </row>
-    <row r="279" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C279" s="58"/>
       <c r="E279" s="58"/>
       <c r="F279" s="58"/>
@@ -5830,7 +5938,7 @@
       <c r="O279" s="58"/>
       <c r="P279" s="58"/>
     </row>
-    <row r="280" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C280" s="58"/>
       <c r="E280" s="58"/>
       <c r="F280" s="58"/>
@@ -5845,7 +5953,7 @@
       <c r="O280" s="58"/>
       <c r="P280" s="58"/>
     </row>
-    <row r="281" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C281" s="58"/>
       <c r="E281" s="58"/>
       <c r="F281" s="58"/>
@@ -5860,7 +5968,7 @@
       <c r="O281" s="58"/>
       <c r="P281" s="58"/>
     </row>
-    <row r="282" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C282" s="58"/>
       <c r="E282" s="58"/>
       <c r="F282" s="58"/>
@@ -5875,7 +5983,7 @@
       <c r="O282" s="58"/>
       <c r="P282" s="58"/>
     </row>
-    <row r="283" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C283" s="58"/>
       <c r="E283" s="58"/>
       <c r="F283" s="58"/>
@@ -5890,7 +5998,7 @@
       <c r="O283" s="58"/>
       <c r="P283" s="58"/>
     </row>
-    <row r="284" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C284" s="58"/>
       <c r="E284" s="58"/>
       <c r="F284" s="58"/>
@@ -5905,7 +6013,7 @@
       <c r="O284" s="58"/>
       <c r="P284" s="58"/>
     </row>
-    <row r="285" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C285" s="58"/>
       <c r="E285" s="58"/>
       <c r="F285" s="58"/>
@@ -5920,7 +6028,7 @@
       <c r="O285" s="58"/>
       <c r="P285" s="58"/>
     </row>
-    <row r="286" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C286" s="58"/>
       <c r="E286" s="58"/>
       <c r="F286" s="58"/>
@@ -5935,7 +6043,7 @@
       <c r="O286" s="58"/>
       <c r="P286" s="58"/>
     </row>
-    <row r="287" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C287" s="58"/>
       <c r="E287" s="58"/>
       <c r="F287" s="58"/>
@@ -5950,7 +6058,7 @@
       <c r="O287" s="58"/>
       <c r="P287" s="58"/>
     </row>
-    <row r="288" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C288" s="58"/>
       <c r="E288" s="58"/>
       <c r="F288" s="58"/>
@@ -5965,7 +6073,7 @@
       <c r="O288" s="58"/>
       <c r="P288" s="58"/>
     </row>
-    <row r="289" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C289" s="58"/>
       <c r="E289" s="58"/>
       <c r="F289" s="58"/>
@@ -5980,7 +6088,7 @@
       <c r="O289" s="58"/>
       <c r="P289" s="58"/>
     </row>
-    <row r="290" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C290" s="58"/>
       <c r="E290" s="58"/>
       <c r="F290" s="58"/>
@@ -5995,7 +6103,7 @@
       <c r="O290" s="58"/>
       <c r="P290" s="58"/>
     </row>
-    <row r="291" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C291" s="58"/>
       <c r="E291" s="58"/>
       <c r="F291" s="58"/>
@@ -6010,7 +6118,7 @@
       <c r="O291" s="58"/>
       <c r="P291" s="58"/>
     </row>
-    <row r="292" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C292" s="58"/>
       <c r="E292" s="58"/>
       <c r="F292" s="58"/>
@@ -6025,7 +6133,7 @@
       <c r="O292" s="58"/>
       <c r="P292" s="58"/>
     </row>
-    <row r="293" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C293" s="58"/>
       <c r="E293" s="58"/>
       <c r="F293" s="58"/>
@@ -6040,7 +6148,7 @@
       <c r="O293" s="58"/>
       <c r="P293" s="58"/>
     </row>
-    <row r="294" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C294" s="58"/>
       <c r="E294" s="58"/>
       <c r="F294" s="58"/>
@@ -6055,7 +6163,7 @@
       <c r="O294" s="58"/>
       <c r="P294" s="58"/>
     </row>
-    <row r="295" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C295" s="58"/>
       <c r="E295" s="58"/>
       <c r="F295" s="58"/>
@@ -6070,7 +6178,7 @@
       <c r="O295" s="58"/>
       <c r="P295" s="58"/>
     </row>
-    <row r="296" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C296" s="58"/>
       <c r="E296" s="58"/>
       <c r="F296" s="58"/>
@@ -6085,7 +6193,7 @@
       <c r="O296" s="58"/>
       <c r="P296" s="58"/>
     </row>
-    <row r="297" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C297" s="58"/>
       <c r="E297" s="58"/>
       <c r="F297" s="58"/>
@@ -6100,7 +6208,7 @@
       <c r="O297" s="58"/>
       <c r="P297" s="58"/>
     </row>
-    <row r="298" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C298" s="58"/>
       <c r="E298" s="58"/>
       <c r="F298" s="58"/>
@@ -6115,7 +6223,7 @@
       <c r="O298" s="58"/>
       <c r="P298" s="58"/>
     </row>
-    <row r="299" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C299" s="58"/>
       <c r="E299" s="58"/>
       <c r="F299" s="58"/>
@@ -6130,7 +6238,7 @@
       <c r="O299" s="58"/>
       <c r="P299" s="58"/>
     </row>
-    <row r="300" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C300" s="58"/>
       <c r="E300" s="58"/>
       <c r="F300" s="58"/>
@@ -6145,7 +6253,7 @@
       <c r="O300" s="58"/>
       <c r="P300" s="58"/>
     </row>
-    <row r="301" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C301" s="58"/>
       <c r="E301" s="58"/>
       <c r="F301" s="58"/>
@@ -6160,7 +6268,7 @@
       <c r="O301" s="58"/>
       <c r="P301" s="58"/>
     </row>
-    <row r="302" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C302" s="58"/>
       <c r="E302" s="58"/>
       <c r="F302" s="58"/>
@@ -6175,7 +6283,7 @@
       <c r="O302" s="58"/>
       <c r="P302" s="58"/>
     </row>
-    <row r="303" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C303" s="58"/>
       <c r="E303" s="58"/>
       <c r="F303" s="58"/>
@@ -6190,7 +6298,7 @@
       <c r="O303" s="58"/>
       <c r="P303" s="58"/>
     </row>
-    <row r="304" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C304" s="58"/>
       <c r="E304" s="58"/>
       <c r="F304" s="58"/>
@@ -6205,7 +6313,7 @@
       <c r="O304" s="58"/>
       <c r="P304" s="58"/>
     </row>
-    <row r="305" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C305" s="58"/>
       <c r="E305" s="58"/>
       <c r="F305" s="58"/>
@@ -6220,7 +6328,7 @@
       <c r="O305" s="58"/>
       <c r="P305" s="58"/>
     </row>
-    <row r="306" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C306" s="58"/>
       <c r="E306" s="58"/>
       <c r="F306" s="58"/>
@@ -6235,7 +6343,7 @@
       <c r="O306" s="58"/>
       <c r="P306" s="58"/>
     </row>
-    <row r="307" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C307" s="58"/>
       <c r="E307" s="58"/>
       <c r="F307" s="58"/>
@@ -6250,7 +6358,7 @@
       <c r="O307" s="58"/>
       <c r="P307" s="58"/>
     </row>
-    <row r="308" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C308" s="58"/>
       <c r="E308" s="58"/>
       <c r="F308" s="58"/>
@@ -6265,7 +6373,7 @@
       <c r="O308" s="58"/>
       <c r="P308" s="58"/>
     </row>
-    <row r="309" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C309" s="58"/>
       <c r="E309" s="58"/>
       <c r="F309" s="58"/>
@@ -6280,7 +6388,7 @@
       <c r="O309" s="58"/>
       <c r="P309" s="58"/>
     </row>
-    <row r="310" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C310" s="58"/>
       <c r="E310" s="58"/>
       <c r="F310" s="58"/>
@@ -6295,7 +6403,7 @@
       <c r="O310" s="58"/>
       <c r="P310" s="58"/>
     </row>
-    <row r="311" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C311" s="58"/>
       <c r="E311" s="58"/>
       <c r="F311" s="58"/>
@@ -6310,7 +6418,7 @@
       <c r="O311" s="58"/>
       <c r="P311" s="58"/>
     </row>
-    <row r="312" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C312" s="58"/>
       <c r="E312" s="58"/>
       <c r="F312" s="58"/>
@@ -6325,7 +6433,7 @@
       <c r="O312" s="58"/>
       <c r="P312" s="58"/>
     </row>
-    <row r="313" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C313" s="58"/>
       <c r="E313" s="58"/>
       <c r="F313" s="58"/>
@@ -6340,7 +6448,7 @@
       <c r="O313" s="58"/>
       <c r="P313" s="58"/>
     </row>
-    <row r="314" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C314" s="58"/>
       <c r="E314" s="58"/>
       <c r="F314" s="58"/>
@@ -6355,7 +6463,7 @@
       <c r="O314" s="58"/>
       <c r="P314" s="58"/>
     </row>
-    <row r="315" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C315" s="58"/>
       <c r="E315" s="58"/>
       <c r="F315" s="58"/>
@@ -6370,7 +6478,7 @@
       <c r="O315" s="58"/>
       <c r="P315" s="58"/>
     </row>
-    <row r="316" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C316" s="58"/>
       <c r="E316" s="58"/>
       <c r="F316" s="58"/>
@@ -6385,7 +6493,7 @@
       <c r="O316" s="58"/>
       <c r="P316" s="58"/>
     </row>
-    <row r="317" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C317" s="58"/>
       <c r="E317" s="58"/>
       <c r="F317" s="58"/>
@@ -6400,7 +6508,7 @@
       <c r="O317" s="58"/>
       <c r="P317" s="58"/>
     </row>
-    <row r="318" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C318" s="58"/>
       <c r="E318" s="58"/>
       <c r="F318" s="58"/>
@@ -6415,7 +6523,7 @@
       <c r="O318" s="58"/>
       <c r="P318" s="58"/>
     </row>
-    <row r="319" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C319" s="58"/>
       <c r="E319" s="58"/>
       <c r="F319" s="58"/>
@@ -6430,7 +6538,7 @@
       <c r="O319" s="58"/>
       <c r="P319" s="58"/>
     </row>
-    <row r="320" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C320" s="58"/>
       <c r="E320" s="58"/>
       <c r="F320" s="58"/>
@@ -6445,7 +6553,7 @@
       <c r="O320" s="58"/>
       <c r="P320" s="58"/>
     </row>
-    <row r="321" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C321" s="58"/>
       <c r="E321" s="58"/>
       <c r="F321" s="58"/>
@@ -6460,7 +6568,7 @@
       <c r="O321" s="58"/>
       <c r="P321" s="58"/>
     </row>
-    <row r="322" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C322" s="58"/>
       <c r="E322" s="58"/>
       <c r="F322" s="58"/>
@@ -6475,7 +6583,7 @@
       <c r="O322" s="58"/>
       <c r="P322" s="58"/>
     </row>
-    <row r="323" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C323" s="58"/>
       <c r="E323" s="58"/>
       <c r="F323" s="58"/>
@@ -6490,7 +6598,7 @@
       <c r="O323" s="58"/>
       <c r="P323" s="58"/>
     </row>
-    <row r="324" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C324" s="58"/>
       <c r="E324" s="58"/>
       <c r="F324" s="58"/>
@@ -6505,7 +6613,7 @@
       <c r="O324" s="58"/>
       <c r="P324" s="58"/>
     </row>
-    <row r="325" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C325" s="58"/>
       <c r="E325" s="58"/>
       <c r="F325" s="58"/>
@@ -6520,7 +6628,7 @@
       <c r="O325" s="58"/>
       <c r="P325" s="58"/>
     </row>
-    <row r="326" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C326" s="58"/>
       <c r="E326" s="58"/>
       <c r="F326" s="58"/>
@@ -6535,7 +6643,7 @@
       <c r="O326" s="58"/>
       <c r="P326" s="58"/>
     </row>
-    <row r="327" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C327" s="58"/>
       <c r="E327" s="58"/>
       <c r="F327" s="58"/>
@@ -6550,7 +6658,7 @@
       <c r="O327" s="58"/>
       <c r="P327" s="58"/>
     </row>
-    <row r="328" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C328" s="58"/>
       <c r="E328" s="58"/>
       <c r="F328" s="58"/>
@@ -6565,7 +6673,7 @@
       <c r="O328" s="58"/>
       <c r="P328" s="58"/>
     </row>
-    <row r="329" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C329" s="58"/>
       <c r="E329" s="58"/>
       <c r="F329" s="58"/>
@@ -6580,7 +6688,7 @@
       <c r="O329" s="58"/>
       <c r="P329" s="58"/>
     </row>
-    <row r="330" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C330" s="58"/>
       <c r="E330" s="58"/>
       <c r="F330" s="58"/>
@@ -6595,7 +6703,7 @@
       <c r="O330" s="58"/>
       <c r="P330" s="58"/>
     </row>
-    <row r="331" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C331" s="58"/>
       <c r="E331" s="58"/>
       <c r="F331" s="58"/>
@@ -6610,7 +6718,7 @@
       <c r="O331" s="58"/>
       <c r="P331" s="58"/>
     </row>
-    <row r="332" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C332" s="58"/>
       <c r="E332" s="58"/>
       <c r="F332" s="58"/>
@@ -6625,7 +6733,7 @@
       <c r="O332" s="58"/>
       <c r="P332" s="58"/>
     </row>
-    <row r="333" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C333" s="58"/>
       <c r="E333" s="58"/>
       <c r="F333" s="58"/>
@@ -6640,7 +6748,7 @@
       <c r="O333" s="58"/>
       <c r="P333" s="58"/>
     </row>
-    <row r="334" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C334" s="58"/>
       <c r="E334" s="58"/>
       <c r="F334" s="58"/>
@@ -6655,7 +6763,7 @@
       <c r="O334" s="58"/>
       <c r="P334" s="58"/>
     </row>
-    <row r="335" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C335" s="58"/>
       <c r="E335" s="58"/>
       <c r="F335" s="58"/>
@@ -6670,7 +6778,7 @@
       <c r="O335" s="58"/>
       <c r="P335" s="58"/>
     </row>
-    <row r="336" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C336" s="58"/>
       <c r="E336" s="58"/>
       <c r="F336" s="58"/>
@@ -6685,7 +6793,7 @@
       <c r="O336" s="58"/>
       <c r="P336" s="58"/>
     </row>
-    <row r="337" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C337" s="58"/>
       <c r="E337" s="58"/>
       <c r="F337" s="58"/>
@@ -6700,7 +6808,7 @@
       <c r="O337" s="58"/>
       <c r="P337" s="58"/>
     </row>
-    <row r="338" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C338" s="58"/>
       <c r="E338" s="58"/>
       <c r="F338" s="58"/>
@@ -6715,7 +6823,7 @@
       <c r="O338" s="58"/>
       <c r="P338" s="58"/>
     </row>
-    <row r="339" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C339" s="58"/>
       <c r="E339" s="58"/>
       <c r="F339" s="58"/>
@@ -6730,7 +6838,7 @@
       <c r="O339" s="58"/>
       <c r="P339" s="58"/>
     </row>
-    <row r="340" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C340" s="58"/>
       <c r="E340" s="58"/>
       <c r="F340" s="58"/>
@@ -6745,7 +6853,7 @@
       <c r="O340" s="58"/>
       <c r="P340" s="58"/>
     </row>
-    <row r="341" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C341" s="58"/>
       <c r="E341" s="58"/>
       <c r="F341" s="58"/>
@@ -6760,7 +6868,7 @@
       <c r="O341" s="58"/>
       <c r="P341" s="58"/>
     </row>
-    <row r="342" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C342" s="58"/>
       <c r="E342" s="58"/>
       <c r="F342" s="58"/>
@@ -6775,7 +6883,7 @@
       <c r="O342" s="58"/>
       <c r="P342" s="58"/>
     </row>
-    <row r="343" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C343" s="58"/>
       <c r="E343" s="58"/>
       <c r="F343" s="58"/>
@@ -6790,7 +6898,7 @@
       <c r="O343" s="58"/>
       <c r="P343" s="58"/>
     </row>
-    <row r="344" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C344" s="58"/>
       <c r="E344" s="58"/>
       <c r="F344" s="58"/>
@@ -6805,7 +6913,7 @@
       <c r="O344" s="58"/>
       <c r="P344" s="58"/>
     </row>
-    <row r="345" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C345" s="58"/>
       <c r="E345" s="58"/>
       <c r="F345" s="58"/>
@@ -6820,7 +6928,7 @@
       <c r="O345" s="58"/>
       <c r="P345" s="58"/>
     </row>
-    <row r="346" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C346" s="58"/>
       <c r="E346" s="58"/>
       <c r="F346" s="58"/>
@@ -6835,7 +6943,7 @@
       <c r="O346" s="58"/>
       <c r="P346" s="58"/>
     </row>
-    <row r="347" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C347" s="58"/>
       <c r="E347" s="58"/>
       <c r="F347" s="58"/>
@@ -6850,7 +6958,7 @@
       <c r="O347" s="58"/>
       <c r="P347" s="58"/>
     </row>
-    <row r="348" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C348" s="58"/>
       <c r="E348" s="58"/>
       <c r="F348" s="58"/>
@@ -6865,7 +6973,7 @@
       <c r="O348" s="58"/>
       <c r="P348" s="58"/>
     </row>
-    <row r="349" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C349" s="58"/>
       <c r="E349" s="58"/>
       <c r="F349" s="58"/>
@@ -6880,7 +6988,7 @@
       <c r="O349" s="58"/>
       <c r="P349" s="58"/>
     </row>
-    <row r="350" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C350" s="58"/>
       <c r="E350" s="58"/>
       <c r="F350" s="58"/>
@@ -6895,7 +7003,7 @@
       <c r="O350" s="58"/>
       <c r="P350" s="58"/>
     </row>
-    <row r="351" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C351" s="58"/>
       <c r="E351" s="58"/>
       <c r="F351" s="58"/>
@@ -6910,7 +7018,7 @@
       <c r="O351" s="58"/>
       <c r="P351" s="58"/>
     </row>
-    <row r="352" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C352" s="58"/>
       <c r="E352" s="58"/>
       <c r="F352" s="58"/>
@@ -6925,7 +7033,7 @@
       <c r="O352" s="58"/>
       <c r="P352" s="58"/>
     </row>
-    <row r="353" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C353" s="58"/>
       <c r="E353" s="58"/>
       <c r="F353" s="58"/>
@@ -6940,7 +7048,7 @@
       <c r="O353" s="58"/>
       <c r="P353" s="58"/>
     </row>
-    <row r="354" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C354" s="58"/>
       <c r="E354" s="58"/>
       <c r="F354" s="58"/>
@@ -6955,7 +7063,7 @@
       <c r="O354" s="58"/>
       <c r="P354" s="58"/>
     </row>
-    <row r="355" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C355" s="58"/>
       <c r="E355" s="58"/>
       <c r="F355" s="58"/>
@@ -6970,7 +7078,7 @@
       <c r="O355" s="58"/>
       <c r="P355" s="58"/>
     </row>
-    <row r="356" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C356" s="58"/>
       <c r="E356" s="58"/>
       <c r="F356" s="58"/>
@@ -6985,7 +7093,7 @@
       <c r="O356" s="58"/>
       <c r="P356" s="58"/>
     </row>
-    <row r="357" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C357" s="58"/>
       <c r="E357" s="58"/>
       <c r="F357" s="58"/>
@@ -7000,7 +7108,7 @@
       <c r="O357" s="58"/>
       <c r="P357" s="58"/>
     </row>
-    <row r="358" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C358" s="58"/>
       <c r="E358" s="58"/>
       <c r="F358" s="58"/>
@@ -7015,7 +7123,7 @@
       <c r="O358" s="58"/>
       <c r="P358" s="58"/>
     </row>
-    <row r="359" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C359" s="58"/>
       <c r="E359" s="58"/>
       <c r="F359" s="58"/>
@@ -7030,7 +7138,7 @@
       <c r="O359" s="58"/>
       <c r="P359" s="58"/>
     </row>
-    <row r="360" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C360" s="58"/>
       <c r="E360" s="58"/>
       <c r="F360" s="58"/>
@@ -7045,7 +7153,7 @@
       <c r="O360" s="58"/>
       <c r="P360" s="58"/>
     </row>
-    <row r="361" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C361" s="58"/>
       <c r="E361" s="58"/>
       <c r="F361" s="58"/>
@@ -7060,7 +7168,7 @@
       <c r="O361" s="58"/>
       <c r="P361" s="58"/>
     </row>
-    <row r="362" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C362" s="58"/>
       <c r="E362" s="58"/>
       <c r="F362" s="58"/>
@@ -7075,7 +7183,7 @@
       <c r="O362" s="58"/>
       <c r="P362" s="58"/>
     </row>
-    <row r="363" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C363" s="58"/>
       <c r="E363" s="58"/>
       <c r="F363" s="58"/>
@@ -7090,7 +7198,7 @@
       <c r="O363" s="58"/>
       <c r="P363" s="58"/>
     </row>
-    <row r="364" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C364" s="58"/>
       <c r="E364" s="58"/>
       <c r="F364" s="58"/>
@@ -7105,7 +7213,7 @@
       <c r="O364" s="58"/>
       <c r="P364" s="58"/>
     </row>
-    <row r="365" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C365" s="58"/>
       <c r="E365" s="58"/>
       <c r="F365" s="58"/>
@@ -7120,7 +7228,7 @@
       <c r="O365" s="58"/>
       <c r="P365" s="58"/>
     </row>
-    <row r="366" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C366" s="58"/>
       <c r="E366" s="58"/>
       <c r="F366" s="58"/>
@@ -7135,7 +7243,7 @@
       <c r="O366" s="58"/>
       <c r="P366" s="58"/>
     </row>
-    <row r="367" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C367" s="58"/>
       <c r="E367" s="58"/>
       <c r="F367" s="58"/>
@@ -7150,7 +7258,7 @@
       <c r="O367" s="58"/>
       <c r="P367" s="58"/>
     </row>
-    <row r="368" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C368" s="58"/>
       <c r="E368" s="58"/>
       <c r="F368" s="58"/>
@@ -7165,7 +7273,7 @@
       <c r="O368" s="58"/>
       <c r="P368" s="58"/>
     </row>
-    <row r="369" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C369" s="58"/>
       <c r="E369" s="58"/>
       <c r="F369" s="58"/>
@@ -7180,7 +7288,7 @@
       <c r="O369" s="58"/>
       <c r="P369" s="58"/>
     </row>
-    <row r="370" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C370" s="58"/>
       <c r="E370" s="58"/>
       <c r="F370" s="58"/>
@@ -7195,7 +7303,7 @@
       <c r="O370" s="58"/>
       <c r="P370" s="58"/>
     </row>
-    <row r="371" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C371" s="58"/>
       <c r="E371" s="58"/>
       <c r="F371" s="58"/>
@@ -7210,7 +7318,7 @@
       <c r="O371" s="58"/>
       <c r="P371" s="58"/>
     </row>
-    <row r="372" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C372" s="58"/>
       <c r="E372" s="58"/>
       <c r="F372" s="58"/>
@@ -7225,7 +7333,7 @@
       <c r="O372" s="58"/>
       <c r="P372" s="58"/>
     </row>
-    <row r="373" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C373" s="58"/>
       <c r="E373" s="58"/>
       <c r="F373" s="58"/>
@@ -7240,7 +7348,7 @@
       <c r="O373" s="58"/>
       <c r="P373" s="58"/>
     </row>
-    <row r="374" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C374" s="58"/>
       <c r="E374" s="58"/>
       <c r="F374" s="58"/>
@@ -7255,7 +7363,7 @@
       <c r="O374" s="58"/>
       <c r="P374" s="58"/>
     </row>
-    <row r="375" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C375" s="58"/>
       <c r="E375" s="58"/>
       <c r="F375" s="58"/>
@@ -7270,7 +7378,7 @@
       <c r="O375" s="58"/>
       <c r="P375" s="58"/>
     </row>
-    <row r="376" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C376" s="58"/>
       <c r="E376" s="58"/>
       <c r="F376" s="58"/>
@@ -7285,7 +7393,7 @@
       <c r="O376" s="58"/>
       <c r="P376" s="58"/>
     </row>
-    <row r="377" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C377" s="58"/>
       <c r="E377" s="58"/>
       <c r="F377" s="58"/>
@@ -7300,7 +7408,7 @@
       <c r="O377" s="58"/>
       <c r="P377" s="58"/>
     </row>
-    <row r="378" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C378" s="58"/>
       <c r="E378" s="58"/>
       <c r="F378" s="58"/>
@@ -7315,7 +7423,7 @@
       <c r="O378" s="58"/>
       <c r="P378" s="58"/>
     </row>
-    <row r="379" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C379" s="58"/>
       <c r="E379" s="58"/>
       <c r="F379" s="58"/>
@@ -7330,7 +7438,7 @@
       <c r="O379" s="58"/>
       <c r="P379" s="58"/>
     </row>
-    <row r="380" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C380" s="58"/>
       <c r="E380" s="58"/>
       <c r="F380" s="58"/>
@@ -7345,7 +7453,7 @@
       <c r="O380" s="58"/>
       <c r="P380" s="58"/>
     </row>
-    <row r="381" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C381" s="58"/>
       <c r="E381" s="58"/>
       <c r="F381" s="58"/>
@@ -7360,7 +7468,7 @@
       <c r="O381" s="58"/>
       <c r="P381" s="58"/>
     </row>
-    <row r="382" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C382" s="58"/>
       <c r="E382" s="58"/>
       <c r="F382" s="58"/>
@@ -7375,7 +7483,7 @@
       <c r="O382" s="58"/>
       <c r="P382" s="58"/>
     </row>
-    <row r="383" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C383" s="58"/>
       <c r="E383" s="58"/>
       <c r="F383" s="58"/>
@@ -7390,7 +7498,7 @@
       <c r="O383" s="58"/>
       <c r="P383" s="58"/>
     </row>
-    <row r="384" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C384" s="58"/>
       <c r="E384" s="58"/>
       <c r="F384" s="58"/>
@@ -7405,7 +7513,7 @@
       <c r="O384" s="58"/>
       <c r="P384" s="58"/>
     </row>
-    <row r="385" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C385" s="58"/>
       <c r="E385" s="58"/>
       <c r="F385" s="58"/>
@@ -7420,7 +7528,7 @@
       <c r="O385" s="58"/>
       <c r="P385" s="58"/>
     </row>
-    <row r="386" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C386" s="58"/>
       <c r="E386" s="58"/>
       <c r="F386" s="58"/>
@@ -7435,7 +7543,7 @@
       <c r="O386" s="58"/>
       <c r="P386" s="58"/>
     </row>
-    <row r="387" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C387" s="58"/>
       <c r="E387" s="58"/>
       <c r="F387" s="58"/>
@@ -7450,7 +7558,7 @@
       <c r="O387" s="58"/>
       <c r="P387" s="58"/>
     </row>
-    <row r="388" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C388" s="58"/>
       <c r="E388" s="58"/>
       <c r="F388" s="58"/>
@@ -7465,7 +7573,7 @@
       <c r="O388" s="58"/>
       <c r="P388" s="58"/>
     </row>
-    <row r="389" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C389" s="58"/>
       <c r="E389" s="58"/>
       <c r="F389" s="58"/>
@@ -7480,7 +7588,7 @@
       <c r="O389" s="58"/>
       <c r="P389" s="58"/>
     </row>
-    <row r="390" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C390" s="58"/>
       <c r="E390" s="58"/>
       <c r="F390" s="58"/>
@@ -7495,7 +7603,7 @@
       <c r="O390" s="58"/>
       <c r="P390" s="58"/>
     </row>
-    <row r="391" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C391" s="58"/>
       <c r="E391" s="58"/>
       <c r="F391" s="58"/>
@@ -7510,7 +7618,7 @@
       <c r="O391" s="58"/>
       <c r="P391" s="58"/>
     </row>
-    <row r="392" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C392" s="58"/>
       <c r="E392" s="58"/>
       <c r="F392" s="58"/>
@@ -7525,7 +7633,7 @@
       <c r="O392" s="58"/>
       <c r="P392" s="58"/>
     </row>
-    <row r="393" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C393" s="58"/>
       <c r="E393" s="58"/>
       <c r="F393" s="58"/>
@@ -7540,7 +7648,7 @@
       <c r="O393" s="58"/>
       <c r="P393" s="58"/>
     </row>
-    <row r="394" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C394" s="58"/>
       <c r="E394" s="58"/>
       <c r="F394" s="58"/>
@@ -7555,7 +7663,7 @@
       <c r="O394" s="58"/>
       <c r="P394" s="58"/>
     </row>
-    <row r="395" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C395" s="58"/>
       <c r="E395" s="58"/>
       <c r="F395" s="58"/>
@@ -7570,7 +7678,7 @@
       <c r="O395" s="58"/>
       <c r="P395" s="58"/>
     </row>
-    <row r="396" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C396" s="58"/>
       <c r="E396" s="58"/>
       <c r="F396" s="58"/>
@@ -7585,7 +7693,7 @@
       <c r="O396" s="58"/>
       <c r="P396" s="58"/>
     </row>
-    <row r="397" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C397" s="58"/>
       <c r="E397" s="58"/>
       <c r="F397" s="58"/>
@@ -7600,7 +7708,7 @@
       <c r="O397" s="58"/>
       <c r="P397" s="58"/>
     </row>
-    <row r="398" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C398" s="58"/>
       <c r="E398" s="58"/>
       <c r="F398" s="58"/>
@@ -7615,7 +7723,7 @@
       <c r="O398" s="58"/>
       <c r="P398" s="58"/>
     </row>
-    <row r="399" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C399" s="58"/>
       <c r="E399" s="58"/>
       <c r="F399" s="58"/>
@@ -7630,7 +7738,7 @@
       <c r="O399" s="58"/>
       <c r="P399" s="58"/>
     </row>
-    <row r="400" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C400" s="58"/>
       <c r="E400" s="58"/>
       <c r="F400" s="58"/>
@@ -7645,7 +7753,7 @@
       <c r="O400" s="58"/>
       <c r="P400" s="58"/>
     </row>
-    <row r="401" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C401" s="58"/>
       <c r="E401" s="58"/>
       <c r="F401" s="58"/>
@@ -7660,7 +7768,7 @@
       <c r="O401" s="58"/>
       <c r="P401" s="58"/>
     </row>
-    <row r="402" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C402" s="58"/>
       <c r="E402" s="58"/>
       <c r="F402" s="58"/>
@@ -7675,7 +7783,7 @@
       <c r="O402" s="58"/>
       <c r="P402" s="58"/>
     </row>
-    <row r="403" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C403" s="58"/>
       <c r="E403" s="58"/>
       <c r="F403" s="58"/>
@@ -7690,7 +7798,7 @@
       <c r="O403" s="58"/>
       <c r="P403" s="58"/>
     </row>
-    <row r="404" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C404" s="58"/>
       <c r="E404" s="58"/>
       <c r="F404" s="58"/>
@@ -7705,7 +7813,7 @@
       <c r="O404" s="58"/>
       <c r="P404" s="58"/>
     </row>
-    <row r="405" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C405" s="58"/>
       <c r="E405" s="58"/>
       <c r="F405" s="58"/>
@@ -7720,7 +7828,7 @@
       <c r="O405" s="58"/>
       <c r="P405" s="58"/>
     </row>
-    <row r="406" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C406" s="58"/>
       <c r="E406" s="58"/>
       <c r="F406" s="58"/>
@@ -7735,7 +7843,7 @@
       <c r="O406" s="58"/>
       <c r="P406" s="58"/>
     </row>
-    <row r="407" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C407" s="58"/>
       <c r="E407" s="58"/>
       <c r="F407" s="58"/>
@@ -7750,7 +7858,7 @@
       <c r="O407" s="58"/>
       <c r="P407" s="58"/>
     </row>
-    <row r="408" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C408" s="58"/>
       <c r="E408" s="58"/>
       <c r="F408" s="58"/>
@@ -7765,7 +7873,7 @@
       <c r="O408" s="58"/>
       <c r="P408" s="58"/>
     </row>
-    <row r="409" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C409" s="58"/>
       <c r="E409" s="58"/>
       <c r="F409" s="58"/>
@@ -7780,7 +7888,7 @@
       <c r="O409" s="58"/>
       <c r="P409" s="58"/>
     </row>
-    <row r="410" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C410" s="58"/>
       <c r="E410" s="58"/>
       <c r="F410" s="58"/>
@@ -7795,7 +7903,7 @@
       <c r="O410" s="58"/>
       <c r="P410" s="58"/>
     </row>
-    <row r="411" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C411" s="58"/>
       <c r="E411" s="58"/>
       <c r="F411" s="58"/>
@@ -7810,7 +7918,7 @@
       <c r="O411" s="58"/>
       <c r="P411" s="58"/>
     </row>
-    <row r="412" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C412" s="58"/>
       <c r="E412" s="58"/>
       <c r="F412" s="58"/>
@@ -7825,7 +7933,7 @@
       <c r="O412" s="58"/>
       <c r="P412" s="58"/>
     </row>
-    <row r="413" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C413" s="58"/>
       <c r="E413" s="58"/>
       <c r="F413" s="58"/>
@@ -7840,7 +7948,7 @@
       <c r="O413" s="58"/>
       <c r="P413" s="58"/>
     </row>
-    <row r="414" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C414" s="58"/>
       <c r="E414" s="58"/>
       <c r="F414" s="58"/>
@@ -7855,7 +7963,7 @@
       <c r="O414" s="58"/>
       <c r="P414" s="58"/>
     </row>
-    <row r="415" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C415" s="58"/>
       <c r="E415" s="58"/>
       <c r="F415" s="58"/>
@@ -7870,7 +7978,7 @@
       <c r="O415" s="58"/>
       <c r="P415" s="58"/>
     </row>
-    <row r="416" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C416" s="58"/>
       <c r="E416" s="58"/>
       <c r="F416" s="58"/>
@@ -7885,7 +7993,7 @@
       <c r="O416" s="58"/>
       <c r="P416" s="58"/>
     </row>
-    <row r="417" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C417" s="58"/>
       <c r="E417" s="58"/>
       <c r="F417" s="58"/>
@@ -7900,7 +8008,7 @@
       <c r="O417" s="58"/>
       <c r="P417" s="58"/>
     </row>
-    <row r="418" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C418" s="58"/>
       <c r="E418" s="58"/>
       <c r="F418" s="58"/>
@@ -7915,7 +8023,7 @@
       <c r="O418" s="58"/>
       <c r="P418" s="58"/>
     </row>
-    <row r="419" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C419" s="58"/>
       <c r="E419" s="58"/>
       <c r="F419" s="58"/>
@@ -7930,7 +8038,7 @@
       <c r="O419" s="58"/>
       <c r="P419" s="58"/>
     </row>
-    <row r="420" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C420" s="58"/>
       <c r="E420" s="58"/>
       <c r="F420" s="58"/>
@@ -7945,7 +8053,7 @@
       <c r="O420" s="58"/>
       <c r="P420" s="58"/>
     </row>
-    <row r="421" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C421" s="58"/>
       <c r="E421" s="58"/>
       <c r="F421" s="58"/>
@@ -7960,7 +8068,7 @@
       <c r="O421" s="58"/>
       <c r="P421" s="58"/>
     </row>
-    <row r="422" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C422" s="58"/>
       <c r="E422" s="58"/>
       <c r="F422" s="58"/>
@@ -7975,7 +8083,7 @@
       <c r="O422" s="58"/>
       <c r="P422" s="58"/>
     </row>
-    <row r="423" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C423" s="58"/>
       <c r="E423" s="58"/>
       <c r="F423" s="58"/>
@@ -7990,7 +8098,7 @@
       <c r="O423" s="58"/>
       <c r="P423" s="58"/>
     </row>
-    <row r="424" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C424" s="58"/>
       <c r="E424" s="58"/>
       <c r="F424" s="58"/>
@@ -8005,7 +8113,7 @@
       <c r="O424" s="58"/>
       <c r="P424" s="58"/>
     </row>
-    <row r="425" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C425" s="58"/>
       <c r="E425" s="58"/>
       <c r="F425" s="58"/>
@@ -8020,7 +8128,7 @@
       <c r="O425" s="58"/>
       <c r="P425" s="58"/>
     </row>
-    <row r="426" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C426" s="58"/>
       <c r="E426" s="58"/>
       <c r="F426" s="58"/>
@@ -8035,7 +8143,7 @@
       <c r="O426" s="58"/>
       <c r="P426" s="58"/>
     </row>
-    <row r="427" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C427" s="58"/>
       <c r="E427" s="58"/>
       <c r="F427" s="58"/>
@@ -8050,7 +8158,7 @@
       <c r="O427" s="58"/>
       <c r="P427" s="58"/>
     </row>
-    <row r="428" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C428" s="58"/>
       <c r="E428" s="58"/>
       <c r="F428" s="58"/>
@@ -8065,7 +8173,7 @@
       <c r="O428" s="58"/>
       <c r="P428" s="58"/>
     </row>
-    <row r="429" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C429" s="58"/>
       <c r="E429" s="58"/>
       <c r="F429" s="58"/>
@@ -8080,7 +8188,7 @@
       <c r="O429" s="58"/>
       <c r="P429" s="58"/>
     </row>
-    <row r="430" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C430" s="58"/>
       <c r="E430" s="58"/>
       <c r="F430" s="58"/>
@@ -8095,7 +8203,7 @@
       <c r="O430" s="58"/>
       <c r="P430" s="58"/>
     </row>
-    <row r="431" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C431" s="58"/>
       <c r="E431" s="58"/>
       <c r="F431" s="58"/>
@@ -8110,7 +8218,7 @@
       <c r="O431" s="58"/>
       <c r="P431" s="58"/>
     </row>
-    <row r="432" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C432" s="58"/>
       <c r="E432" s="58"/>
       <c r="F432" s="58"/>
@@ -8125,7 +8233,7 @@
       <c r="O432" s="58"/>
       <c r="P432" s="58"/>
     </row>
-    <row r="433" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C433" s="58"/>
       <c r="E433" s="58"/>
       <c r="F433" s="58"/>
@@ -8140,7 +8248,7 @@
       <c r="O433" s="58"/>
       <c r="P433" s="58"/>
     </row>
-    <row r="434" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C434" s="58"/>
       <c r="E434" s="58"/>
       <c r="F434" s="58"/>
@@ -8155,7 +8263,7 @@
       <c r="O434" s="58"/>
       <c r="P434" s="58"/>
     </row>
-    <row r="435" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C435" s="58"/>
       <c r="E435" s="58"/>
       <c r="F435" s="58"/>
@@ -8170,7 +8278,7 @@
       <c r="O435" s="58"/>
       <c r="P435" s="58"/>
     </row>
-    <row r="436" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C436" s="58"/>
       <c r="E436" s="58"/>
       <c r="F436" s="58"/>
@@ -8185,7 +8293,7 @@
       <c r="O436" s="58"/>
       <c r="P436" s="58"/>
     </row>
-    <row r="437" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C437" s="58"/>
       <c r="E437" s="58"/>
       <c r="F437" s="58"/>
@@ -8200,7 +8308,7 @@
       <c r="O437" s="58"/>
       <c r="P437" s="58"/>
     </row>
-    <row r="438" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C438" s="58"/>
       <c r="E438" s="58"/>
       <c r="F438" s="58"/>
@@ -8215,7 +8323,7 @@
       <c r="O438" s="58"/>
       <c r="P438" s="58"/>
     </row>
-    <row r="439" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C439" s="58"/>
       <c r="E439" s="58"/>
       <c r="F439" s="58"/>
@@ -8230,7 +8338,7 @@
       <c r="O439" s="58"/>
       <c r="P439" s="58"/>
     </row>
-    <row r="440" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C440" s="58"/>
       <c r="E440" s="58"/>
       <c r="F440" s="58"/>
@@ -8245,7 +8353,7 @@
       <c r="O440" s="58"/>
       <c r="P440" s="58"/>
     </row>
-    <row r="441" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C441" s="58"/>
       <c r="E441" s="58"/>
       <c r="F441" s="58"/>
@@ -8260,7 +8368,7 @@
       <c r="O441" s="58"/>
       <c r="P441" s="58"/>
     </row>
-    <row r="442" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C442" s="58"/>
       <c r="E442" s="58"/>
       <c r="F442" s="58"/>
@@ -8275,7 +8383,7 @@
       <c r="O442" s="58"/>
       <c r="P442" s="58"/>
     </row>
-    <row r="443" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C443" s="58"/>
       <c r="E443" s="58"/>
       <c r="F443" s="58"/>
@@ -8290,7 +8398,7 @@
       <c r="O443" s="58"/>
       <c r="P443" s="58"/>
     </row>
-    <row r="444" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C444" s="58"/>
       <c r="E444" s="58"/>
       <c r="F444" s="58"/>
@@ -8305,7 +8413,7 @@
       <c r="O444" s="58"/>
       <c r="P444" s="58"/>
     </row>
-    <row r="445" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C445" s="58"/>
       <c r="E445" s="58"/>
       <c r="F445" s="58"/>
@@ -8320,7 +8428,7 @@
       <c r="O445" s="58"/>
       <c r="P445" s="58"/>
     </row>
-    <row r="446" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C446" s="58"/>
       <c r="E446" s="58"/>
       <c r="F446" s="58"/>
@@ -8335,7 +8443,7 @@
       <c r="O446" s="58"/>
       <c r="P446" s="58"/>
     </row>
-    <row r="447" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C447" s="58"/>
       <c r="E447" s="58"/>
       <c r="F447" s="58"/>
@@ -8350,7 +8458,7 @@
       <c r="O447" s="58"/>
       <c r="P447" s="58"/>
     </row>
-    <row r="448" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C448" s="58"/>
       <c r="E448" s="58"/>
       <c r="F448" s="58"/>
@@ -8365,7 +8473,7 @@
       <c r="O448" s="58"/>
       <c r="P448" s="58"/>
     </row>
-    <row r="449" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C449" s="58"/>
       <c r="E449" s="58"/>
       <c r="F449" s="58"/>
@@ -8380,7 +8488,7 @@
       <c r="O449" s="58"/>
       <c r="P449" s="58"/>
     </row>
-    <row r="450" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C450" s="58"/>
       <c r="E450" s="58"/>
       <c r="F450" s="58"/>
@@ -8395,7 +8503,7 @@
       <c r="O450" s="58"/>
       <c r="P450" s="58"/>
     </row>
-    <row r="451" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C451" s="58"/>
       <c r="E451" s="58"/>
       <c r="F451" s="58"/>
@@ -8410,7 +8518,7 @@
       <c r="O451" s="58"/>
       <c r="P451" s="58"/>
     </row>
-    <row r="452" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C452" s="58"/>
       <c r="E452" s="58"/>
       <c r="F452" s="58"/>
@@ -8425,7 +8533,7 @@
       <c r="O452" s="58"/>
       <c r="P452" s="58"/>
     </row>
-    <row r="453" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C453" s="58"/>
       <c r="E453" s="58"/>
       <c r="F453" s="58"/>
@@ -8440,7 +8548,7 @@
       <c r="O453" s="58"/>
       <c r="P453" s="58"/>
     </row>
-    <row r="454" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C454" s="58"/>
       <c r="E454" s="58"/>
       <c r="F454" s="58"/>
@@ -8455,7 +8563,7 @@
       <c r="O454" s="58"/>
       <c r="P454" s="58"/>
     </row>
-    <row r="455" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C455" s="58"/>
       <c r="E455" s="58"/>
       <c r="F455" s="58"/>
@@ -8470,7 +8578,7 @@
       <c r="O455" s="58"/>
       <c r="P455" s="58"/>
     </row>
-    <row r="456" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C456" s="58"/>
       <c r="E456" s="58"/>
       <c r="F456" s="58"/>
@@ -8485,7 +8593,7 @@
       <c r="O456" s="58"/>
       <c r="P456" s="58"/>
     </row>
-    <row r="457" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C457" s="58"/>
       <c r="E457" s="58"/>
       <c r="F457" s="58"/>
@@ -8500,7 +8608,7 @@
       <c r="O457" s="58"/>
       <c r="P457" s="58"/>
     </row>
-    <row r="458" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C458" s="58"/>
       <c r="E458" s="58"/>
       <c r="F458" s="58"/>
@@ -8515,7 +8623,7 @@
       <c r="O458" s="58"/>
       <c r="P458" s="58"/>
     </row>
-    <row r="459" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C459" s="58"/>
       <c r="E459" s="58"/>
       <c r="F459" s="58"/>
@@ -8530,7 +8638,7 @@
       <c r="O459" s="58"/>
       <c r="P459" s="58"/>
     </row>
-    <row r="460" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C460" s="58"/>
       <c r="E460" s="58"/>
       <c r="F460" s="58"/>
@@ -8545,7 +8653,7 @@
       <c r="O460" s="58"/>
       <c r="P460" s="58"/>
     </row>
-    <row r="461" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C461" s="58"/>
       <c r="E461" s="58"/>
       <c r="F461" s="58"/>
@@ -8560,7 +8668,7 @@
       <c r="O461" s="58"/>
       <c r="P461" s="58"/>
     </row>
-    <row r="462" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C462" s="58"/>
       <c r="E462" s="58"/>
       <c r="F462" s="58"/>
@@ -8575,7 +8683,7 @@
       <c r="O462" s="58"/>
       <c r="P462" s="58"/>
     </row>
-    <row r="463" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C463" s="58"/>
       <c r="E463" s="58"/>
       <c r="F463" s="58"/>
@@ -8590,7 +8698,7 @@
       <c r="O463" s="58"/>
       <c r="P463" s="58"/>
     </row>
-    <row r="464" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C464" s="58"/>
       <c r="E464" s="58"/>
       <c r="F464" s="58"/>
@@ -8605,7 +8713,7 @@
       <c r="O464" s="58"/>
       <c r="P464" s="58"/>
     </row>
-    <row r="465" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C465" s="58"/>
       <c r="E465" s="58"/>
       <c r="F465" s="58"/>
@@ -8620,7 +8728,7 @@
       <c r="O465" s="58"/>
       <c r="P465" s="58"/>
     </row>
-    <row r="466" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C466" s="58"/>
       <c r="E466" s="58"/>
       <c r="F466" s="58"/>
@@ -8635,7 +8743,7 @@
       <c r="O466" s="58"/>
       <c r="P466" s="58"/>
     </row>
-    <row r="467" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C467" s="58"/>
       <c r="E467" s="58"/>
       <c r="F467" s="58"/>
@@ -8650,7 +8758,7 @@
       <c r="O467" s="58"/>
       <c r="P467" s="58"/>
     </row>
-    <row r="468" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C468" s="58"/>
       <c r="E468" s="58"/>
       <c r="F468" s="58"/>
@@ -8665,7 +8773,7 @@
       <c r="O468" s="58"/>
       <c r="P468" s="58"/>
     </row>
-    <row r="469" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C469" s="58"/>
       <c r="E469" s="58"/>
       <c r="F469" s="58"/>
@@ -8680,7 +8788,7 @@
       <c r="O469" s="58"/>
       <c r="P469" s="58"/>
     </row>
-    <row r="470" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C470" s="58"/>
       <c r="E470" s="58"/>
       <c r="F470" s="58"/>
@@ -8695,7 +8803,7 @@
       <c r="O470" s="58"/>
       <c r="P470" s="58"/>
     </row>
-    <row r="471" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C471" s="58"/>
       <c r="E471" s="58"/>
       <c r="F471" s="58"/>
@@ -8710,7 +8818,7 @@
       <c r="O471" s="58"/>
       <c r="P471" s="58"/>
     </row>
-    <row r="472" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C472" s="58"/>
       <c r="E472" s="58"/>
       <c r="F472" s="58"/>
@@ -8725,7 +8833,7 @@
       <c r="O472" s="58"/>
       <c r="P472" s="58"/>
     </row>
-    <row r="473" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C473" s="58"/>
       <c r="E473" s="58"/>
       <c r="F473" s="58"/>
@@ -8740,7 +8848,7 @@
       <c r="O473" s="58"/>
       <c r="P473" s="58"/>
     </row>
-    <row r="474" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C474" s="58"/>
       <c r="E474" s="58"/>
       <c r="F474" s="58"/>
@@ -8755,7 +8863,7 @@
       <c r="O474" s="58"/>
       <c r="P474" s="58"/>
     </row>
-    <row r="475" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C475" s="58"/>
       <c r="E475" s="58"/>
       <c r="F475" s="58"/>
@@ -8770,7 +8878,7 @@
       <c r="O475" s="58"/>
       <c r="P475" s="58"/>
     </row>
-    <row r="476" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C476" s="58"/>
       <c r="E476" s="58"/>
       <c r="F476" s="58"/>
@@ -8785,7 +8893,7 @@
       <c r="O476" s="58"/>
       <c r="P476" s="58"/>
     </row>
-    <row r="477" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C477" s="58"/>
       <c r="E477" s="58"/>
       <c r="F477" s="58"/>
@@ -8800,7 +8908,7 @@
       <c r="O477" s="58"/>
       <c r="P477" s="58"/>
     </row>
-    <row r="478" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C478" s="58"/>
       <c r="E478" s="58"/>
       <c r="F478" s="58"/>
@@ -8815,7 +8923,7 @@
       <c r="O478" s="58"/>
       <c r="P478" s="58"/>
     </row>
-    <row r="479" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C479" s="58"/>
       <c r="E479" s="58"/>
       <c r="F479" s="58"/>
@@ -8830,7 +8938,7 @@
       <c r="O479" s="58"/>
       <c r="P479" s="58"/>
     </row>
-    <row r="480" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C480" s="58"/>
       <c r="E480" s="58"/>
       <c r="F480" s="58"/>
@@ -8845,7 +8953,7 @@
       <c r="O480" s="58"/>
       <c r="P480" s="58"/>
     </row>
-    <row r="481" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C481" s="58"/>
       <c r="E481" s="58"/>
       <c r="F481" s="58"/>
@@ -8860,7 +8968,7 @@
       <c r="O481" s="58"/>
       <c r="P481" s="58"/>
     </row>
-    <row r="482" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C482" s="58"/>
       <c r="E482" s="58"/>
       <c r="F482" s="58"/>
@@ -8875,7 +8983,7 @@
       <c r="O482" s="58"/>
       <c r="P482" s="58"/>
     </row>
-    <row r="483" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C483" s="58"/>
       <c r="E483" s="58"/>
       <c r="F483" s="58"/>
@@ -8890,7 +8998,7 @@
       <c r="O483" s="58"/>
       <c r="P483" s="58"/>
     </row>
-    <row r="484" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C484" s="58"/>
       <c r="E484" s="58"/>
       <c r="F484" s="58"/>
@@ -8905,7 +9013,7 @@
       <c r="O484" s="58"/>
       <c r="P484" s="58"/>
     </row>
-    <row r="485" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C485" s="58"/>
       <c r="E485" s="58"/>
       <c r="F485" s="58"/>
@@ -8920,7 +9028,7 @@
       <c r="O485" s="58"/>
       <c r="P485" s="58"/>
     </row>
-    <row r="486" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C486" s="58"/>
       <c r="E486" s="58"/>
       <c r="F486" s="58"/>
@@ -8935,7 +9043,7 @@
       <c r="O486" s="58"/>
       <c r="P486" s="58"/>
     </row>
-    <row r="487" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C487" s="58"/>
       <c r="E487" s="58"/>
       <c r="F487" s="58"/>
@@ -8950,7 +9058,7 @@
       <c r="O487" s="58"/>
       <c r="P487" s="58"/>
     </row>
-    <row r="488" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C488" s="58"/>
       <c r="E488" s="58"/>
       <c r="F488" s="58"/>
@@ -8965,7 +9073,7 @@
       <c r="O488" s="58"/>
       <c r="P488" s="58"/>
     </row>
-    <row r="489" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C489" s="58"/>
       <c r="E489" s="58"/>
       <c r="F489" s="58"/>
@@ -8980,7 +9088,7 @@
       <c r="O489" s="58"/>
       <c r="P489" s="58"/>
     </row>
-    <row r="490" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C490" s="58"/>
       <c r="E490" s="58"/>
       <c r="F490" s="58"/>
@@ -8995,7 +9103,7 @@
       <c r="O490" s="58"/>
       <c r="P490" s="58"/>
     </row>
-    <row r="491" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C491" s="58"/>
       <c r="E491" s="58"/>
       <c r="F491" s="58"/>
@@ -9010,7 +9118,7 @@
       <c r="O491" s="58"/>
       <c r="P491" s="58"/>
     </row>
-    <row r="492" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C492" s="58"/>
       <c r="E492" s="58"/>
       <c r="F492" s="58"/>
@@ -9025,7 +9133,7 @@
       <c r="O492" s="58"/>
       <c r="P492" s="58"/>
     </row>
-    <row r="493" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C493" s="58"/>
       <c r="E493" s="58"/>
       <c r="F493" s="58"/>
@@ -9040,7 +9148,7 @@
       <c r="O493" s="58"/>
       <c r="P493" s="58"/>
     </row>
-    <row r="494" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C494" s="58"/>
       <c r="E494" s="58"/>
       <c r="F494" s="58"/>
@@ -9055,7 +9163,7 @@
       <c r="O494" s="58"/>
       <c r="P494" s="58"/>
     </row>
-    <row r="495" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C495" s="58"/>
       <c r="E495" s="58"/>
       <c r="F495" s="58"/>
@@ -9070,7 +9178,7 @@
       <c r="O495" s="58"/>
       <c r="P495" s="58"/>
     </row>
-    <row r="496" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C496" s="58"/>
       <c r="E496" s="58"/>
       <c r="F496" s="58"/>
@@ -9085,7 +9193,7 @@
       <c r="O496" s="58"/>
       <c r="P496" s="58"/>
     </row>
-    <row r="497" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C497" s="58"/>
       <c r="E497" s="58"/>
       <c r="F497" s="58"/>
@@ -9100,7 +9208,7 @@
       <c r="O497" s="58"/>
       <c r="P497" s="58"/>
     </row>
-    <row r="498" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C498" s="58"/>
       <c r="E498" s="58"/>
       <c r="F498" s="58"/>
@@ -9115,7 +9223,7 @@
       <c r="O498" s="58"/>
       <c r="P498" s="58"/>
     </row>
-    <row r="499" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C499" s="58"/>
       <c r="E499" s="58"/>
       <c r="F499" s="58"/>
@@ -9130,7 +9238,7 @@
       <c r="O499" s="58"/>
       <c r="P499" s="58"/>
     </row>
-    <row r="500" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C500" s="58"/>
       <c r="E500" s="58"/>
       <c r="F500" s="58"/>
@@ -9145,7 +9253,7 @@
       <c r="O500" s="58"/>
       <c r="P500" s="58"/>
     </row>
-    <row r="501" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C501" s="58"/>
       <c r="E501" s="58"/>
       <c r="F501" s="58"/>
@@ -9160,7 +9268,7 @@
       <c r="O501" s="58"/>
       <c r="P501" s="58"/>
     </row>
-    <row r="502" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C502" s="58"/>
       <c r="E502" s="58"/>
       <c r="F502" s="58"/>
@@ -9175,7 +9283,7 @@
       <c r="O502" s="58"/>
       <c r="P502" s="58"/>
     </row>
-    <row r="503" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C503" s="58"/>
       <c r="E503" s="58"/>
       <c r="F503" s="58"/>
@@ -9190,7 +9298,7 @@
       <c r="O503" s="58"/>
       <c r="P503" s="58"/>
     </row>
-    <row r="504" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C504" s="58"/>
       <c r="E504" s="58"/>
       <c r="F504" s="58"/>
@@ -9205,7 +9313,7 @@
       <c r="O504" s="58"/>
       <c r="P504" s="58"/>
     </row>
-    <row r="505" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C505" s="58"/>
       <c r="E505" s="58"/>
       <c r="F505" s="58"/>
@@ -9220,7 +9328,7 @@
       <c r="O505" s="58"/>
       <c r="P505" s="58"/>
     </row>
-    <row r="506" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C506" s="58"/>
       <c r="E506" s="58"/>
       <c r="F506" s="58"/>
@@ -9235,7 +9343,7 @@
       <c r="O506" s="58"/>
       <c r="P506" s="58"/>
     </row>
-    <row r="507" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C507" s="58"/>
       <c r="E507" s="58"/>
       <c r="F507" s="58"/>
@@ -9250,7 +9358,7 @@
       <c r="O507" s="58"/>
       <c r="P507" s="58"/>
     </row>
-    <row r="508" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C508" s="58"/>
       <c r="E508" s="58"/>
       <c r="F508" s="58"/>
@@ -9265,7 +9373,7 @@
       <c r="O508" s="58"/>
       <c r="P508" s="58"/>
     </row>
-    <row r="509" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C509" s="58"/>
       <c r="E509" s="58"/>
       <c r="F509" s="58"/>
@@ -9280,7 +9388,7 @@
       <c r="O509" s="58"/>
       <c r="P509" s="58"/>
     </row>
-    <row r="510" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C510" s="58"/>
       <c r="E510" s="58"/>
       <c r="F510" s="58"/>
@@ -9295,7 +9403,7 @@
       <c r="O510" s="58"/>
       <c r="P510" s="58"/>
     </row>
-    <row r="511" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C511" s="58"/>
       <c r="E511" s="58"/>
       <c r="F511" s="58"/>
@@ -9310,7 +9418,7 @@
       <c r="O511" s="58"/>
       <c r="P511" s="58"/>
     </row>
-    <row r="512" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C512" s="58"/>
       <c r="E512" s="58"/>
       <c r="F512" s="58"/>
@@ -9325,7 +9433,7 @@
       <c r="O512" s="58"/>
       <c r="P512" s="58"/>
     </row>
-    <row r="513" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C513" s="58"/>
       <c r="E513" s="58"/>
       <c r="F513" s="58"/>
@@ -9340,7 +9448,7 @@
       <c r="O513" s="58"/>
       <c r="P513" s="58"/>
     </row>
-    <row r="514" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C514" s="58"/>
       <c r="E514" s="58"/>
       <c r="F514" s="58"/>
@@ -9355,7 +9463,7 @@
       <c r="O514" s="58"/>
       <c r="P514" s="58"/>
     </row>
-    <row r="515" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C515" s="58"/>
       <c r="E515" s="58"/>
       <c r="F515" s="58"/>
@@ -9370,7 +9478,7 @@
       <c r="O515" s="58"/>
       <c r="P515" s="58"/>
     </row>
-    <row r="516" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C516" s="58"/>
       <c r="E516" s="58"/>
       <c r="F516" s="58"/>
@@ -9385,7 +9493,7 @@
       <c r="O516" s="58"/>
       <c r="P516" s="58"/>
     </row>
-    <row r="517" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C517" s="58"/>
       <c r="E517" s="58"/>
       <c r="F517" s="58"/>
@@ -9400,7 +9508,7 @@
       <c r="O517" s="58"/>
       <c r="P517" s="58"/>
     </row>
-    <row r="518" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C518" s="58"/>
       <c r="E518" s="58"/>
       <c r="F518" s="58"/>
@@ -9415,7 +9523,7 @@
       <c r="O518" s="58"/>
       <c r="P518" s="58"/>
     </row>
-    <row r="519" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C519" s="58"/>
       <c r="E519" s="58"/>
       <c r="F519" s="58"/>
@@ -9430,7 +9538,7 @@
       <c r="O519" s="58"/>
       <c r="P519" s="58"/>
     </row>
-    <row r="520" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C520" s="58"/>
       <c r="E520" s="58"/>
       <c r="F520" s="58"/>
@@ -9445,7 +9553,7 @@
       <c r="O520" s="58"/>
       <c r="P520" s="58"/>
     </row>
-    <row r="521" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C521" s="58"/>
       <c r="E521" s="58"/>
       <c r="F521" s="58"/>
@@ -9460,7 +9568,7 @@
       <c r="O521" s="58"/>
       <c r="P521" s="58"/>
     </row>
-    <row r="522" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C522" s="58"/>
       <c r="E522" s="58"/>
       <c r="F522" s="58"/>
@@ -9475,7 +9583,7 @@
       <c r="O522" s="58"/>
       <c r="P522" s="58"/>
     </row>
-    <row r="523" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C523" s="58"/>
       <c r="E523" s="58"/>
       <c r="F523" s="58"/>
@@ -9490,7 +9598,7 @@
       <c r="O523" s="58"/>
       <c r="P523" s="58"/>
     </row>
-    <row r="524" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C524" s="58"/>
       <c r="E524" s="58"/>
       <c r="F524" s="58"/>
@@ -9505,7 +9613,7 @@
       <c r="O524" s="58"/>
       <c r="P524" s="58"/>
     </row>
-    <row r="525" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C525" s="58"/>
       <c r="E525" s="58"/>
       <c r="F525" s="58"/>
@@ -9520,7 +9628,7 @@
       <c r="O525" s="58"/>
       <c r="P525" s="58"/>
     </row>
-    <row r="526" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C526" s="58"/>
       <c r="E526" s="58"/>
       <c r="F526" s="58"/>
@@ -9535,7 +9643,7 @@
       <c r="O526" s="58"/>
       <c r="P526" s="58"/>
     </row>
-    <row r="527" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C527" s="58"/>
       <c r="E527" s="58"/>
       <c r="F527" s="58"/>
@@ -9550,7 +9658,7 @@
       <c r="O527" s="58"/>
       <c r="P527" s="58"/>
     </row>
-    <row r="528" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C528" s="58"/>
       <c r="E528" s="58"/>
       <c r="F528" s="58"/>
@@ -9565,7 +9673,7 @@
       <c r="O528" s="58"/>
       <c r="P528" s="58"/>
     </row>
-    <row r="529" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C529" s="58"/>
       <c r="E529" s="58"/>
       <c r="F529" s="58"/>
@@ -9580,7 +9688,7 @@
       <c r="O529" s="58"/>
       <c r="P529" s="58"/>
     </row>
-    <row r="530" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C530" s="58"/>
       <c r="E530" s="58"/>
       <c r="F530" s="58"/>
@@ -9595,7 +9703,7 @@
       <c r="O530" s="58"/>
       <c r="P530" s="58"/>
     </row>
-    <row r="531" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C531" s="58"/>
       <c r="E531" s="58"/>
       <c r="F531" s="58"/>
@@ -9610,7 +9718,7 @@
       <c r="O531" s="58"/>
       <c r="P531" s="58"/>
     </row>
-    <row r="532" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C532" s="58"/>
       <c r="E532" s="58"/>
       <c r="F532" s="58"/>
@@ -9625,7 +9733,7 @@
       <c r="O532" s="58"/>
       <c r="P532" s="58"/>
     </row>
-    <row r="533" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C533" s="58"/>
       <c r="E533" s="58"/>
       <c r="F533" s="58"/>
@@ -9640,7 +9748,7 @@
       <c r="O533" s="58"/>
       <c r="P533" s="58"/>
     </row>
-    <row r="534" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C534" s="58"/>
       <c r="E534" s="58"/>
       <c r="F534" s="58"/>
@@ -9655,7 +9763,7 @@
       <c r="O534" s="58"/>
       <c r="P534" s="58"/>
     </row>
-    <row r="535" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C535" s="58"/>
       <c r="E535" s="58"/>
       <c r="F535" s="58"/>
@@ -9670,7 +9778,7 @@
       <c r="O535" s="58"/>
       <c r="P535" s="58"/>
     </row>
-    <row r="536" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C536" s="58"/>
       <c r="E536" s="58"/>
       <c r="F536" s="58"/>
@@ -9685,7 +9793,7 @@
       <c r="O536" s="58"/>
       <c r="P536" s="58"/>
     </row>
-    <row r="537" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C537" s="58"/>
       <c r="E537" s="58"/>
       <c r="F537" s="58"/>
@@ -9700,7 +9808,7 @@
       <c r="O537" s="58"/>
       <c r="P537" s="58"/>
     </row>
-    <row r="538" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C538" s="58"/>
       <c r="E538" s="58"/>
       <c r="F538" s="58"/>
@@ -9715,7 +9823,7 @@
       <c r="O538" s="58"/>
       <c r="P538" s="58"/>
     </row>
-    <row r="539" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C539" s="58"/>
       <c r="E539" s="58"/>
       <c r="F539" s="58"/>
@@ -9730,7 +9838,7 @@
       <c r="O539" s="58"/>
       <c r="P539" s="58"/>
     </row>
-    <row r="540" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C540" s="58"/>
       <c r="E540" s="58"/>
       <c r="F540" s="58"/>
@@ -9745,7 +9853,7 @@
       <c r="O540" s="58"/>
       <c r="P540" s="58"/>
     </row>
-    <row r="541" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C541" s="58"/>
       <c r="E541" s="58"/>
       <c r="F541" s="58"/>
@@ -9760,7 +9868,7 @@
       <c r="O541" s="58"/>
       <c r="P541" s="58"/>
     </row>
-    <row r="542" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C542" s="58"/>
       <c r="E542" s="58"/>
       <c r="F542" s="58"/>
@@ -9775,7 +9883,7 @@
       <c r="O542" s="58"/>
       <c r="P542" s="58"/>
     </row>
-    <row r="543" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C543" s="58"/>
       <c r="E543" s="58"/>
       <c r="F543" s="58"/>
@@ -9790,7 +9898,7 @@
       <c r="O543" s="58"/>
       <c r="P543" s="58"/>
     </row>
-    <row r="544" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C544" s="58"/>
       <c r="E544" s="58"/>
       <c r="F544" s="58"/>
@@ -9805,7 +9913,7 @@
       <c r="O544" s="58"/>
       <c r="P544" s="58"/>
     </row>
-    <row r="545" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C545" s="58"/>
       <c r="E545" s="58"/>
       <c r="F545" s="58"/>
@@ -9820,7 +9928,7 @@
       <c r="O545" s="58"/>
       <c r="P545" s="58"/>
     </row>
-    <row r="546" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C546" s="58"/>
       <c r="E546" s="58"/>
       <c r="F546" s="58"/>
@@ -9835,7 +9943,7 @@
       <c r="O546" s="58"/>
       <c r="P546" s="58"/>
     </row>
-    <row r="547" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C547" s="58"/>
       <c r="E547" s="58"/>
       <c r="F547" s="58"/>
@@ -9850,7 +9958,7 @@
       <c r="O547" s="58"/>
       <c r="P547" s="58"/>
     </row>
-    <row r="548" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C548" s="58"/>
       <c r="E548" s="58"/>
       <c r="F548" s="58"/>
@@ -9865,7 +9973,7 @@
       <c r="O548" s="58"/>
       <c r="P548" s="58"/>
     </row>
-    <row r="549" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C549" s="58"/>
       <c r="E549" s="58"/>
       <c r="F549" s="58"/>
@@ -9880,7 +9988,7 @@
       <c r="O549" s="58"/>
       <c r="P549" s="58"/>
     </row>
-    <row r="550" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C550" s="58"/>
       <c r="E550" s="58"/>
       <c r="F550" s="58"/>
@@ -9895,7 +10003,7 @@
       <c r="O550" s="58"/>
       <c r="P550" s="58"/>
     </row>
-    <row r="551" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C551" s="58"/>
       <c r="E551" s="58"/>
       <c r="F551" s="58"/>
@@ -9910,7 +10018,7 @@
       <c r="O551" s="58"/>
       <c r="P551" s="58"/>
     </row>
-    <row r="552" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C552" s="58"/>
       <c r="E552" s="58"/>
       <c r="F552" s="58"/>
@@ -9925,7 +10033,7 @@
       <c r="O552" s="58"/>
       <c r="P552" s="58"/>
     </row>
-    <row r="553" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C553" s="58"/>
       <c r="E553" s="58"/>
       <c r="F553" s="58"/>
@@ -9940,7 +10048,7 @@
       <c r="O553" s="58"/>
       <c r="P553" s="58"/>
     </row>
-    <row r="554" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C554" s="58"/>
       <c r="E554" s="58"/>
       <c r="F554" s="58"/>
@@ -9955,7 +10063,7 @@
       <c r="O554" s="58"/>
       <c r="P554" s="58"/>
     </row>
-    <row r="555" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C555" s="58"/>
       <c r="E555" s="58"/>
       <c r="F555" s="58"/>
@@ -9970,7 +10078,7 @@
       <c r="O555" s="58"/>
       <c r="P555" s="58"/>
     </row>
-    <row r="556" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C556" s="58"/>
       <c r="E556" s="58"/>
       <c r="F556" s="58"/>
@@ -9985,7 +10093,7 @@
       <c r="O556" s="58"/>
       <c r="P556" s="58"/>
     </row>
-    <row r="557" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C557" s="58"/>
       <c r="E557" s="58"/>
       <c r="F557" s="58"/>
@@ -10000,7 +10108,7 @@
       <c r="O557" s="58"/>
       <c r="P557" s="58"/>
     </row>
-    <row r="558" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C558" s="58"/>
       <c r="E558" s="58"/>
       <c r="F558" s="58"/>
@@ -10015,7 +10123,7 @@
       <c r="O558" s="58"/>
       <c r="P558" s="58"/>
     </row>
-    <row r="559" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C559" s="58"/>
       <c r="E559" s="58"/>
       <c r="F559" s="58"/>
@@ -10030,7 +10138,7 @@
       <c r="O559" s="58"/>
       <c r="P559" s="58"/>
     </row>
-    <row r="560" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C560" s="58"/>
       <c r="E560" s="58"/>
       <c r="F560" s="58"/>
@@ -10045,7 +10153,7 @@
       <c r="O560" s="58"/>
       <c r="P560" s="58"/>
     </row>
-    <row r="561" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C561" s="58"/>
       <c r="E561" s="58"/>
       <c r="F561" s="58"/>
@@ -10060,7 +10168,7 @@
       <c r="O561" s="58"/>
       <c r="P561" s="58"/>
     </row>
-    <row r="562" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C562" s="58"/>
       <c r="E562" s="58"/>
       <c r="F562" s="58"/>
@@ -10075,7 +10183,7 @@
       <c r="O562" s="58"/>
       <c r="P562" s="58"/>
     </row>
-    <row r="563" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C563" s="58"/>
       <c r="E563" s="58"/>
       <c r="F563" s="58"/>
@@ -10090,7 +10198,7 @@
       <c r="O563" s="58"/>
       <c r="P563" s="58"/>
     </row>
-    <row r="564" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C564" s="58"/>
       <c r="E564" s="58"/>
       <c r="F564" s="58"/>
@@ -10105,7 +10213,7 @@
       <c r="O564" s="58"/>
       <c r="P564" s="58"/>
     </row>
-    <row r="565" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C565" s="58"/>
       <c r="E565" s="58"/>
       <c r="F565" s="58"/>
@@ -10120,7 +10228,7 @@
       <c r="O565" s="58"/>
       <c r="P565" s="58"/>
     </row>
-    <row r="566" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C566" s="58"/>
       <c r="E566" s="58"/>
       <c r="F566" s="58"/>
@@ -10135,7 +10243,7 @@
       <c r="O566" s="58"/>
       <c r="P566" s="58"/>
     </row>
-    <row r="567" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C567" s="58"/>
       <c r="E567" s="58"/>
       <c r="F567" s="58"/>
@@ -10150,7 +10258,7 @@
       <c r="O567" s="58"/>
       <c r="P567" s="58"/>
     </row>
-    <row r="568" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C568" s="58"/>
       <c r="E568" s="58"/>
       <c r="F568" s="58"/>
@@ -10165,7 +10273,7 @@
       <c r="O568" s="58"/>
       <c r="P568" s="58"/>
     </row>
-    <row r="569" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C569" s="58"/>
       <c r="E569" s="58"/>
       <c r="F569" s="58"/>
@@ -10180,7 +10288,7 @@
       <c r="O569" s="58"/>
       <c r="P569" s="58"/>
     </row>
-    <row r="570" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C570" s="58"/>
       <c r="E570" s="58"/>
       <c r="F570" s="58"/>
@@ -10195,7 +10303,7 @@
       <c r="O570" s="58"/>
       <c r="P570" s="58"/>
     </row>
-    <row r="571" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C571" s="58"/>
       <c r="E571" s="58"/>
       <c r="F571" s="58"/>
@@ -10210,7 +10318,7 @@
       <c r="O571" s="58"/>
       <c r="P571" s="58"/>
     </row>
-    <row r="572" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C572" s="58"/>
       <c r="E572" s="58"/>
       <c r="F572" s="58"/>
@@ -10225,7 +10333,7 @@
       <c r="O572" s="58"/>
       <c r="P572" s="58"/>
     </row>
-    <row r="573" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C573" s="58"/>
       <c r="E573" s="58"/>
       <c r="F573" s="58"/>
@@ -10240,7 +10348,7 @@
       <c r="O573" s="58"/>
       <c r="P573" s="58"/>
     </row>
-    <row r="574" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C574" s="58"/>
       <c r="E574" s="58"/>
       <c r="F574" s="58"/>
@@ -10255,7 +10363,7 @@
       <c r="O574" s="58"/>
       <c r="P574" s="58"/>
     </row>
-    <row r="575" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C575" s="58"/>
       <c r="E575" s="58"/>
       <c r="F575" s="58"/>
@@ -10270,7 +10378,7 @@
       <c r="O575" s="58"/>
       <c r="P575" s="58"/>
     </row>
-    <row r="576" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C576" s="58"/>
       <c r="E576" s="58"/>
       <c r="F576" s="58"/>
@@ -10285,7 +10393,7 @@
       <c r="O576" s="58"/>
       <c r="P576" s="58"/>
     </row>
-    <row r="577" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C577" s="58"/>
       <c r="E577" s="58"/>
       <c r="F577" s="58"/>
@@ -10300,7 +10408,7 @@
       <c r="O577" s="58"/>
       <c r="P577" s="58"/>
     </row>
-    <row r="578" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C578" s="58"/>
       <c r="E578" s="58"/>
       <c r="F578" s="58"/>
@@ -10315,7 +10423,7 @@
       <c r="O578" s="58"/>
       <c r="P578" s="58"/>
     </row>
-    <row r="579" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C579" s="58"/>
       <c r="E579" s="58"/>
       <c r="F579" s="58"/>
@@ -10330,7 +10438,7 @@
       <c r="O579" s="58"/>
       <c r="P579" s="58"/>
     </row>
-    <row r="580" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C580" s="58"/>
       <c r="E580" s="58"/>
       <c r="F580" s="58"/>
@@ -10345,7 +10453,7 @@
       <c r="O580" s="58"/>
       <c r="P580" s="58"/>
     </row>
-    <row r="581" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C581" s="58"/>
       <c r="E581" s="58"/>
       <c r="F581" s="58"/>
@@ -10360,7 +10468,7 @@
       <c r="O581" s="58"/>
       <c r="P581" s="58"/>
     </row>
-    <row r="582" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C582" s="58"/>
       <c r="E582" s="58"/>
       <c r="F582" s="58"/>
@@ -10375,7 +10483,7 @@
       <c r="O582" s="58"/>
       <c r="P582" s="58"/>
     </row>
-    <row r="583" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C583" s="58"/>
       <c r="E583" s="58"/>
       <c r="F583" s="58"/>
@@ -10390,7 +10498,7 @@
       <c r="O583" s="58"/>
       <c r="P583" s="58"/>
     </row>
-    <row r="584" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C584" s="58"/>
       <c r="E584" s="58"/>
       <c r="F584" s="58"/>
@@ -10405,7 +10513,7 @@
       <c r="O584" s="58"/>
       <c r="P584" s="58"/>
     </row>
-    <row r="585" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C585" s="58"/>
       <c r="E585" s="58"/>
       <c r="F585" s="58"/>
@@ -10420,7 +10528,7 @@
       <c r="O585" s="58"/>
       <c r="P585" s="58"/>
     </row>
-    <row r="586" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C586" s="58"/>
       <c r="E586" s="58"/>
       <c r="F586" s="58"/>
@@ -10435,7 +10543,7 @@
       <c r="O586" s="58"/>
       <c r="P586" s="58"/>
     </row>
-    <row r="587" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C587" s="58"/>
       <c r="E587" s="58"/>
       <c r="F587" s="58"/>
@@ -10450,7 +10558,7 @@
       <c r="O587" s="58"/>
       <c r="P587" s="58"/>
     </row>
-    <row r="588" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C588" s="58"/>
       <c r="E588" s="58"/>
       <c r="F588" s="58"/>
@@ -10465,7 +10573,7 @@
       <c r="O588" s="58"/>
       <c r="P588" s="58"/>
     </row>
-    <row r="589" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C589" s="58"/>
       <c r="E589" s="58"/>
       <c r="F589" s="58"/>
@@ -10480,7 +10588,7 @@
       <c r="O589" s="58"/>
       <c r="P589" s="58"/>
     </row>
-    <row r="590" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C590" s="58"/>
       <c r="E590" s="58"/>
       <c r="F590" s="58"/>
@@ -10495,7 +10603,7 @@
       <c r="O590" s="58"/>
       <c r="P590" s="58"/>
     </row>
-    <row r="591" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C591" s="58"/>
       <c r="E591" s="58"/>
       <c r="F591" s="58"/>
@@ -10510,7 +10618,7 @@
       <c r="O591" s="58"/>
       <c r="P591" s="58"/>
     </row>
-    <row r="592" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C592" s="58"/>
       <c r="E592" s="58"/>
       <c r="F592" s="58"/>
@@ -10525,7 +10633,7 @@
       <c r="O592" s="58"/>
       <c r="P592" s="58"/>
     </row>
-    <row r="593" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C593" s="58"/>
       <c r="E593" s="58"/>
       <c r="F593" s="58"/>
@@ -10540,7 +10648,7 @@
       <c r="O593" s="58"/>
       <c r="P593" s="58"/>
     </row>
-    <row r="594" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C594" s="58"/>
       <c r="E594" s="58"/>
       <c r="F594" s="58"/>
@@ -10555,7 +10663,7 @@
       <c r="O594" s="58"/>
       <c r="P594" s="58"/>
     </row>
-    <row r="595" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C595" s="58"/>
       <c r="E595" s="58"/>
       <c r="F595" s="58"/>
@@ -10570,7 +10678,7 @@
       <c r="O595" s="58"/>
       <c r="P595" s="58"/>
     </row>
-    <row r="596" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C596" s="58"/>
       <c r="E596" s="58"/>
       <c r="F596" s="58"/>
@@ -10585,7 +10693,7 @@
       <c r="O596" s="58"/>
       <c r="P596" s="58"/>
     </row>
-    <row r="597" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C597" s="58"/>
       <c r="E597" s="58"/>
       <c r="F597" s="58"/>
@@ -10600,7 +10708,7 @@
       <c r="O597" s="58"/>
       <c r="P597" s="58"/>
     </row>
-    <row r="598" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C598" s="58"/>
       <c r="E598" s="58"/>
       <c r="F598" s="58"/>
@@ -10615,7 +10723,7 @@
       <c r="O598" s="58"/>
       <c r="P598" s="58"/>
     </row>
-    <row r="599" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C599" s="58"/>
       <c r="E599" s="58"/>
       <c r="F599" s="58"/>
@@ -10630,7 +10738,7 @@
       <c r="O599" s="58"/>
       <c r="P599" s="58"/>
     </row>
-    <row r="600" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C600" s="58"/>
       <c r="E600" s="58"/>
       <c r="F600" s="58"/>
@@ -10645,7 +10753,7 @@
       <c r="O600" s="58"/>
       <c r="P600" s="58"/>
     </row>
-    <row r="601" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C601" s="58"/>
       <c r="E601" s="58"/>
       <c r="F601" s="58"/>
@@ -10660,7 +10768,7 @@
       <c r="O601" s="58"/>
       <c r="P601" s="58"/>
     </row>
-    <row r="602" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C602" s="58"/>
       <c r="E602" s="58"/>
       <c r="F602" s="58"/>
@@ -10675,7 +10783,7 @@
       <c r="O602" s="58"/>
       <c r="P602" s="58"/>
     </row>
-    <row r="603" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C603" s="58"/>
       <c r="E603" s="58"/>
       <c r="F603" s="58"/>
@@ -10690,7 +10798,7 @@
       <c r="O603" s="58"/>
       <c r="P603" s="58"/>
     </row>
-    <row r="604" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C604" s="58"/>
       <c r="E604" s="58"/>
       <c r="F604" s="58"/>
@@ -10705,7 +10813,7 @@
       <c r="O604" s="58"/>
       <c r="P604" s="58"/>
     </row>
-    <row r="605" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C605" s="58"/>
       <c r="E605" s="58"/>
       <c r="F605" s="58"/>
@@ -10720,7 +10828,7 @@
       <c r="O605" s="58"/>
       <c r="P605" s="58"/>
     </row>
-    <row r="606" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C606" s="58"/>
       <c r="E606" s="58"/>
       <c r="F606" s="58"/>
@@ -10735,7 +10843,7 @@
       <c r="O606" s="58"/>
       <c r="P606" s="58"/>
     </row>
-    <row r="607" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C607" s="58"/>
       <c r="E607" s="58"/>
       <c r="F607" s="58"/>
@@ -10750,7 +10858,7 @@
       <c r="O607" s="58"/>
       <c r="P607" s="58"/>
     </row>
-    <row r="608" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C608" s="58"/>
       <c r="E608" s="58"/>
       <c r="F608" s="58"/>
@@ -10765,7 +10873,7 @@
       <c r="O608" s="58"/>
       <c r="P608" s="58"/>
     </row>
-    <row r="609" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C609" s="58"/>
       <c r="E609" s="58"/>
       <c r="F609" s="58"/>
@@ -10780,7 +10888,7 @@
       <c r="O609" s="58"/>
       <c r="P609" s="58"/>
     </row>
-    <row r="610" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C610" s="58"/>
       <c r="E610" s="58"/>
       <c r="F610" s="58"/>
@@ -10795,7 +10903,7 @@
       <c r="O610" s="58"/>
       <c r="P610" s="58"/>
     </row>
-    <row r="611" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C611" s="58"/>
       <c r="E611" s="58"/>
       <c r="F611" s="58"/>
@@ -10810,7 +10918,7 @@
       <c r="O611" s="58"/>
       <c r="P611" s="58"/>
     </row>
-    <row r="612" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C612" s="58"/>
       <c r="E612" s="58"/>
       <c r="F612" s="58"/>
@@ -10825,7 +10933,7 @@
       <c r="O612" s="58"/>
       <c r="P612" s="58"/>
     </row>
-    <row r="613" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C613" s="58"/>
       <c r="E613" s="58"/>
       <c r="F613" s="58"/>
@@ -10840,7 +10948,7 @@
       <c r="O613" s="58"/>
       <c r="P613" s="58"/>
     </row>
-    <row r="614" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C614" s="58"/>
       <c r="E614" s="58"/>
       <c r="F614" s="58"/>
@@ -10855,7 +10963,7 @@
       <c r="O614" s="58"/>
       <c r="P614" s="58"/>
     </row>
-    <row r="615" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C615" s="58"/>
       <c r="E615" s="58"/>
       <c r="F615" s="58"/>
@@ -10870,7 +10978,7 @@
       <c r="O615" s="58"/>
       <c r="P615" s="58"/>
     </row>
-    <row r="616" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C616" s="58"/>
       <c r="E616" s="58"/>
       <c r="F616" s="58"/>
@@ -10885,7 +10993,7 @@
       <c r="O616" s="58"/>
       <c r="P616" s="58"/>
     </row>
-    <row r="617" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C617" s="58"/>
       <c r="E617" s="58"/>
       <c r="F617" s="58"/>
@@ -10900,7 +11008,7 @@
       <c r="O617" s="58"/>
       <c r="P617" s="58"/>
     </row>
-    <row r="618" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C618" s="58"/>
       <c r="E618" s="58"/>
       <c r="F618" s="58"/>
@@ -10915,7 +11023,7 @@
       <c r="O618" s="58"/>
       <c r="P618" s="58"/>
     </row>
-    <row r="619" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C619" s="58"/>
       <c r="E619" s="58"/>
       <c r="F619" s="58"/>
@@ -10930,7 +11038,7 @@
       <c r="O619" s="58"/>
       <c r="P619" s="58"/>
     </row>
-    <row r="620" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C620" s="58"/>
       <c r="E620" s="58"/>
       <c r="F620" s="58"/>
@@ -10945,7 +11053,7 @@
       <c r="O620" s="58"/>
       <c r="P620" s="58"/>
     </row>
-    <row r="621" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C621" s="58"/>
       <c r="E621" s="58"/>
       <c r="F621" s="58"/>
@@ -10960,7 +11068,7 @@
       <c r="O621" s="58"/>
       <c r="P621" s="58"/>
     </row>
-    <row r="622" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C622" s="58"/>
       <c r="E622" s="58"/>
       <c r="F622" s="58"/>
@@ -10975,7 +11083,7 @@
       <c r="O622" s="58"/>
       <c r="P622" s="58"/>
     </row>
-    <row r="623" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C623" s="58"/>
       <c r="E623" s="58"/>
       <c r="F623" s="58"/>
@@ -10990,7 +11098,7 @@
       <c r="O623" s="58"/>
       <c r="P623" s="58"/>
     </row>
-    <row r="624" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C624" s="58"/>
       <c r="E624" s="58"/>
       <c r="F624" s="58"/>
@@ -11005,7 +11113,7 @@
       <c r="O624" s="58"/>
       <c r="P624" s="58"/>
     </row>
-    <row r="625" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C625" s="58"/>
       <c r="E625" s="58"/>
       <c r="F625" s="58"/>
@@ -11020,7 +11128,7 @@
       <c r="O625" s="58"/>
       <c r="P625" s="58"/>
     </row>
-    <row r="626" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C626" s="58"/>
       <c r="E626" s="58"/>
       <c r="F626" s="58"/>
@@ -11035,7 +11143,7 @@
       <c r="O626" s="58"/>
       <c r="P626" s="58"/>
     </row>
-    <row r="627" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C627" s="58"/>
       <c r="E627" s="58"/>
       <c r="F627" s="58"/>
@@ -11050,7 +11158,7 @@
       <c r="O627" s="58"/>
       <c r="P627" s="58"/>
     </row>
-    <row r="628" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C628" s="58"/>
       <c r="E628" s="58"/>
       <c r="F628" s="58"/>
@@ -11065,7 +11173,7 @@
       <c r="O628" s="58"/>
       <c r="P628" s="58"/>
     </row>
-    <row r="629" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C629" s="58"/>
       <c r="E629" s="58"/>
       <c r="F629" s="58"/>
@@ -11080,7 +11188,7 @@
       <c r="O629" s="58"/>
       <c r="P629" s="58"/>
     </row>
-    <row r="630" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C630" s="58"/>
       <c r="E630" s="58"/>
       <c r="F630" s="58"/>
@@ -11095,7 +11203,7 @@
       <c r="O630" s="58"/>
       <c r="P630" s="58"/>
     </row>
-    <row r="631" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C631" s="58"/>
       <c r="E631" s="58"/>
       <c r="F631" s="58"/>
@@ -11110,7 +11218,7 @@
       <c r="O631" s="58"/>
       <c r="P631" s="58"/>
     </row>
-    <row r="632" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C632" s="58"/>
       <c r="E632" s="58"/>
       <c r="F632" s="58"/>
@@ -11125,7 +11233,7 @@
       <c r="O632" s="58"/>
       <c r="P632" s="58"/>
     </row>
-    <row r="633" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C633" s="58"/>
       <c r="E633" s="58"/>
       <c r="F633" s="58"/>
@@ -11140,7 +11248,7 @@
       <c r="O633" s="58"/>
       <c r="P633" s="58"/>
     </row>
-    <row r="634" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C634" s="58"/>
       <c r="E634" s="58"/>
       <c r="F634" s="58"/>
@@ -11155,7 +11263,7 @@
       <c r="O634" s="58"/>
       <c r="P634" s="58"/>
     </row>
-    <row r="635" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C635" s="58"/>
       <c r="E635" s="58"/>
       <c r="F635" s="58"/>
@@ -11170,7 +11278,7 @@
       <c r="O635" s="58"/>
       <c r="P635" s="58"/>
     </row>
-    <row r="636" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C636" s="58"/>
       <c r="E636" s="58"/>
       <c r="F636" s="58"/>
@@ -11185,7 +11293,7 @@
       <c r="O636" s="58"/>
       <c r="P636" s="58"/>
     </row>
-    <row r="637" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C637" s="58"/>
       <c r="E637" s="58"/>
       <c r="F637" s="58"/>
@@ -11200,7 +11308,7 @@
       <c r="O637" s="58"/>
       <c r="P637" s="58"/>
     </row>
-    <row r="638" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C638" s="58"/>
       <c r="E638" s="58"/>
       <c r="F638" s="58"/>
@@ -11215,7 +11323,7 @@
       <c r="O638" s="58"/>
       <c r="P638" s="58"/>
     </row>
-    <row r="639" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C639" s="58"/>
       <c r="E639" s="58"/>
       <c r="F639" s="58"/>
@@ -11230,7 +11338,7 @@
       <c r="O639" s="58"/>
       <c r="P639" s="58"/>
     </row>
-    <row r="640" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C640" s="58"/>
       <c r="E640" s="58"/>
       <c r="F640" s="58"/>
@@ -11245,7 +11353,7 @@
       <c r="O640" s="58"/>
       <c r="P640" s="58"/>
     </row>
-    <row r="641" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C641" s="58"/>
       <c r="E641" s="58"/>
       <c r="F641" s="58"/>
@@ -11260,7 +11368,7 @@
       <c r="O641" s="58"/>
       <c r="P641" s="58"/>
     </row>
-    <row r="642" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C642" s="58"/>
       <c r="E642" s="58"/>
       <c r="F642" s="58"/>
@@ -11275,7 +11383,7 @@
       <c r="O642" s="58"/>
       <c r="P642" s="58"/>
     </row>
-    <row r="643" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C643" s="58"/>
       <c r="E643" s="58"/>
       <c r="F643" s="58"/>
@@ -11290,7 +11398,7 @@
       <c r="O643" s="58"/>
       <c r="P643" s="58"/>
     </row>
-    <row r="644" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C644" s="58"/>
       <c r="E644" s="58"/>
       <c r="F644" s="58"/>
@@ -11305,7 +11413,7 @@
       <c r="O644" s="58"/>
       <c r="P644" s="58"/>
     </row>
-    <row r="645" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C645" s="58"/>
       <c r="E645" s="58"/>
       <c r="F645" s="58"/>
@@ -11320,7 +11428,7 @@
       <c r="O645" s="58"/>
       <c r="P645" s="58"/>
     </row>
-    <row r="646" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C646" s="58"/>
       <c r="E646" s="58"/>
       <c r="F646" s="58"/>
@@ -11335,7 +11443,7 @@
       <c r="O646" s="58"/>
       <c r="P646" s="58"/>
     </row>
-    <row r="647" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C647" s="58"/>
       <c r="E647" s="58"/>
       <c r="F647" s="58"/>
@@ -11350,7 +11458,7 @@
       <c r="O647" s="58"/>
       <c r="P647" s="58"/>
     </row>
-    <row r="648" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C648" s="58"/>
       <c r="E648" s="58"/>
       <c r="F648" s="58"/>
@@ -11365,7 +11473,7 @@
       <c r="O648" s="58"/>
       <c r="P648" s="58"/>
     </row>
-    <row r="649" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C649" s="58"/>
       <c r="E649" s="58"/>
       <c r="F649" s="58"/>
@@ -11380,7 +11488,7 @@
       <c r="O649" s="58"/>
       <c r="P649" s="58"/>
     </row>
-    <row r="650" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C650" s="58"/>
       <c r="E650" s="58"/>
       <c r="F650" s="58"/>
@@ -11395,7 +11503,7 @@
       <c r="O650" s="58"/>
       <c r="P650" s="58"/>
     </row>
-    <row r="651" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C651" s="58"/>
       <c r="E651" s="58"/>
       <c r="F651" s="58"/>
@@ -11410,7 +11518,7 @@
       <c r="O651" s="58"/>
       <c r="P651" s="58"/>
     </row>
-    <row r="652" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C652" s="58"/>
       <c r="E652" s="58"/>
       <c r="F652" s="58"/>
@@ -11425,7 +11533,7 @@
       <c r="O652" s="58"/>
       <c r="P652" s="58"/>
     </row>
-    <row r="653" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C653" s="58"/>
       <c r="E653" s="58"/>
       <c r="F653" s="58"/>
@@ -11440,7 +11548,7 @@
       <c r="O653" s="58"/>
       <c r="P653" s="58"/>
     </row>
-    <row r="654" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C654" s="58"/>
       <c r="E654" s="58"/>
       <c r="F654" s="58"/>
@@ -11455,7 +11563,7 @@
       <c r="O654" s="58"/>
       <c r="P654" s="58"/>
     </row>
-    <row r="655" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C655" s="58"/>
       <c r="E655" s="58"/>
       <c r="F655" s="58"/>
@@ -11470,7 +11578,7 @@
       <c r="O655" s="58"/>
       <c r="P655" s="58"/>
     </row>
-    <row r="656" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C656" s="58"/>
       <c r="E656" s="58"/>
       <c r="F656" s="58"/>
@@ -11485,7 +11593,7 @@
       <c r="O656" s="58"/>
       <c r="P656" s="58"/>
     </row>
-    <row r="657" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C657" s="58"/>
       <c r="E657" s="58"/>
       <c r="F657" s="58"/>
@@ -11500,7 +11608,7 @@
       <c r="O657" s="58"/>
       <c r="P657" s="58"/>
     </row>
-    <row r="658" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C658" s="58"/>
       <c r="E658" s="58"/>
       <c r="F658" s="58"/>
@@ -11515,7 +11623,7 @@
       <c r="O658" s="58"/>
       <c r="P658" s="58"/>
     </row>
-    <row r="659" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C659" s="58"/>
       <c r="E659" s="58"/>
       <c r="F659" s="58"/>
@@ -11530,7 +11638,7 @@
       <c r="O659" s="58"/>
       <c r="P659" s="58"/>
     </row>
-    <row r="660" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C660" s="58"/>
       <c r="E660" s="58"/>
       <c r="F660" s="58"/>
@@ -11545,7 +11653,7 @@
       <c r="O660" s="58"/>
       <c r="P660" s="58"/>
     </row>
-    <row r="661" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C661" s="58"/>
       <c r="E661" s="58"/>
       <c r="F661" s="58"/>
@@ -11560,7 +11668,7 @@
       <c r="O661" s="58"/>
       <c r="P661" s="58"/>
     </row>
-    <row r="662" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C662" s="58"/>
       <c r="E662" s="58"/>
       <c r="F662" s="58"/>
@@ -11575,7 +11683,7 @@
       <c r="O662" s="58"/>
       <c r="P662" s="58"/>
     </row>
-    <row r="663" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C663" s="58"/>
       <c r="E663" s="58"/>
       <c r="F663" s="58"/>
@@ -11590,7 +11698,7 @@
       <c r="O663" s="58"/>
       <c r="P663" s="58"/>
     </row>
-    <row r="664" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C664" s="58"/>
       <c r="E664" s="58"/>
       <c r="F664" s="58"/>
@@ -11605,7 +11713,7 @@
       <c r="O664" s="58"/>
       <c r="P664" s="58"/>
     </row>
-    <row r="665" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C665" s="58"/>
       <c r="E665" s="58"/>
       <c r="F665" s="58"/>
@@ -11620,7 +11728,7 @@
       <c r="O665" s="58"/>
       <c r="P665" s="58"/>
     </row>
-    <row r="666" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C666" s="58"/>
       <c r="E666" s="58"/>
       <c r="F666" s="58"/>
@@ -11635,7 +11743,7 @@
       <c r="O666" s="58"/>
       <c r="P666" s="58"/>
     </row>
-    <row r="667" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C667" s="58"/>
       <c r="E667" s="58"/>
       <c r="F667" s="58"/>
@@ -11650,7 +11758,7 @@
       <c r="O667" s="58"/>
       <c r="P667" s="58"/>
     </row>
-    <row r="668" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C668" s="58"/>
       <c r="E668" s="58"/>
       <c r="F668" s="58"/>
@@ -11665,7 +11773,7 @@
       <c r="O668" s="58"/>
       <c r="P668" s="58"/>
     </row>
-    <row r="669" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C669" s="58"/>
       <c r="E669" s="58"/>
       <c r="F669" s="58"/>
@@ -11680,7 +11788,7 @@
       <c r="O669" s="58"/>
       <c r="P669" s="58"/>
     </row>
-    <row r="670" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C670" s="58"/>
       <c r="E670" s="58"/>
       <c r="F670" s="58"/>
@@ -11695,7 +11803,7 @@
       <c r="O670" s="58"/>
       <c r="P670" s="58"/>
     </row>
-    <row r="671" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C671" s="58"/>
       <c r="E671" s="58"/>
       <c r="F671" s="58"/>
@@ -11710,7 +11818,7 @@
       <c r="O671" s="58"/>
       <c r="P671" s="58"/>
     </row>
-    <row r="672" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C672" s="58"/>
       <c r="E672" s="58"/>
       <c r="F672" s="58"/>
@@ -11725,7 +11833,7 @@
       <c r="O672" s="58"/>
       <c r="P672" s="58"/>
     </row>
-    <row r="673" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C673" s="58"/>
       <c r="E673" s="58"/>
       <c r="F673" s="58"/>
@@ -11740,7 +11848,7 @@
       <c r="O673" s="58"/>
       <c r="P673" s="58"/>
     </row>
-    <row r="674" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C674" s="58"/>
       <c r="E674" s="58"/>
       <c r="F674" s="58"/>
@@ -11755,7 +11863,7 @@
       <c r="O674" s="58"/>
       <c r="P674" s="58"/>
     </row>
-    <row r="675" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C675" s="58"/>
       <c r="E675" s="58"/>
       <c r="F675" s="58"/>
@@ -11770,7 +11878,7 @@
       <c r="O675" s="58"/>
       <c r="P675" s="58"/>
     </row>
-    <row r="676" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C676" s="58"/>
       <c r="E676" s="58"/>
       <c r="F676" s="58"/>
@@ -11785,7 +11893,7 @@
       <c r="O676" s="58"/>
       <c r="P676" s="58"/>
     </row>
-    <row r="677" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C677" s="58"/>
       <c r="E677" s="58"/>
       <c r="F677" s="58"/>
@@ -11800,7 +11908,7 @@
       <c r="O677" s="58"/>
       <c r="P677" s="58"/>
     </row>
-    <row r="678" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C678" s="58"/>
       <c r="E678" s="58"/>
       <c r="F678" s="58"/>
@@ -11815,7 +11923,7 @@
       <c r="O678" s="58"/>
       <c r="P678" s="58"/>
     </row>
-    <row r="679" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C679" s="58"/>
       <c r="E679" s="58"/>
       <c r="F679" s="58"/>
@@ -11830,7 +11938,7 @@
       <c r="O679" s="58"/>
       <c r="P679" s="58"/>
     </row>
-    <row r="680" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C680" s="58"/>
       <c r="E680" s="58"/>
       <c r="F680" s="58"/>
@@ -11845,7 +11953,7 @@
       <c r="O680" s="58"/>
       <c r="P680" s="58"/>
     </row>
-    <row r="681" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C681" s="58"/>
       <c r="E681" s="58"/>
       <c r="F681" s="58"/>
@@ -11860,7 +11968,7 @@
       <c r="O681" s="58"/>
       <c r="P681" s="58"/>
     </row>
-    <row r="682" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C682" s="58"/>
       <c r="E682" s="58"/>
       <c r="F682" s="58"/>
@@ -11875,7 +11983,7 @@
       <c r="O682" s="58"/>
       <c r="P682" s="58"/>
     </row>
-    <row r="683" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C683" s="58"/>
       <c r="E683" s="58"/>
       <c r="F683" s="58"/>
@@ -11890,7 +11998,7 @@
       <c r="O683" s="58"/>
       <c r="P683" s="58"/>
     </row>
-    <row r="684" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C684" s="58"/>
       <c r="E684" s="58"/>
       <c r="F684" s="58"/>
@@ -11905,7 +12013,7 @@
       <c r="O684" s="58"/>
       <c r="P684" s="58"/>
     </row>
-    <row r="685" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C685" s="58"/>
       <c r="E685" s="58"/>
       <c r="F685" s="58"/>
@@ -11920,7 +12028,7 @@
       <c r="O685" s="58"/>
       <c r="P685" s="58"/>
     </row>
-    <row r="686" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C686" s="58"/>
       <c r="E686" s="58"/>
       <c r="F686" s="58"/>
@@ -11935,7 +12043,7 @@
       <c r="O686" s="58"/>
       <c r="P686" s="58"/>
     </row>
-    <row r="687" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C687" s="58"/>
       <c r="E687" s="58"/>
       <c r="F687" s="58"/>
@@ -11950,7 +12058,7 @@
       <c r="O687" s="58"/>
       <c r="P687" s="58"/>
     </row>
-    <row r="688" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C688" s="58"/>
       <c r="E688" s="58"/>
       <c r="F688" s="58"/>
@@ -11965,7 +12073,7 @@
       <c r="O688" s="58"/>
       <c r="P688" s="58"/>
     </row>
-    <row r="689" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C689" s="58"/>
       <c r="E689" s="58"/>
       <c r="F689" s="58"/>
@@ -11980,7 +12088,7 @@
       <c r="O689" s="58"/>
       <c r="P689" s="58"/>
     </row>
-    <row r="690" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C690" s="58"/>
       <c r="E690" s="58"/>
       <c r="F690" s="58"/>
@@ -11995,7 +12103,7 @@
       <c r="O690" s="58"/>
       <c r="P690" s="58"/>
     </row>
-    <row r="691" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C691" s="58"/>
       <c r="E691" s="58"/>
       <c r="F691" s="58"/>
@@ -12010,7 +12118,7 @@
       <c r="O691" s="58"/>
       <c r="P691" s="58"/>
     </row>
-    <row r="692" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C692" s="58"/>
       <c r="E692" s="58"/>
       <c r="F692" s="58"/>
@@ -12025,7 +12133,7 @@
       <c r="O692" s="58"/>
       <c r="P692" s="58"/>
     </row>
-    <row r="693" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C693" s="58"/>
       <c r="E693" s="58"/>
       <c r="F693" s="58"/>
@@ -12040,7 +12148,7 @@
       <c r="O693" s="58"/>
       <c r="P693" s="58"/>
     </row>
-    <row r="694" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C694" s="58"/>
       <c r="E694" s="58"/>
       <c r="F694" s="58"/>
@@ -12055,7 +12163,7 @@
       <c r="O694" s="58"/>
       <c r="P694" s="58"/>
     </row>
-    <row r="695" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C695" s="58"/>
       <c r="E695" s="58"/>
       <c r="F695" s="58"/>
@@ -12070,7 +12178,7 @@
       <c r="O695" s="58"/>
       <c r="P695" s="58"/>
     </row>
-    <row r="696" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C696" s="58"/>
       <c r="E696" s="58"/>
       <c r="F696" s="58"/>
@@ -12085,7 +12193,7 @@
       <c r="O696" s="58"/>
       <c r="P696" s="58"/>
     </row>
-    <row r="697" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C697" s="58"/>
       <c r="E697" s="58"/>
       <c r="F697" s="58"/>
@@ -12100,7 +12208,7 @@
       <c r="O697" s="58"/>
       <c r="P697" s="58"/>
     </row>
-    <row r="698" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C698" s="58"/>
       <c r="E698" s="58"/>
       <c r="F698" s="58"/>
@@ -12115,7 +12223,7 @@
       <c r="O698" s="58"/>
       <c r="P698" s="58"/>
     </row>
-    <row r="699" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C699" s="58"/>
       <c r="E699" s="58"/>
       <c r="F699" s="58"/>
@@ -12130,7 +12238,7 @@
       <c r="O699" s="58"/>
       <c r="P699" s="58"/>
     </row>
-    <row r="700" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C700" s="58"/>
       <c r="E700" s="58"/>
       <c r="F700" s="58"/>
@@ -12145,7 +12253,7 @@
       <c r="O700" s="58"/>
       <c r="P700" s="58"/>
     </row>
-    <row r="701" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C701" s="58"/>
       <c r="E701" s="58"/>
       <c r="F701" s="58"/>
@@ -12160,7 +12268,7 @@
       <c r="O701" s="58"/>
       <c r="P701" s="58"/>
     </row>
-    <row r="702" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C702" s="58"/>
       <c r="E702" s="58"/>
       <c r="F702" s="58"/>
@@ -12175,7 +12283,7 @@
       <c r="O702" s="58"/>
       <c r="P702" s="58"/>
     </row>
-    <row r="703" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C703" s="58"/>
       <c r="E703" s="58"/>
       <c r="F703" s="58"/>
@@ -12190,7 +12298,7 @@
       <c r="O703" s="58"/>
       <c r="P703" s="58"/>
     </row>
-    <row r="704" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C704" s="58"/>
       <c r="E704" s="58"/>
       <c r="F704" s="58"/>
@@ -12205,7 +12313,7 @@
       <c r="O704" s="58"/>
       <c r="P704" s="58"/>
     </row>
-    <row r="705" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C705" s="58"/>
       <c r="E705" s="58"/>
       <c r="F705" s="58"/>
@@ -12220,7 +12328,7 @@
       <c r="O705" s="58"/>
       <c r="P705" s="58"/>
     </row>
-    <row r="706" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C706" s="58"/>
       <c r="E706" s="58"/>
       <c r="F706" s="58"/>
@@ -12235,7 +12343,7 @@
       <c r="O706" s="58"/>
       <c r="P706" s="58"/>
     </row>
-    <row r="707" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C707" s="58"/>
       <c r="E707" s="58"/>
       <c r="F707" s="58"/>
@@ -12250,7 +12358,7 @@
       <c r="O707" s="58"/>
       <c r="P707" s="58"/>
     </row>
-    <row r="708" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C708" s="58"/>
       <c r="E708" s="58"/>
       <c r="F708" s="58"/>
@@ -12265,7 +12373,7 @@
       <c r="O708" s="58"/>
       <c r="P708" s="58"/>
     </row>
-    <row r="709" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C709" s="58"/>
       <c r="E709" s="58"/>
       <c r="F709" s="58"/>
@@ -12280,7 +12388,7 @@
       <c r="O709" s="58"/>
       <c r="P709" s="58"/>
     </row>
-    <row r="710" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C710" s="58"/>
       <c r="E710" s="58"/>
       <c r="F710" s="58"/>
@@ -12295,7 +12403,7 @@
       <c r="O710" s="58"/>
       <c r="P710" s="58"/>
     </row>
-    <row r="711" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C711" s="58"/>
       <c r="E711" s="58"/>
       <c r="F711" s="58"/>
@@ -12310,7 +12418,7 @@
       <c r="O711" s="58"/>
       <c r="P711" s="58"/>
     </row>
-    <row r="712" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C712" s="58"/>
       <c r="E712" s="58"/>
       <c r="F712" s="58"/>
@@ -12325,7 +12433,7 @@
       <c r="O712" s="58"/>
       <c r="P712" s="58"/>
     </row>
-    <row r="713" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C713" s="58"/>
       <c r="E713" s="58"/>
       <c r="F713" s="58"/>
@@ -12340,7 +12448,7 @@
       <c r="O713" s="58"/>
       <c r="P713" s="58"/>
     </row>
-    <row r="714" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C714" s="58"/>
       <c r="E714" s="58"/>
       <c r="F714" s="58"/>
@@ -12355,7 +12463,7 @@
       <c r="O714" s="58"/>
       <c r="P714" s="58"/>
     </row>
-    <row r="715" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C715" s="58"/>
       <c r="E715" s="58"/>
       <c r="F715" s="58"/>
@@ -12370,7 +12478,7 @@
       <c r="O715" s="58"/>
       <c r="P715" s="58"/>
     </row>
-    <row r="716" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C716" s="58"/>
       <c r="E716" s="58"/>
       <c r="F716" s="58"/>
@@ -12385,7 +12493,7 @@
       <c r="O716" s="58"/>
       <c r="P716" s="58"/>
     </row>
-    <row r="717" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C717" s="58"/>
       <c r="E717" s="58"/>
       <c r="F717" s="58"/>
@@ -12400,7 +12508,7 @@
       <c r="O717" s="58"/>
       <c r="P717" s="58"/>
     </row>
-    <row r="718" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C718" s="58"/>
       <c r="E718" s="58"/>
       <c r="F718" s="58"/>
@@ -12415,7 +12523,7 @@
       <c r="O718" s="58"/>
       <c r="P718" s="58"/>
     </row>
-    <row r="719" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C719" s="58"/>
       <c r="E719" s="58"/>
       <c r="F719" s="58"/>
@@ -12430,7 +12538,7 @@
       <c r="O719" s="58"/>
       <c r="P719" s="58"/>
     </row>
-    <row r="720" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C720" s="58"/>
       <c r="E720" s="58"/>
       <c r="F720" s="58"/>
@@ -12445,7 +12553,7 @@
       <c r="O720" s="58"/>
       <c r="P720" s="58"/>
     </row>
-    <row r="721" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C721" s="58"/>
       <c r="E721" s="58"/>
       <c r="F721" s="58"/>
@@ -12460,7 +12568,7 @@
       <c r="O721" s="58"/>
       <c r="P721" s="58"/>
     </row>
-    <row r="722" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C722" s="58"/>
       <c r="E722" s="58"/>
       <c r="F722" s="58"/>
@@ -12475,7 +12583,7 @@
       <c r="O722" s="58"/>
       <c r="P722" s="58"/>
     </row>
-    <row r="723" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C723" s="58"/>
       <c r="E723" s="58"/>
       <c r="F723" s="58"/>
@@ -12490,7 +12598,7 @@
       <c r="O723" s="58"/>
       <c r="P723" s="58"/>
     </row>
-    <row r="724" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C724" s="58"/>
       <c r="E724" s="58"/>
       <c r="F724" s="58"/>
@@ -12505,7 +12613,7 @@
       <c r="O724" s="58"/>
       <c r="P724" s="58"/>
     </row>
-    <row r="725" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C725" s="58"/>
       <c r="E725" s="58"/>
       <c r="F725" s="58"/>
@@ -12520,7 +12628,7 @@
       <c r="O725" s="58"/>
       <c r="P725" s="58"/>
     </row>
-    <row r="726" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C726" s="58"/>
       <c r="E726" s="58"/>
       <c r="F726" s="58"/>
@@ -12535,7 +12643,7 @@
       <c r="O726" s="58"/>
       <c r="P726" s="58"/>
     </row>
-    <row r="727" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C727" s="58"/>
       <c r="E727" s="58"/>
       <c r="F727" s="58"/>
@@ -12550,7 +12658,7 @@
       <c r="O727" s="58"/>
       <c r="P727" s="58"/>
     </row>
-    <row r="728" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C728" s="58"/>
       <c r="E728" s="58"/>
       <c r="F728" s="58"/>
@@ -12565,7 +12673,7 @@
       <c r="O728" s="58"/>
       <c r="P728" s="58"/>
     </row>
-    <row r="729" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C729" s="58"/>
       <c r="E729" s="58"/>
       <c r="F729" s="58"/>
@@ -12580,7 +12688,7 @@
       <c r="O729" s="58"/>
       <c r="P729" s="58"/>
     </row>
-    <row r="730" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C730" s="58"/>
       <c r="E730" s="58"/>
       <c r="F730" s="58"/>
@@ -12595,7 +12703,7 @@
       <c r="O730" s="58"/>
       <c r="P730" s="58"/>
     </row>
-    <row r="731" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C731" s="58"/>
       <c r="E731" s="58"/>
       <c r="F731" s="58"/>
@@ -12610,7 +12718,7 @@
       <c r="O731" s="58"/>
       <c r="P731" s="58"/>
     </row>
-    <row r="732" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C732" s="58"/>
       <c r="E732" s="58"/>
       <c r="F732" s="58"/>
@@ -12625,7 +12733,7 @@
       <c r="O732" s="58"/>
       <c r="P732" s="58"/>
     </row>
-    <row r="733" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C733" s="58"/>
       <c r="E733" s="58"/>
       <c r="F733" s="58"/>
@@ -12640,7 +12748,7 @@
       <c r="O733" s="58"/>
       <c r="P733" s="58"/>
     </row>
-    <row r="734" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C734" s="58"/>
       <c r="E734" s="58"/>
       <c r="F734" s="58"/>
@@ -12655,7 +12763,7 @@
       <c r="O734" s="58"/>
       <c r="P734" s="58"/>
     </row>
-    <row r="735" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C735" s="58"/>
       <c r="E735" s="58"/>
       <c r="F735" s="58"/>
@@ -12670,7 +12778,7 @@
       <c r="O735" s="58"/>
       <c r="P735" s="58"/>
     </row>
-    <row r="736" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C736" s="58"/>
       <c r="E736" s="58"/>
       <c r="F736" s="58"/>
@@ -12685,7 +12793,7 @@
       <c r="O736" s="58"/>
       <c r="P736" s="58"/>
     </row>
-    <row r="737" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C737" s="58"/>
       <c r="E737" s="58"/>
       <c r="F737" s="58"/>
@@ -12700,7 +12808,7 @@
       <c r="O737" s="58"/>
       <c r="P737" s="58"/>
     </row>
-    <row r="738" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C738" s="58"/>
       <c r="E738" s="58"/>
       <c r="F738" s="58"/>
@@ -12715,7 +12823,7 @@
       <c r="O738" s="58"/>
       <c r="P738" s="58"/>
     </row>
-    <row r="739" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C739" s="58"/>
       <c r="E739" s="58"/>
       <c r="F739" s="58"/>
@@ -12730,7 +12838,7 @@
       <c r="O739" s="58"/>
       <c r="P739" s="58"/>
     </row>
-    <row r="740" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C740" s="58"/>
       <c r="E740" s="58"/>
       <c r="F740" s="58"/>
@@ -12745,7 +12853,7 @@
       <c r="O740" s="58"/>
       <c r="P740" s="58"/>
     </row>
-    <row r="741" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C741" s="58"/>
       <c r="E741" s="58"/>
       <c r="F741" s="58"/>
@@ -12760,7 +12868,7 @@
       <c r="O741" s="58"/>
       <c r="P741" s="58"/>
     </row>
-    <row r="742" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C742" s="58"/>
       <c r="E742" s="58"/>
       <c r="F742" s="58"/>
@@ -12775,7 +12883,7 @@
       <c r="O742" s="58"/>
       <c r="P742" s="58"/>
     </row>
-    <row r="743" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C743" s="58"/>
       <c r="E743" s="58"/>
       <c r="F743" s="58"/>
@@ -12790,7 +12898,7 @@
       <c r="O743" s="58"/>
       <c r="P743" s="58"/>
     </row>
-    <row r="744" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C744" s="58"/>
       <c r="E744" s="58"/>
       <c r="F744" s="58"/>
@@ -12805,7 +12913,7 @@
       <c r="O744" s="58"/>
       <c r="P744" s="58"/>
     </row>
-    <row r="745" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C745" s="58"/>
       <c r="E745" s="58"/>
       <c r="F745" s="58"/>
@@ -12820,7 +12928,7 @@
       <c r="O745" s="58"/>
       <c r="P745" s="58"/>
     </row>
-    <row r="746" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C746" s="58"/>
       <c r="E746" s="58"/>
       <c r="F746" s="58"/>
@@ -12835,7 +12943,7 @@
       <c r="O746" s="58"/>
       <c r="P746" s="58"/>
     </row>
-    <row r="747" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C747" s="58"/>
       <c r="E747" s="58"/>
       <c r="F747" s="58"/>
@@ -12850,7 +12958,7 @@
       <c r="O747" s="58"/>
       <c r="P747" s="58"/>
     </row>
-    <row r="748" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C748" s="58"/>
       <c r="E748" s="58"/>
       <c r="F748" s="58"/>
@@ -12865,7 +12973,7 @@
       <c r="O748" s="58"/>
       <c r="P748" s="58"/>
     </row>
-    <row r="749" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C749" s="58"/>
       <c r="E749" s="58"/>
       <c r="F749" s="58"/>
@@ -12880,7 +12988,7 @@
       <c r="O749" s="58"/>
       <c r="P749" s="58"/>
     </row>
-    <row r="750" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C750" s="58"/>
       <c r="E750" s="58"/>
       <c r="F750" s="58"/>
@@ -12895,7 +13003,7 @@
       <c r="O750" s="58"/>
       <c r="P750" s="58"/>
     </row>
-    <row r="751" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C751" s="58"/>
       <c r="E751" s="58"/>
       <c r="F751" s="58"/>
@@ -12910,7 +13018,7 @@
       <c r="O751" s="58"/>
       <c r="P751" s="58"/>
     </row>
-    <row r="752" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C752" s="58"/>
       <c r="E752" s="58"/>
       <c r="F752" s="58"/>
@@ -12925,7 +13033,7 @@
       <c r="O752" s="58"/>
       <c r="P752" s="58"/>
     </row>
-    <row r="753" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C753" s="58"/>
       <c r="E753" s="58"/>
       <c r="F753" s="58"/>
@@ -12940,7 +13048,7 @@
       <c r="O753" s="58"/>
       <c r="P753" s="58"/>
     </row>
-    <row r="754" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C754" s="58"/>
       <c r="E754" s="58"/>
       <c r="F754" s="58"/>
@@ -12955,7 +13063,7 @@
       <c r="O754" s="58"/>
       <c r="P754" s="58"/>
     </row>
-    <row r="755" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C755" s="58"/>
       <c r="E755" s="58"/>
       <c r="F755" s="58"/>
@@ -12970,7 +13078,7 @@
       <c r="O755" s="58"/>
       <c r="P755" s="58"/>
     </row>
-    <row r="756" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C756" s="58"/>
       <c r="E756" s="58"/>
       <c r="F756" s="58"/>
@@ -12985,7 +13093,7 @@
       <c r="O756" s="58"/>
       <c r="P756" s="58"/>
     </row>
-    <row r="757" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C757" s="58"/>
       <c r="E757" s="58"/>
       <c r="F757" s="58"/>
@@ -13000,7 +13108,7 @@
       <c r="O757" s="58"/>
       <c r="P757" s="58"/>
     </row>
-    <row r="758" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C758" s="58"/>
       <c r="E758" s="58"/>
       <c r="F758" s="58"/>
@@ -13015,7 +13123,7 @@
       <c r="O758" s="58"/>
       <c r="P758" s="58"/>
     </row>
-    <row r="759" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C759" s="58"/>
       <c r="E759" s="58"/>
       <c r="F759" s="58"/>
@@ -13030,7 +13138,7 @@
       <c r="O759" s="58"/>
       <c r="P759" s="58"/>
     </row>
-    <row r="760" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C760" s="58"/>
       <c r="E760" s="58"/>
       <c r="F760" s="58"/>
@@ -13045,7 +13153,7 @@
       <c r="O760" s="58"/>
       <c r="P760" s="58"/>
     </row>
-    <row r="761" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C761" s="58"/>
       <c r="E761" s="58"/>
       <c r="F761" s="58"/>
@@ -13060,7 +13168,7 @@
       <c r="O761" s="58"/>
       <c r="P761" s="58"/>
     </row>
-    <row r="762" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C762" s="58"/>
       <c r="E762" s="58"/>
       <c r="F762" s="58"/>
@@ -13075,7 +13183,7 @@
       <c r="O762" s="58"/>
       <c r="P762" s="58"/>
     </row>
-    <row r="763" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C763" s="58"/>
       <c r="E763" s="58"/>
       <c r="F763" s="58"/>
@@ -13090,7 +13198,7 @@
       <c r="O763" s="58"/>
       <c r="P763" s="58"/>
     </row>
-    <row r="764" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C764" s="58"/>
       <c r="E764" s="58"/>
       <c r="F764" s="58"/>
@@ -13105,7 +13213,7 @@
       <c r="O764" s="58"/>
       <c r="P764" s="58"/>
     </row>
-    <row r="765" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C765" s="58"/>
       <c r="E765" s="58"/>
       <c r="F765" s="58"/>
@@ -13120,7 +13228,7 @@
       <c r="O765" s="58"/>
       <c r="P765" s="58"/>
     </row>
-    <row r="766" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C766" s="58"/>
       <c r="E766" s="58"/>
       <c r="F766" s="58"/>
@@ -13135,7 +13243,7 @@
       <c r="O766" s="58"/>
       <c r="P766" s="58"/>
     </row>
-    <row r="767" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C767" s="58"/>
       <c r="E767" s="58"/>
       <c r="F767" s="58"/>
@@ -13150,7 +13258,7 @@
       <c r="O767" s="58"/>
       <c r="P767" s="58"/>
     </row>
-    <row r="768" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C768" s="58"/>
       <c r="E768" s="58"/>
       <c r="F768" s="58"/>
@@ -13165,7 +13273,7 @@
       <c r="O768" s="58"/>
       <c r="P768" s="58"/>
     </row>
-    <row r="769" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C769" s="58"/>
       <c r="E769" s="58"/>
       <c r="F769" s="58"/>
@@ -13180,7 +13288,7 @@
       <c r="O769" s="58"/>
       <c r="P769" s="58"/>
     </row>
-    <row r="770" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C770" s="58"/>
       <c r="E770" s="58"/>
       <c r="F770" s="58"/>
@@ -13195,7 +13303,7 @@
       <c r="O770" s="58"/>
       <c r="P770" s="58"/>
     </row>
-    <row r="771" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C771" s="58"/>
       <c r="E771" s="58"/>
       <c r="F771" s="58"/>
@@ -13210,7 +13318,7 @@
       <c r="O771" s="58"/>
       <c r="P771" s="58"/>
     </row>
-    <row r="772" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C772" s="58"/>
       <c r="E772" s="58"/>
       <c r="F772" s="58"/>
@@ -13225,7 +13333,7 @@
       <c r="O772" s="58"/>
       <c r="P772" s="58"/>
     </row>
-    <row r="773" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C773" s="58"/>
       <c r="E773" s="58"/>
       <c r="F773" s="58"/>
@@ -13240,7 +13348,7 @@
       <c r="O773" s="58"/>
       <c r="P773" s="58"/>
     </row>
-    <row r="774" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C774" s="58"/>
       <c r="E774" s="58"/>
       <c r="F774" s="58"/>
@@ -13255,7 +13363,7 @@
       <c r="O774" s="58"/>
       <c r="P774" s="58"/>
     </row>
-    <row r="775" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C775" s="58"/>
       <c r="E775" s="58"/>
       <c r="F775" s="58"/>
@@ -13270,7 +13378,7 @@
       <c r="O775" s="58"/>
       <c r="P775" s="58"/>
     </row>
-    <row r="776" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C776" s="58"/>
       <c r="E776" s="58"/>
       <c r="F776" s="58"/>
@@ -13285,7 +13393,7 @@
       <c r="O776" s="58"/>
       <c r="P776" s="58"/>
     </row>
-    <row r="777" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C777" s="58"/>
       <c r="E777" s="58"/>
       <c r="F777" s="58"/>
@@ -13300,7 +13408,7 @@
       <c r="O777" s="58"/>
       <c r="P777" s="58"/>
     </row>
-    <row r="778" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C778" s="58"/>
       <c r="E778" s="58"/>
       <c r="F778" s="58"/>
@@ -13315,7 +13423,7 @@
       <c r="O778" s="58"/>
       <c r="P778" s="58"/>
     </row>
-    <row r="779" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C779" s="58"/>
       <c r="E779" s="58"/>
       <c r="F779" s="58"/>
@@ -13330,7 +13438,7 @@
       <c r="O779" s="58"/>
       <c r="P779" s="58"/>
     </row>
-    <row r="780" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C780" s="58"/>
       <c r="E780" s="58"/>
       <c r="F780" s="58"/>
@@ -13345,7 +13453,7 @@
       <c r="O780" s="58"/>
       <c r="P780" s="58"/>
     </row>
-    <row r="781" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C781" s="58"/>
       <c r="E781" s="58"/>
       <c r="F781" s="58"/>
@@ -13360,7 +13468,7 @@
       <c r="O781" s="58"/>
       <c r="P781" s="58"/>
     </row>
-    <row r="782" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C782" s="58"/>
       <c r="E782" s="58"/>
       <c r="F782" s="58"/>
@@ -13375,7 +13483,7 @@
       <c r="O782" s="58"/>
       <c r="P782" s="58"/>
     </row>
-    <row r="783" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C783" s="58"/>
       <c r="E783" s="58"/>
       <c r="F783" s="58"/>
@@ -13390,7 +13498,7 @@
       <c r="O783" s="58"/>
       <c r="P783" s="58"/>
     </row>
-    <row r="784" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C784" s="58"/>
       <c r="E784" s="58"/>
       <c r="F784" s="58"/>
@@ -13405,7 +13513,7 @@
       <c r="O784" s="58"/>
       <c r="P784" s="58"/>
     </row>
-    <row r="785" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C785" s="58"/>
       <c r="E785" s="58"/>
       <c r="F785" s="58"/>
@@ -13420,7 +13528,7 @@
       <c r="O785" s="58"/>
       <c r="P785" s="58"/>
     </row>
-    <row r="786" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C786" s="58"/>
       <c r="E786" s="58"/>
       <c r="F786" s="58"/>
@@ -13435,7 +13543,7 @@
       <c r="O786" s="58"/>
       <c r="P786" s="58"/>
     </row>
-    <row r="787" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C787" s="58"/>
       <c r="E787" s="58"/>
       <c r="F787" s="58"/>
@@ -13450,7 +13558,7 @@
       <c r="O787" s="58"/>
       <c r="P787" s="58"/>
     </row>
-    <row r="788" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C788" s="58"/>
       <c r="E788" s="58"/>
       <c r="F788" s="58"/>
@@ -13465,7 +13573,7 @@
       <c r="O788" s="58"/>
       <c r="P788" s="58"/>
     </row>
-    <row r="789" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C789" s="58"/>
       <c r="E789" s="58"/>
       <c r="F789" s="58"/>
@@ -13480,7 +13588,7 @@
       <c r="O789" s="58"/>
       <c r="P789" s="58"/>
     </row>
-    <row r="790" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C790" s="58"/>
       <c r="E790" s="58"/>
       <c r="F790" s="58"/>
@@ -13495,7 +13603,7 @@
       <c r="O790" s="58"/>
       <c r="P790" s="58"/>
     </row>
-    <row r="791" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C791" s="58"/>
       <c r="E791" s="58"/>
       <c r="F791" s="58"/>
@@ -13510,7 +13618,7 @@
       <c r="O791" s="58"/>
       <c r="P791" s="58"/>
     </row>
-    <row r="792" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C792" s="58"/>
       <c r="E792" s="58"/>
       <c r="F792" s="58"/>
@@ -13525,7 +13633,7 @@
       <c r="O792" s="58"/>
       <c r="P792" s="58"/>
     </row>
-    <row r="793" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C793" s="58"/>
       <c r="E793" s="58"/>
       <c r="F793" s="58"/>
@@ -13540,7 +13648,7 @@
       <c r="O793" s="58"/>
       <c r="P793" s="58"/>
     </row>
-    <row r="794" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C794" s="58"/>
       <c r="E794" s="58"/>
       <c r="F794" s="58"/>
@@ -13555,7 +13663,7 @@
       <c r="O794" s="58"/>
       <c r="P794" s="58"/>
     </row>
-    <row r="795" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C795" s="58"/>
       <c r="E795" s="58"/>
       <c r="F795" s="58"/>
@@ -13570,7 +13678,7 @@
       <c r="O795" s="58"/>
       <c r="P795" s="58"/>
     </row>
-    <row r="796" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C796" s="58"/>
       <c r="E796" s="58"/>
       <c r="F796" s="58"/>
@@ -13585,7 +13693,7 @@
       <c r="O796" s="58"/>
       <c r="P796" s="58"/>
     </row>
-    <row r="797" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C797" s="58"/>
       <c r="E797" s="58"/>
       <c r="F797" s="58"/>
@@ -13600,7 +13708,7 @@
       <c r="O797" s="58"/>
       <c r="P797" s="58"/>
     </row>
-    <row r="798" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C798" s="58"/>
       <c r="E798" s="58"/>
       <c r="F798" s="58"/>
@@ -13615,7 +13723,7 @@
       <c r="O798" s="58"/>
       <c r="P798" s="58"/>
     </row>
-    <row r="799" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C799" s="58"/>
       <c r="E799" s="58"/>
       <c r="F799" s="58"/>
@@ -13630,7 +13738,7 @@
       <c r="O799" s="58"/>
       <c r="P799" s="58"/>
     </row>
-    <row r="800" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C800" s="58"/>
       <c r="E800" s="58"/>
       <c r="F800" s="58"/>
@@ -13645,7 +13753,7 @@
       <c r="O800" s="58"/>
       <c r="P800" s="58"/>
     </row>
-    <row r="801" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C801" s="58"/>
       <c r="E801" s="58"/>
       <c r="F801" s="58"/>
@@ -13660,7 +13768,7 @@
       <c r="O801" s="58"/>
       <c r="P801" s="58"/>
     </row>
-    <row r="802" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C802" s="58"/>
       <c r="E802" s="58"/>
       <c r="F802" s="58"/>
@@ -13675,7 +13783,7 @@
       <c r="O802" s="58"/>
       <c r="P802" s="58"/>
     </row>
-    <row r="803" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C803" s="58"/>
       <c r="E803" s="58"/>
       <c r="F803" s="58"/>
@@ -13690,7 +13798,7 @@
       <c r="O803" s="58"/>
       <c r="P803" s="58"/>
     </row>
-    <row r="804" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C804" s="58"/>
       <c r="E804" s="58"/>
       <c r="F804" s="58"/>
@@ -13705,7 +13813,7 @@
       <c r="O804" s="58"/>
       <c r="P804" s="58"/>
     </row>
-    <row r="805" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C805" s="58"/>
       <c r="E805" s="58"/>
       <c r="F805" s="58"/>
@@ -13720,7 +13828,7 @@
       <c r="O805" s="58"/>
       <c r="P805" s="58"/>
     </row>
-    <row r="806" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C806" s="58"/>
       <c r="E806" s="58"/>
       <c r="F806" s="58"/>
@@ -13735,7 +13843,7 @@
       <c r="O806" s="58"/>
       <c r="P806" s="58"/>
     </row>
-    <row r="807" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C807" s="58"/>
       <c r="E807" s="58"/>
       <c r="F807" s="58"/>
@@ -13750,7 +13858,7 @@
       <c r="O807" s="58"/>
       <c r="P807" s="58"/>
     </row>
-    <row r="808" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C808" s="58"/>
       <c r="E808" s="58"/>
       <c r="F808" s="58"/>
@@ -13765,7 +13873,7 @@
       <c r="O808" s="58"/>
       <c r="P808" s="58"/>
     </row>
-    <row r="809" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C809" s="58"/>
       <c r="E809" s="58"/>
       <c r="F809" s="58"/>
@@ -13780,7 +13888,7 @@
       <c r="O809" s="58"/>
       <c r="P809" s="58"/>
     </row>
-    <row r="810" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C810" s="58"/>
       <c r="E810" s="58"/>
       <c r="F810" s="58"/>
@@ -13795,7 +13903,7 @@
       <c r="O810" s="58"/>
       <c r="P810" s="58"/>
     </row>
-    <row r="811" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C811" s="58"/>
       <c r="E811" s="58"/>
       <c r="F811" s="58"/>
@@ -13810,7 +13918,7 @@
       <c r="O811" s="58"/>
       <c r="P811" s="58"/>
     </row>
-    <row r="812" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C812" s="58"/>
       <c r="E812" s="58"/>
       <c r="F812" s="58"/>
@@ -13825,7 +13933,7 @@
       <c r="O812" s="58"/>
       <c r="P812" s="58"/>
     </row>
-    <row r="813" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C813" s="58"/>
       <c r="E813" s="58"/>
       <c r="F813" s="58"/>
@@ -13840,7 +13948,7 @@
       <c r="O813" s="58"/>
       <c r="P813" s="58"/>
     </row>
-    <row r="814" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C814" s="58"/>
       <c r="E814" s="58"/>
       <c r="F814" s="58"/>
@@ -13855,7 +13963,7 @@
       <c r="O814" s="58"/>
       <c r="P814" s="58"/>
     </row>
-    <row r="815" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C815" s="58"/>
       <c r="E815" s="58"/>
       <c r="F815" s="58"/>
@@ -13870,7 +13978,7 @@
       <c r="O815" s="58"/>
       <c r="P815" s="58"/>
     </row>
-    <row r="816" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C816" s="58"/>
       <c r="E816" s="58"/>
       <c r="F816" s="58"/>
@@ -13885,7 +13993,7 @@
       <c r="O816" s="58"/>
       <c r="P816" s="58"/>
     </row>
-    <row r="817" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C817" s="58"/>
       <c r="E817" s="58"/>
       <c r="F817" s="58"/>
@@ -13900,7 +14008,7 @@
       <c r="O817" s="58"/>
       <c r="P817" s="58"/>
     </row>
-    <row r="818" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C818" s="58"/>
       <c r="E818" s="58"/>
       <c r="F818" s="58"/>
@@ -13915,7 +14023,7 @@
       <c r="O818" s="58"/>
       <c r="P818" s="58"/>
     </row>
-    <row r="819" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C819" s="58"/>
       <c r="E819" s="58"/>
       <c r="F819" s="58"/>
@@ -13930,7 +14038,7 @@
       <c r="O819" s="58"/>
       <c r="P819" s="58"/>
     </row>
-    <row r="820" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C820" s="58"/>
       <c r="E820" s="58"/>
       <c r="F820" s="58"/>
@@ -13945,7 +14053,7 @@
       <c r="O820" s="58"/>
       <c r="P820" s="58"/>
     </row>
-    <row r="821" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C821" s="58"/>
       <c r="E821" s="58"/>
       <c r="F821" s="58"/>
@@ -13960,7 +14068,7 @@
       <c r="O821" s="58"/>
       <c r="P821" s="58"/>
     </row>
-    <row r="822" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C822" s="58"/>
       <c r="E822" s="58"/>
       <c r="F822" s="58"/>
@@ -13975,7 +14083,7 @@
       <c r="O822" s="58"/>
       <c r="P822" s="58"/>
     </row>
-    <row r="823" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C823" s="58"/>
       <c r="E823" s="58"/>
       <c r="F823" s="58"/>
@@ -13990,7 +14098,7 @@
       <c r="O823" s="58"/>
       <c r="P823" s="58"/>
     </row>
-    <row r="824" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C824" s="58"/>
       <c r="E824" s="58"/>
       <c r="F824" s="58"/>
@@ -14005,7 +14113,7 @@
       <c r="O824" s="58"/>
       <c r="P824" s="58"/>
     </row>
-    <row r="825" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C825" s="58"/>
       <c r="E825" s="58"/>
       <c r="F825" s="58"/>
@@ -14020,7 +14128,7 @@
       <c r="O825" s="58"/>
       <c r="P825" s="58"/>
     </row>
-    <row r="826" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C826" s="58"/>
       <c r="E826" s="58"/>
       <c r="F826" s="58"/>
@@ -14035,7 +14143,7 @@
       <c r="O826" s="58"/>
       <c r="P826" s="58"/>
     </row>
-    <row r="827" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C827" s="58"/>
       <c r="E827" s="58"/>
       <c r="F827" s="58"/>
@@ -14050,7 +14158,7 @@
       <c r="O827" s="58"/>
       <c r="P827" s="58"/>
     </row>
-    <row r="828" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C828" s="58"/>
       <c r="E828" s="58"/>
       <c r="F828" s="58"/>
@@ -14065,7 +14173,7 @@
       <c r="O828" s="58"/>
       <c r="P828" s="58"/>
     </row>
-    <row r="829" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C829" s="58"/>
       <c r="E829" s="58"/>
       <c r="F829" s="58"/>
@@ -14080,7 +14188,7 @@
       <c r="O829" s="58"/>
       <c r="P829" s="58"/>
     </row>
-    <row r="830" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C830" s="58"/>
       <c r="E830" s="58"/>
       <c r="F830" s="58"/>
@@ -14095,7 +14203,7 @@
       <c r="O830" s="58"/>
       <c r="P830" s="58"/>
     </row>
-    <row r="831" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C831" s="58"/>
       <c r="E831" s="58"/>
       <c r="F831" s="58"/>
@@ -14110,7 +14218,7 @@
       <c r="O831" s="58"/>
       <c r="P831" s="58"/>
     </row>
-    <row r="832" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C832" s="58"/>
       <c r="E832" s="58"/>
       <c r="F832" s="58"/>
@@ -14125,7 +14233,7 @@
       <c r="O832" s="58"/>
       <c r="P832" s="58"/>
     </row>
-    <row r="833" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C833" s="58"/>
       <c r="E833" s="58"/>
       <c r="F833" s="58"/>
@@ -14140,7 +14248,7 @@
       <c r="O833" s="58"/>
       <c r="P833" s="58"/>
     </row>
-    <row r="834" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C834" s="58"/>
       <c r="E834" s="58"/>
       <c r="F834" s="58"/>
@@ -14155,7 +14263,7 @@
       <c r="O834" s="58"/>
       <c r="P834" s="58"/>
     </row>
-    <row r="835" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C835" s="58"/>
       <c r="E835" s="58"/>
       <c r="F835" s="58"/>
@@ -14170,7 +14278,7 @@
       <c r="O835" s="58"/>
       <c r="P835" s="58"/>
     </row>
-    <row r="836" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C836" s="58"/>
       <c r="E836" s="58"/>
       <c r="F836" s="58"/>
@@ -14185,7 +14293,7 @@
       <c r="O836" s="58"/>
       <c r="P836" s="58"/>
     </row>
-    <row r="837" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C837" s="58"/>
       <c r="E837" s="58"/>
       <c r="F837" s="58"/>
@@ -14200,7 +14308,7 @@
       <c r="O837" s="58"/>
       <c r="P837" s="58"/>
     </row>
-    <row r="838" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C838" s="58"/>
       <c r="E838" s="58"/>
       <c r="F838" s="58"/>
@@ -14215,7 +14323,7 @@
       <c r="O838" s="58"/>
       <c r="P838" s="58"/>
     </row>
-    <row r="839" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C839" s="58"/>
       <c r="E839" s="58"/>
       <c r="F839" s="58"/>
@@ -14230,7 +14338,7 @@
       <c r="O839" s="58"/>
       <c r="P839" s="58"/>
     </row>
-    <row r="840" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C840" s="58"/>
       <c r="E840" s="58"/>
       <c r="F840" s="58"/>
@@ -14245,7 +14353,7 @@
       <c r="O840" s="58"/>
       <c r="P840" s="58"/>
     </row>
-    <row r="841" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C841" s="58"/>
       <c r="E841" s="58"/>
       <c r="F841" s="58"/>
@@ -14260,7 +14368,7 @@
       <c r="O841" s="58"/>
       <c r="P841" s="58"/>
     </row>
-    <row r="842" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C842" s="58"/>
       <c r="E842" s="58"/>
       <c r="F842" s="58"/>
@@ -14275,7 +14383,7 @@
       <c r="O842" s="58"/>
       <c r="P842" s="58"/>
     </row>
-    <row r="843" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C843" s="58"/>
       <c r="E843" s="58"/>
       <c r="F843" s="58"/>
@@ -14290,7 +14398,7 @@
       <c r="O843" s="58"/>
       <c r="P843" s="58"/>
     </row>
-    <row r="844" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C844" s="58"/>
       <c r="E844" s="58"/>
       <c r="F844" s="58"/>
@@ -14305,7 +14413,7 @@
       <c r="O844" s="58"/>
       <c r="P844" s="58"/>
     </row>
-    <row r="845" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C845" s="58"/>
       <c r="E845" s="58"/>
       <c r="F845" s="58"/>
@@ -14320,7 +14428,7 @@
       <c r="O845" s="58"/>
       <c r="P845" s="58"/>
     </row>
-    <row r="846" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C846" s="58"/>
       <c r="E846" s="58"/>
       <c r="F846" s="58"/>
@@ -14335,7 +14443,7 @@
       <c r="O846" s="58"/>
       <c r="P846" s="58"/>
     </row>
-    <row r="847" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C847" s="58"/>
       <c r="E847" s="58"/>
       <c r="F847" s="58"/>
@@ -14350,7 +14458,7 @@
       <c r="O847" s="58"/>
       <c r="P847" s="58"/>
     </row>
-    <row r="848" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C848" s="58"/>
       <c r="E848" s="58"/>
       <c r="F848" s="58"/>
@@ -14365,7 +14473,7 @@
       <c r="O848" s="58"/>
       <c r="P848" s="58"/>
     </row>
-    <row r="849" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C849" s="58"/>
       <c r="E849" s="58"/>
       <c r="F849" s="58"/>
@@ -14380,7 +14488,7 @@
       <c r="O849" s="58"/>
       <c r="P849" s="58"/>
     </row>
-    <row r="850" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C850" s="58"/>
       <c r="E850" s="58"/>
       <c r="F850" s="58"/>
@@ -14395,7 +14503,7 @@
       <c r="O850" s="58"/>
       <c r="P850" s="58"/>
     </row>
-    <row r="851" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C851" s="58"/>
       <c r="E851" s="58"/>
       <c r="F851" s="58"/>
@@ -14410,7 +14518,7 @@
       <c r="O851" s="58"/>
       <c r="P851" s="58"/>
     </row>
-    <row r="852" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C852" s="58"/>
       <c r="E852" s="58"/>
       <c r="F852" s="58"/>
@@ -14425,7 +14533,7 @@
       <c r="O852" s="58"/>
       <c r="P852" s="58"/>
     </row>
-    <row r="853" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C853" s="58"/>
       <c r="E853" s="58"/>
       <c r="F853" s="58"/>
@@ -14440,7 +14548,7 @@
       <c r="O853" s="58"/>
       <c r="P853" s="58"/>
     </row>
-    <row r="854" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C854" s="58"/>
       <c r="E854" s="58"/>
       <c r="F854" s="58"/>
@@ -14455,7 +14563,7 @@
       <c r="O854" s="58"/>
       <c r="P854" s="58"/>
     </row>
-    <row r="855" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C855" s="58"/>
       <c r="E855" s="58"/>
       <c r="F855" s="58"/>
@@ -14470,7 +14578,7 @@
       <c r="O855" s="58"/>
       <c r="P855" s="58"/>
     </row>
-    <row r="856" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C856" s="58"/>
       <c r="E856" s="58"/>
       <c r="F856" s="58"/>
@@ -14485,7 +14593,7 @@
       <c r="O856" s="58"/>
       <c r="P856" s="58"/>
     </row>
-    <row r="857" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C857" s="58"/>
       <c r="E857" s="58"/>
       <c r="F857" s="58"/>
@@ -14500,7 +14608,7 @@
       <c r="O857" s="58"/>
       <c r="P857" s="58"/>
     </row>
-    <row r="858" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C858" s="58"/>
       <c r="E858" s="58"/>
       <c r="F858" s="58"/>
@@ -14515,7 +14623,7 @@
       <c r="O858" s="58"/>
       <c r="P858" s="58"/>
     </row>
-    <row r="859" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C859" s="58"/>
       <c r="E859" s="58"/>
       <c r="F859" s="58"/>
@@ -14530,7 +14638,7 @@
       <c r="O859" s="58"/>
       <c r="P859" s="58"/>
     </row>
-    <row r="860" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C860" s="58"/>
       <c r="E860" s="58"/>
       <c r="F860" s="58"/>
@@ -14545,7 +14653,7 @@
       <c r="O860" s="58"/>
       <c r="P860" s="58"/>
     </row>
-    <row r="861" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C861" s="58"/>
       <c r="E861" s="58"/>
       <c r="F861" s="58"/>
@@ -14560,7 +14668,7 @@
       <c r="O861" s="58"/>
       <c r="P861" s="58"/>
     </row>
-    <row r="862" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C862" s="58"/>
       <c r="E862" s="58"/>
       <c r="F862" s="58"/>
@@ -14575,7 +14683,7 @@
       <c r="O862" s="58"/>
       <c r="P862" s="58"/>
     </row>
-    <row r="863" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C863" s="58"/>
       <c r="E863" s="58"/>
       <c r="F863" s="58"/>
@@ -14590,7 +14698,7 @@
       <c r="O863" s="58"/>
       <c r="P863" s="58"/>
     </row>
-    <row r="864" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C864" s="58"/>
       <c r="E864" s="58"/>
       <c r="F864" s="58"/>
@@ -14605,7 +14713,7 @@
       <c r="O864" s="58"/>
       <c r="P864" s="58"/>
     </row>
-    <row r="865" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C865" s="58"/>
       <c r="E865" s="58"/>
       <c r="F865" s="58"/>
@@ -14620,7 +14728,7 @@
       <c r="O865" s="58"/>
       <c r="P865" s="58"/>
     </row>
-    <row r="866" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C866" s="58"/>
       <c r="E866" s="58"/>
       <c r="F866" s="58"/>
@@ -14635,7 +14743,7 @@
       <c r="O866" s="58"/>
       <c r="P866" s="58"/>
     </row>
-    <row r="867" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C867" s="58"/>
       <c r="E867" s="58"/>
       <c r="F867" s="58"/>
@@ -14650,7 +14758,7 @@
       <c r="O867" s="58"/>
       <c r="P867" s="58"/>
     </row>
-    <row r="868" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C868" s="58"/>
       <c r="E868" s="58"/>
       <c r="F868" s="58"/>
@@ -14665,7 +14773,7 @@
       <c r="O868" s="58"/>
       <c r="P868" s="58"/>
     </row>
-    <row r="869" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C869" s="58"/>
       <c r="E869" s="58"/>
       <c r="F869" s="58"/>
@@ -14680,7 +14788,7 @@
       <c r="O869" s="58"/>
       <c r="P869" s="58"/>
     </row>
-    <row r="870" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C870" s="58"/>
       <c r="E870" s="58"/>
       <c r="F870" s="58"/>
@@ -14695,7 +14803,7 @@
       <c r="O870" s="58"/>
       <c r="P870" s="58"/>
     </row>
-    <row r="871" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C871" s="58"/>
       <c r="E871" s="58"/>
       <c r="F871" s="58"/>
@@ -14710,7 +14818,7 @@
       <c r="O871" s="58"/>
       <c r="P871" s="58"/>
     </row>
-    <row r="872" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C872" s="58"/>
       <c r="E872" s="58"/>
       <c r="F872" s="58"/>
@@ -14725,7 +14833,7 @@
       <c r="O872" s="58"/>
       <c r="P872" s="58"/>
     </row>
-    <row r="873" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C873" s="58"/>
       <c r="E873" s="58"/>
       <c r="F873" s="58"/>
@@ -14740,7 +14848,7 @@
       <c r="O873" s="58"/>
       <c r="P873" s="58"/>
     </row>
-    <row r="874" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C874" s="58"/>
       <c r="E874" s="58"/>
       <c r="F874" s="58"/>
@@ -14755,7 +14863,7 @@
       <c r="O874" s="58"/>
       <c r="P874" s="58"/>
     </row>
-    <row r="875" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C875" s="58"/>
       <c r="E875" s="58"/>
       <c r="F875" s="58"/>
@@ -14770,7 +14878,7 @@
       <c r="O875" s="58"/>
       <c r="P875" s="58"/>
     </row>
-    <row r="876" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C876" s="58"/>
       <c r="E876" s="58"/>
       <c r="F876" s="58"/>
@@ -14785,7 +14893,7 @@
       <c r="O876" s="58"/>
       <c r="P876" s="58"/>
     </row>
-    <row r="877" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C877" s="58"/>
       <c r="E877" s="58"/>
       <c r="F877" s="58"/>
@@ -14800,7 +14908,7 @@
       <c r="O877" s="58"/>
       <c r="P877" s="58"/>
     </row>
-    <row r="878" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C878" s="58"/>
       <c r="E878" s="58"/>
       <c r="F878" s="58"/>
@@ -14815,7 +14923,7 @@
       <c r="O878" s="58"/>
       <c r="P878" s="58"/>
     </row>
-    <row r="879" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C879" s="58"/>
       <c r="E879" s="58"/>
       <c r="F879" s="58"/>
@@ -14830,7 +14938,7 @@
       <c r="O879" s="58"/>
       <c r="P879" s="58"/>
     </row>
-    <row r="880" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C880" s="58"/>
       <c r="E880" s="58"/>
       <c r="F880" s="58"/>
@@ -14845,7 +14953,7 @@
       <c r="O880" s="58"/>
       <c r="P880" s="58"/>
     </row>
-    <row r="881" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C881" s="58"/>
       <c r="E881" s="58"/>
       <c r="F881" s="58"/>
@@ -14860,7 +14968,7 @@
       <c r="O881" s="58"/>
       <c r="P881" s="58"/>
     </row>
-    <row r="882" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C882" s="58"/>
       <c r="E882" s="58"/>
       <c r="F882" s="58"/>
@@ -14875,7 +14983,7 @@
       <c r="O882" s="58"/>
       <c r="P882" s="58"/>
     </row>
-    <row r="883" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C883" s="58"/>
       <c r="E883" s="58"/>
       <c r="F883" s="58"/>
@@ -14890,7 +14998,7 @@
       <c r="O883" s="58"/>
       <c r="P883" s="58"/>
     </row>
-    <row r="884" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C884" s="58"/>
       <c r="E884" s="58"/>
       <c r="F884" s="58"/>
@@ -14905,7 +15013,7 @@
       <c r="O884" s="58"/>
       <c r="P884" s="58"/>
     </row>
-    <row r="885" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C885" s="58"/>
       <c r="E885" s="58"/>
       <c r="F885" s="58"/>
@@ -14920,7 +15028,7 @@
       <c r="O885" s="58"/>
       <c r="P885" s="58"/>
     </row>
-    <row r="886" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C886" s="58"/>
       <c r="E886" s="58"/>
       <c r="F886" s="58"/>
@@ -14935,7 +15043,7 @@
       <c r="O886" s="58"/>
       <c r="P886" s="58"/>
     </row>
-    <row r="887" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C887" s="58"/>
       <c r="E887" s="58"/>
       <c r="F887" s="58"/>
@@ -14950,7 +15058,7 @@
       <c r="O887" s="58"/>
       <c r="P887" s="58"/>
     </row>
-    <row r="888" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C888" s="58"/>
       <c r="E888" s="58"/>
       <c r="F888" s="58"/>
@@ -14965,7 +15073,7 @@
       <c r="O888" s="58"/>
       <c r="P888" s="58"/>
     </row>
-    <row r="889" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C889" s="58"/>
       <c r="E889" s="58"/>
       <c r="F889" s="58"/>
@@ -14980,7 +15088,7 @@
       <c r="O889" s="58"/>
       <c r="P889" s="58"/>
     </row>
-    <row r="890" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C890" s="58"/>
       <c r="E890" s="58"/>
       <c r="F890" s="58"/>
@@ -14995,7 +15103,7 @@
       <c r="O890" s="58"/>
       <c r="P890" s="58"/>
     </row>
-    <row r="891" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C891" s="58"/>
       <c r="E891" s="58"/>
       <c r="F891" s="58"/>
@@ -15010,7 +15118,7 @@
       <c r="O891" s="58"/>
       <c r="P891" s="58"/>
     </row>
-    <row r="892" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C892" s="58"/>
       <c r="E892" s="58"/>
       <c r="F892" s="58"/>
@@ -15025,7 +15133,7 @@
       <c r="O892" s="58"/>
       <c r="P892" s="58"/>
     </row>
-    <row r="893" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C893" s="58"/>
       <c r="E893" s="58"/>
       <c r="F893" s="58"/>
@@ -15040,7 +15148,7 @@
       <c r="O893" s="58"/>
       <c r="P893" s="58"/>
     </row>
-    <row r="894" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C894" s="58"/>
       <c r="E894" s="58"/>
       <c r="F894" s="58"/>
@@ -15055,7 +15163,7 @@
       <c r="O894" s="58"/>
       <c r="P894" s="58"/>
     </row>
-    <row r="895" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C895" s="58"/>
       <c r="E895" s="58"/>
       <c r="F895" s="58"/>
@@ -15070,7 +15178,7 @@
       <c r="O895" s="58"/>
       <c r="P895" s="58"/>
     </row>
-    <row r="896" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C896" s="58"/>
       <c r="E896" s="58"/>
       <c r="F896" s="58"/>
@@ -15085,7 +15193,7 @@
       <c r="O896" s="58"/>
       <c r="P896" s="58"/>
     </row>
-    <row r="897" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C897" s="58"/>
       <c r="E897" s="58"/>
       <c r="F897" s="58"/>
@@ -15100,7 +15208,7 @@
       <c r="O897" s="58"/>
       <c r="P897" s="58"/>
     </row>
-    <row r="898" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C898" s="58"/>
       <c r="E898" s="58"/>
       <c r="F898" s="58"/>
@@ -15115,7 +15223,7 @@
       <c r="O898" s="58"/>
       <c r="P898" s="58"/>
     </row>
-    <row r="899" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C899" s="58"/>
       <c r="E899" s="58"/>
       <c r="F899" s="58"/>
@@ -15130,7 +15238,7 @@
       <c r="O899" s="58"/>
       <c r="P899" s="58"/>
     </row>
-    <row r="900" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C900" s="58"/>
       <c r="E900" s="58"/>
       <c r="F900" s="58"/>
@@ -15145,7 +15253,7 @@
       <c r="O900" s="58"/>
       <c r="P900" s="58"/>
     </row>
-    <row r="901" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C901" s="58"/>
       <c r="E901" s="58"/>
       <c r="F901" s="58"/>
@@ -15160,7 +15268,7 @@
       <c r="O901" s="58"/>
       <c r="P901" s="58"/>
     </row>
-    <row r="902" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C902" s="58"/>
       <c r="E902" s="58"/>
       <c r="F902" s="58"/>
@@ -15175,7 +15283,7 @@
       <c r="O902" s="58"/>
       <c r="P902" s="58"/>
     </row>
-    <row r="903" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C903" s="58"/>
       <c r="E903" s="58"/>
       <c r="F903" s="58"/>
@@ -15190,7 +15298,7 @@
       <c r="O903" s="58"/>
       <c r="P903" s="58"/>
     </row>
-    <row r="904" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C904" s="58"/>
       <c r="E904" s="58"/>
       <c r="F904" s="58"/>
@@ -15205,7 +15313,7 @@
       <c r="O904" s="58"/>
       <c r="P904" s="58"/>
     </row>
-    <row r="905" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C905" s="58"/>
       <c r="E905" s="58"/>
       <c r="F905" s="58"/>
@@ -15220,7 +15328,7 @@
       <c r="O905" s="58"/>
       <c r="P905" s="58"/>
     </row>
-    <row r="906" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C906" s="58"/>
       <c r="E906" s="58"/>
       <c r="F906" s="58"/>
@@ -15235,7 +15343,7 @@
       <c r="O906" s="58"/>
       <c r="P906" s="58"/>
     </row>
-    <row r="907" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C907" s="58"/>
       <c r="E907" s="58"/>
       <c r="F907" s="58"/>
@@ -15250,7 +15358,7 @@
       <c r="O907" s="58"/>
       <c r="P907" s="58"/>
     </row>
-    <row r="908" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C908" s="58"/>
       <c r="E908" s="58"/>
       <c r="F908" s="58"/>
@@ -15265,7 +15373,7 @@
       <c r="O908" s="58"/>
       <c r="P908" s="58"/>
     </row>
-    <row r="909" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C909" s="58"/>
       <c r="E909" s="58"/>
       <c r="F909" s="58"/>
@@ -15280,7 +15388,7 @@
       <c r="O909" s="58"/>
       <c r="P909" s="58"/>
     </row>
-    <row r="910" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C910" s="58"/>
       <c r="E910" s="58"/>
       <c r="F910" s="58"/>
@@ -15295,7 +15403,7 @@
       <c r="O910" s="58"/>
       <c r="P910" s="58"/>
     </row>
-    <row r="911" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C911" s="58"/>
       <c r="E911" s="58"/>
       <c r="F911" s="58"/>
@@ -15310,7 +15418,7 @@
       <c r="O911" s="58"/>
       <c r="P911" s="58"/>
     </row>
-    <row r="912" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C912" s="58"/>
       <c r="E912" s="58"/>
       <c r="F912" s="58"/>
@@ -15325,7 +15433,7 @@
       <c r="O912" s="58"/>
       <c r="P912" s="58"/>
     </row>
-    <row r="913" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C913" s="58"/>
       <c r="E913" s="58"/>
       <c r="F913" s="58"/>
@@ -15340,7 +15448,7 @@
       <c r="O913" s="58"/>
       <c r="P913" s="58"/>
     </row>
-    <row r="914" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C914" s="58"/>
       <c r="E914" s="58"/>
       <c r="F914" s="58"/>
@@ -15355,7 +15463,7 @@
       <c r="O914" s="58"/>
       <c r="P914" s="58"/>
     </row>
-    <row r="915" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C915" s="58"/>
       <c r="E915" s="58"/>
       <c r="F915" s="58"/>
@@ -15370,7 +15478,7 @@
       <c r="O915" s="58"/>
       <c r="P915" s="58"/>
     </row>
-    <row r="916" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C916" s="58"/>
       <c r="E916" s="58"/>
       <c r="F916" s="58"/>
@@ -15385,7 +15493,7 @@
       <c r="O916" s="58"/>
       <c r="P916" s="58"/>
     </row>
-    <row r="917" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C917" s="58"/>
       <c r="E917" s="58"/>
       <c r="F917" s="58"/>
@@ -15400,7 +15508,7 @@
       <c r="O917" s="58"/>
       <c r="P917" s="58"/>
     </row>
-    <row r="918" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C918" s="58"/>
       <c r="E918" s="58"/>
       <c r="F918" s="58"/>
@@ -15415,7 +15523,7 @@
       <c r="O918" s="58"/>
       <c r="P918" s="58"/>
     </row>
-    <row r="919" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C919" s="58"/>
       <c r="E919" s="58"/>
       <c r="F919" s="58"/>
@@ -15430,7 +15538,7 @@
       <c r="O919" s="58"/>
       <c r="P919" s="58"/>
     </row>
-    <row r="920" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C920" s="58"/>
       <c r="E920" s="58"/>
       <c r="F920" s="58"/>
@@ -15445,7 +15553,7 @@
       <c r="O920" s="58"/>
       <c r="P920" s="58"/>
     </row>
-    <row r="921" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C921" s="58"/>
       <c r="E921" s="58"/>
       <c r="F921" s="58"/>
@@ -15460,7 +15568,7 @@
       <c r="O921" s="58"/>
       <c r="P921" s="58"/>
     </row>
-    <row r="922" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C922" s="58"/>
       <c r="E922" s="58"/>
       <c r="F922" s="58"/>
@@ -15475,7 +15583,7 @@
       <c r="O922" s="58"/>
       <c r="P922" s="58"/>
     </row>
-    <row r="923" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C923" s="58"/>
       <c r="E923" s="58"/>
       <c r="F923" s="58"/>
@@ -15490,7 +15598,7 @@
       <c r="O923" s="58"/>
       <c r="P923" s="58"/>
     </row>
-    <row r="924" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C924" s="58"/>
       <c r="E924" s="58"/>
       <c r="F924" s="58"/>
@@ -15505,7 +15613,7 @@
       <c r="O924" s="58"/>
       <c r="P924" s="58"/>
     </row>
-    <row r="925" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C925" s="58"/>
       <c r="E925" s="58"/>
       <c r="F925" s="58"/>
@@ -15520,7 +15628,7 @@
       <c r="O925" s="58"/>
       <c r="P925" s="58"/>
     </row>
-    <row r="926" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C926" s="58"/>
       <c r="E926" s="58"/>
       <c r="F926" s="58"/>
@@ -15535,7 +15643,7 @@
       <c r="O926" s="58"/>
       <c r="P926" s="58"/>
     </row>
-    <row r="927" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C927" s="58"/>
       <c r="E927" s="58"/>
       <c r="F927" s="58"/>
@@ -15550,7 +15658,7 @@
       <c r="O927" s="58"/>
       <c r="P927" s="58"/>
     </row>
-    <row r="928" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C928" s="58"/>
       <c r="E928" s="58"/>
       <c r="F928" s="58"/>
@@ -15565,7 +15673,7 @@
       <c r="O928" s="58"/>
       <c r="P928" s="58"/>
     </row>
-    <row r="929" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C929" s="58"/>
       <c r="E929" s="58"/>
       <c r="F929" s="58"/>
@@ -15580,7 +15688,7 @@
       <c r="O929" s="58"/>
       <c r="P929" s="58"/>
     </row>
-    <row r="930" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C930" s="58"/>
       <c r="E930" s="58"/>
       <c r="F930" s="58"/>
@@ -15595,7 +15703,7 @@
       <c r="O930" s="58"/>
       <c r="P930" s="58"/>
     </row>
-    <row r="931" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C931" s="58"/>
       <c r="E931" s="58"/>
       <c r="F931" s="58"/>
@@ -15610,7 +15718,7 @@
       <c r="O931" s="58"/>
       <c r="P931" s="58"/>
     </row>
-    <row r="932" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C932" s="58"/>
       <c r="E932" s="58"/>
       <c r="F932" s="58"/>
@@ -15625,7 +15733,7 @@
       <c r="O932" s="58"/>
       <c r="P932" s="58"/>
     </row>
-    <row r="933" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C933" s="58"/>
       <c r="E933" s="58"/>
       <c r="F933" s="58"/>
@@ -15640,7 +15748,7 @@
       <c r="O933" s="58"/>
       <c r="P933" s="58"/>
     </row>
-    <row r="934" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C934" s="58"/>
       <c r="E934" s="58"/>
       <c r="F934" s="58"/>
@@ -15655,7 +15763,7 @@
       <c r="O934" s="58"/>
       <c r="P934" s="58"/>
     </row>
-    <row r="935" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C935" s="58"/>
       <c r="E935" s="58"/>
       <c r="F935" s="58"/>
@@ -15670,7 +15778,7 @@
       <c r="O935" s="58"/>
       <c r="P935" s="58"/>
     </row>
-    <row r="936" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C936" s="58"/>
       <c r="E936" s="58"/>
       <c r="F936" s="58"/>
@@ -15685,7 +15793,7 @@
       <c r="O936" s="58"/>
       <c r="P936" s="58"/>
     </row>
-    <row r="937" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C937" s="58"/>
       <c r="E937" s="58"/>
       <c r="F937" s="58"/>
@@ -15700,7 +15808,7 @@
       <c r="O937" s="58"/>
       <c r="P937" s="58"/>
     </row>
-    <row r="938" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C938" s="58"/>
       <c r="E938" s="58"/>
       <c r="F938" s="58"/>
@@ -15715,7 +15823,7 @@
       <c r="O938" s="58"/>
       <c r="P938" s="58"/>
     </row>
-    <row r="939" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C939" s="58"/>
       <c r="E939" s="58"/>
       <c r="F939" s="58"/>
@@ -15730,7 +15838,7 @@
       <c r="O939" s="58"/>
       <c r="P939" s="58"/>
     </row>
-    <row r="940" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C940" s="58"/>
       <c r="E940" s="58"/>
       <c r="F940" s="58"/>
@@ -15745,7 +15853,7 @@
       <c r="O940" s="58"/>
       <c r="P940" s="58"/>
     </row>
-    <row r="941" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C941" s="58"/>
       <c r="E941" s="58"/>
       <c r="F941" s="58"/>
@@ -15760,7 +15868,7 @@
       <c r="O941" s="58"/>
       <c r="P941" s="58"/>
     </row>
-    <row r="942" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C942" s="58"/>
       <c r="E942" s="58"/>
       <c r="F942" s="58"/>
@@ -15775,7 +15883,7 @@
       <c r="O942" s="58"/>
       <c r="P942" s="58"/>
     </row>
-    <row r="943" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C943" s="58"/>
       <c r="E943" s="58"/>
       <c r="F943" s="58"/>
@@ -15790,7 +15898,7 @@
       <c r="O943" s="58"/>
       <c r="P943" s="58"/>
     </row>
-    <row r="944" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C944" s="58"/>
       <c r="E944" s="58"/>
       <c r="F944" s="58"/>
@@ -15805,7 +15913,7 @@
       <c r="O944" s="58"/>
       <c r="P944" s="58"/>
     </row>
-    <row r="945" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C945" s="58"/>
       <c r="E945" s="58"/>
       <c r="F945" s="58"/>
@@ -15820,7 +15928,7 @@
       <c r="O945" s="58"/>
       <c r="P945" s="58"/>
     </row>
-    <row r="946" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C946" s="58"/>
       <c r="E946" s="58"/>
       <c r="F946" s="58"/>
@@ -15835,7 +15943,7 @@
       <c r="O946" s="58"/>
       <c r="P946" s="58"/>
     </row>
-    <row r="947" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C947" s="58"/>
       <c r="E947" s="58"/>
       <c r="F947" s="58"/>
@@ -15850,7 +15958,7 @@
       <c r="O947" s="58"/>
       <c r="P947" s="58"/>
     </row>
-    <row r="948" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C948" s="58"/>
       <c r="E948" s="58"/>
       <c r="F948" s="58"/>
@@ -15865,7 +15973,7 @@
       <c r="O948" s="58"/>
       <c r="P948" s="58"/>
     </row>
-    <row r="949" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C949" s="58"/>
       <c r="E949" s="58"/>
       <c r="F949" s="58"/>
@@ -15880,7 +15988,7 @@
       <c r="O949" s="58"/>
       <c r="P949" s="58"/>
     </row>
-    <row r="950" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C950" s="58"/>
       <c r="E950" s="58"/>
       <c r="F950" s="58"/>
@@ -15895,7 +16003,7 @@
       <c r="O950" s="58"/>
       <c r="P950" s="58"/>
     </row>
-    <row r="951" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C951" s="58"/>
       <c r="E951" s="58"/>
       <c r="F951" s="58"/>
@@ -15910,7 +16018,7 @@
       <c r="O951" s="58"/>
       <c r="P951" s="58"/>
     </row>
-    <row r="952" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C952" s="58"/>
       <c r="E952" s="58"/>
       <c r="F952" s="58"/>
@@ -15925,7 +16033,7 @@
       <c r="O952" s="58"/>
       <c r="P952" s="58"/>
     </row>
-    <row r="953" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C953" s="58"/>
       <c r="E953" s="58"/>
       <c r="F953" s="58"/>
@@ -15940,7 +16048,7 @@
       <c r="O953" s="58"/>
       <c r="P953" s="58"/>
     </row>
-    <row r="954" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C954" s="58"/>
       <c r="E954" s="58"/>
       <c r="F954" s="58"/>
@@ -15955,7 +16063,7 @@
       <c r="O954" s="58"/>
       <c r="P954" s="58"/>
     </row>
-    <row r="955" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C955" s="58"/>
       <c r="E955" s="58"/>
       <c r="F955" s="58"/>
@@ -15970,7 +16078,7 @@
       <c r="O955" s="58"/>
       <c r="P955" s="58"/>
     </row>
-    <row r="956" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C956" s="58"/>
       <c r="E956" s="58"/>
       <c r="F956" s="58"/>
@@ -15985,7 +16093,7 @@
       <c r="O956" s="58"/>
       <c r="P956" s="58"/>
     </row>
-    <row r="957" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C957" s="58"/>
       <c r="E957" s="58"/>
       <c r="F957" s="58"/>
@@ -16000,7 +16108,7 @@
       <c r="O957" s="58"/>
       <c r="P957" s="58"/>
     </row>
-    <row r="958" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C958" s="58"/>
       <c r="E958" s="58"/>
       <c r="F958" s="58"/>
@@ -16015,7 +16123,7 @@
       <c r="O958" s="58"/>
       <c r="P958" s="58"/>
     </row>
-    <row r="959" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C959" s="58"/>
       <c r="E959" s="58"/>
       <c r="F959" s="58"/>
@@ -16030,7 +16138,7 @@
       <c r="O959" s="58"/>
       <c r="P959" s="58"/>
     </row>
-    <row r="960" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C960" s="58"/>
       <c r="E960" s="58"/>
       <c r="F960" s="58"/>
@@ -16045,7 +16153,7 @@
       <c r="O960" s="58"/>
       <c r="P960" s="58"/>
     </row>
-    <row r="961" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C961" s="58"/>
       <c r="E961" s="58"/>
       <c r="F961" s="58"/>
